--- a/src/main/resources/login.xlsx
+++ b/src/main/resources/login.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TW\IdeaProjects\zhongyang\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="账号信息" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="备份数据" sheetId="3" r:id="rId3"/>
+    <sheet name="账号信息 (2)" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="145">
   <si>
     <t>Account</t>
   </si>
@@ -451,28 +456,13 @@
   </si>
   <si>
     <t>j15167186038@163.com</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>ExpectedTips</t>
-  </si>
-  <si>
-    <t>z13587172463@163.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,7 +475,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -493,7 +483,7 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -504,135 +494,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -647,222 +515,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -885,251 +573,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1140,46 +589,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1187,75 +636,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1513,26 +919,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.1818181818182" customWidth="1"/>
-    <col min="2" max="3" width="17.8" customWidth="1"/>
-    <col min="4" max="4" width="13.9272727272727" customWidth="1"/>
+    <col min="1" max="1" width="26.125" customWidth="1"/>
+    <col min="2" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1546,7 +952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -1560,7 +966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -1574,7 +980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -1588,37 +994,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
@@ -1630,9 +1036,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
@@ -1644,9 +1050,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>11</v>
@@ -1658,9 +1064,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>11</v>
@@ -1672,9 +1078,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
@@ -1686,9 +1092,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>11</v>
@@ -1700,9 +1106,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>11</v>
@@ -1714,9 +1120,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>11</v>
@@ -1728,9 +1134,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>11</v>
@@ -1742,9 +1148,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>11</v>
@@ -1756,9 +1162,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>11</v>
@@ -1770,9 +1176,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>11</v>
@@ -1784,9 +1190,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>11</v>
@@ -1798,9 +1204,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>11</v>
@@ -1812,9 +1218,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>11</v>
@@ -1826,9 +1232,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>11</v>
@@ -1840,9 +1246,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>11</v>
@@ -1854,9 +1260,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>11</v>
@@ -1868,9 +1274,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>11</v>
@@ -1882,9 +1288,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
-        <v>34</v>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>11</v>
@@ -1896,9 +1302,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
-        <v>35</v>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>11</v>
@@ -1910,9 +1316,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>11</v>
@@ -1924,9 +1330,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>11</v>
@@ -1938,9 +1344,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>11</v>
@@ -1952,9 +1358,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>11</v>
@@ -1966,9 +1372,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>11</v>
@@ -1980,9 +1386,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>11</v>
@@ -1994,9 +1400,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>11</v>
@@ -2008,9 +1414,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>11</v>
@@ -2022,9 +1428,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>11</v>
@@ -2036,9 +1442,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>11</v>
@@ -2050,37 +1456,37 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>9</v>
@@ -2092,9 +1498,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>9</v>
@@ -2106,9 +1512,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>9</v>
@@ -2120,9 +1526,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>9</v>
@@ -2134,9 +1540,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>9</v>
@@ -2148,9 +1554,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>9</v>
@@ -2162,37 +1568,37 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>9</v>
@@ -2204,9 +1610,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>9</v>
@@ -2218,9 +1624,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>9</v>
@@ -2232,9 +1638,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>9</v>
@@ -2246,79 +1652,79 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>69</v>
@@ -2330,168 +1736,168 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="5" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B59" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C59" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D59" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="4" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="14" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B61" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C61" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D61" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="64" ht="15" spans="1:5">
-      <c r="A64" s="15" t="s">
+    <row r="62" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A62" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B64" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="17" t="s">
+      <c r="B62" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E64" s="18"/>
-    </row>
-    <row r="65" ht="15" spans="1:5">
-      <c r="A65" s="19" t="s">
+      <c r="E62" s="18"/>
+    </row>
+    <row r="63" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A63" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="D63" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E65" s="21"/>
-    </row>
-    <row r="66" ht="15" spans="1:5">
+      <c r="E63" s="21"/>
+    </row>
+    <row r="64" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A64" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E64" s="21"/>
+    </row>
+    <row r="65" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A65" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65" s="18"/>
+    </row>
+    <row r="66" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="22" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D66" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E66" s="21"/>
-    </row>
-    <row r="67" ht="15" spans="1:5">
-      <c r="A67" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B67" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E67" s="18"/>
-    </row>
-    <row r="68" ht="15" spans="1:5">
-      <c r="A68" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B68" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E68" s="18"/>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E66" s="18"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>5</v>
@@ -2503,9 +1909,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>5</v>
@@ -2517,9 +1923,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>5</v>
@@ -2531,9 +1937,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>5</v>
@@ -2545,9 +1951,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B73" s="13" t="s">
         <v>5</v>
@@ -2559,37 +1965,37 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D74" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D75" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="12" t="s">
-        <v>101</v>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>9</v>
@@ -2601,9 +2007,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="12" t="s">
-        <v>102</v>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>9</v>
@@ -2615,37 +2021,37 @@
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="10" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B80" s="11" t="s">
         <v>106</v>
@@ -2657,9 +2063,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>106</v>
@@ -2671,9 +2077,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B82" s="11" t="s">
         <v>106</v>
@@ -2685,37 +2091,37 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B85" s="11" t="s">
         <v>9</v>
@@ -2727,9 +2133,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B86" s="11" t="s">
         <v>9</v>
@@ -2741,9 +2147,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="10" t="s">
-        <v>114</v>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="25" t="s">
+        <v>116</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>9</v>
@@ -2755,9 +2161,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="10" t="s">
-        <v>115</v>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="25" t="s">
+        <v>117</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>9</v>
@@ -2769,9 +2175,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="25" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B89" s="11" t="s">
         <v>9</v>
@@ -2783,9 +2189,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="25" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B90" s="11" t="s">
         <v>9</v>
@@ -2797,9 +2203,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="25" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B91" s="11" t="s">
         <v>9</v>
@@ -2811,9 +2217,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B92" s="11" t="s">
         <v>9</v>
@@ -2825,37 +2231,37 @@
         <v>107</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>123</v>
@@ -2867,9 +2273,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>123</v>
@@ -2881,9 +2287,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>123</v>
@@ -2895,9 +2301,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>123</v>
@@ -2909,9 +2315,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>123</v>
@@ -2923,9 +2329,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>123</v>
@@ -2937,65 +2343,65 @@
         <v>124</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="2" t="s">
-        <v>131</v>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>9</v>
@@ -3007,9 +2413,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>9</v>
@@ -3021,9 +2427,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>9</v>
@@ -3035,9 +2441,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>9</v>
@@ -3049,9 +2455,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>9</v>
@@ -3063,9 +2469,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>9</v>
@@ -3077,9 +2483,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>9</v>
@@ -3091,9 +2497,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="5" t="s">
-        <v>142</v>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112" s="7" t="s">
+        <v>144</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>9</v>
@@ -3105,172 +2511,141 @@
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="b15158015845@163.com" tooltip="mailto:b15158015845@163.com"/>
-    <hyperlink ref="A2" r:id="rId2" display="a15158015845@163.com" tooltip="mailto:a15158015845@163.com"/>
-    <hyperlink ref="A5" r:id="rId3" display="a17706132072@163.com" tooltip="mailto:a17706132072@163.com"/>
-    <hyperlink ref="A6" r:id="rId4" display="b17706132072@163.com" tooltip="mailto:b17706132072@163.com"/>
-    <hyperlink ref="A7" r:id="rId5" display="a13587172463@163.com" tooltip="mailto:a15157887349@163.com"/>
-    <hyperlink ref="A8" r:id="rId6" display="b13587172463@163.com" tooltip="mailto:b15157887349@163.com"/>
-    <hyperlink ref="A9" r:id="rId7" display="n13587172463@163.com" tooltip="mailto:n13587172463@163.com"/>
-    <hyperlink ref="A10" r:id="rId8" display="o13587172463@163.com" tooltip="mailto:o13587172463@163.com"/>
-    <hyperlink ref="A11" r:id="rId9" display="p13587172463@163.com" tooltip="mailto:p13587172463@163.com"/>
-    <hyperlink ref="A12" r:id="rId10" display="qq13587172463@163.com" tooltip="mailto:qq13587172463@163.com"/>
-    <hyperlink ref="A13" r:id="rId11" display="r13587172463@163.com" tooltip="mailto:r13587172463@163.com"/>
-    <hyperlink ref="A14" r:id="rId12" display="s13587172463@163.com" tooltip="mailto:s13587172463@163.com"/>
-    <hyperlink ref="A15" r:id="rId13" display="t13587172463@163.com" tooltip="mailto:t13587172463@163.com"/>
-    <hyperlink ref="A16" r:id="rId14" display="u13587172463@163.com" tooltip="mailto:u13587172463@163.com"/>
-    <hyperlink ref="A17" r:id="rId15" display="v13587172463@163.com" tooltip="mailto:v13587172463@163.com"/>
-    <hyperlink ref="A18" r:id="rId16" display="w13587172463@163.com" tooltip="mailto:w13587172463@163.com"/>
-    <hyperlink ref="A19" r:id="rId17" display="x13587172463@163.com" tooltip="mailto:x13587172463@163.com"/>
-    <hyperlink ref="A20" r:id="rId18" display="y13587172463@163.com" tooltip="mailto:y13587172463@163.com"/>
-    <hyperlink ref="A21" r:id="rId19" display="aa13587172463@163.com" tooltip="mailto:aa13587172463@163.com"/>
-    <hyperlink ref="A22" r:id="rId20" display="bb13587172463@163.com" tooltip="mailto:bb13587172463@163.com"/>
-    <hyperlink ref="A23" r:id="rId21" display="cc13587172463@163.com" tooltip="mailto:cc13587172463@163.com"/>
-    <hyperlink ref="A24" r:id="rId22" display="dd13587172463@163.com" tooltip="mailto:dd13587172463@163.com"/>
-    <hyperlink ref="A26" r:id="rId23" display="ff13587172463@163.com" tooltip="mailto:ff13587172463@163.com"/>
-    <hyperlink ref="A28" r:id="rId24" display="hh13587172463@163.com" tooltip="mailto:hh13587172463@163.com"/>
-    <hyperlink ref="A27" r:id="rId25" display="gg13587172463@163.com" tooltip="mailto:gg13587172463@163.com"/>
-    <hyperlink ref="A25" r:id="rId26" display="ee13587172463@163.com" tooltip="mailto:ee13587172463@163.com"/>
-    <hyperlink ref="A29" r:id="rId27" display="ll13587172463@163.com" tooltip="mailto:ll13587172463@163.com"/>
-    <hyperlink ref="A30" r:id="rId28" display="jj13587172463@163.com" tooltip="mailto:jj13587172463@163.com"/>
-    <hyperlink ref="A31" r:id="rId29" display="kk13587172463@163.com" tooltip="mailto:kk13587172463@163.com"/>
-    <hyperlink ref="A32" r:id="rId30" display="mm13587172463@163.com" tooltip="mailto:mm13587172463@163.com"/>
-    <hyperlink ref="A33" r:id="rId31" display="nn13587172463@163.com" tooltip="mailto:nn13587172463@163.com"/>
-    <hyperlink ref="A34" r:id="rId32" display="oo13587172463@163.com" tooltip="mailto:oo13587172463@163.com"/>
-    <hyperlink ref="A35" r:id="rId33" display="pp13587172463@163.com" tooltip="mailto:pp13587172463@163.com"/>
-    <hyperlink ref="A36" r:id="rId34" display="rr13587172463@163.com" tooltip="mailto:rr13587172463@163.com"/>
-    <hyperlink ref="A37" r:id="rId35" display="ss13587172463@163.com" tooltip="mailto:ss13587172463@163.com"/>
-    <hyperlink ref="A38" r:id="rId36" display="tt13587172463@163.com" tooltip="mailto:tt13587172463@163.com"/>
-    <hyperlink ref="A39" r:id="rId37" display="uu13587172463@163.com" tooltip="mailto:uu13587172463@163.com"/>
-    <hyperlink ref="A40" r:id="rId38" display="vv13587172463@163.com" tooltip="mailto:vv13587172463@163.com"/>
-    <hyperlink ref="A41" r:id="rId39" display="ww13587172463@163.com" tooltip="mailto:ww13587172463@163.com"/>
-    <hyperlink ref="A42" r:id="rId40" display="xx13587172463@163.com" tooltip="mailto:xx13587172463@163.com"/>
-    <hyperlink ref="A43" r:id="rId41" display="yy13587172463@163.com" tooltip="mailto:yy13587172463@163.com"/>
-    <hyperlink ref="A44" r:id="rId42" display="zz13587172463@163.com" tooltip="mailto:zz13587172463@163.com"/>
-    <hyperlink ref="A48" r:id="rId43" display="a13757098596@163.com" tooltip="mailto:a13757098596@163.com"/>
-    <hyperlink ref="A49" r:id="rId44" display="b13757098596@163.com" tooltip="mailto:b13757098596@163.com"/>
-    <hyperlink ref="A50" r:id="rId45" display="g13757098596@163.com"/>
-    <hyperlink ref="A51" r:id="rId46" display="h13757098596@163.com"/>
-    <hyperlink ref="A52" r:id="rId47" display="l13757098596@163.com"/>
-    <hyperlink ref="A53" r:id="rId48" display="j13757098596@163.com"/>
-    <hyperlink ref="A54" r:id="rId49" display="a15267310606@163.com" tooltip="mailto:a15267310606@163.com"/>
-    <hyperlink ref="A55" r:id="rId50" display="b15267310606@163.com" tooltip="mailto:b15267310606@163.com"/>
-    <hyperlink ref="A56" r:id="rId51" display="c15267310606@163.com" tooltip="mailto:c15267310606@163.com"/>
-    <hyperlink ref="A57" r:id="rId52" display="c15957826243@163.com" tooltip="mailto:c15957826243@163.com"/>
-    <hyperlink ref="A58" r:id="rId53" display="d15957826243@163.com" tooltip="mailto:d15957826243@163.com"/>
-    <hyperlink ref="A59" r:id="rId54" display="e15957826243@163.com" tooltip="mailto:e15957826243@163.com"/>
-    <hyperlink ref="A60" r:id="rId55" display="f15957826243@163.com" tooltip="mailto:f15957826243@163.com"/>
-    <hyperlink ref="A61" r:id="rId56" display="a13567614850@163.com" tooltip="mailto:a13567614850@163.com"/>
-    <hyperlink ref="A62" r:id="rId57" display="a13291866525@163.com" tooltip="mailto:a13291866525@163.com"/>
-    <hyperlink ref="A63" r:id="rId58" display="a15305783466@163.com" tooltip="mailto:a15305783466@163.com"/>
-    <hyperlink ref="A64" r:id="rId59" display="a13868069569@163.com"/>
-    <hyperlink ref="A65" r:id="rId60" display="a15857806565@163.com" tooltip="mailto:a15857806565@163.com"/>
-    <hyperlink ref="A66" r:id="rId61" display="a15058687363@163.com" tooltip="mailto:a15058687363@163.com"/>
-    <hyperlink ref="A67" r:id="rId62" display="b15058687363@163.com" tooltip="mailto:b15058687363@163.com"/>
-    <hyperlink ref="A68" r:id="rId63" display="c15058687363@163.com" tooltip="mailto:c15058687363@163.com"/>
-    <hyperlink ref="A4" r:id="rId64" display="d15158015845@163.com" tooltip="mailto:d15158015845@163.com"/>
-    <hyperlink ref="A45" r:id="rId65" display="ggg13587172463@163.com" tooltip="mailto:ggg13587172463@163.com"/>
-    <hyperlink ref="A69" r:id="rId5" display="a15157887349@163.com" tooltip="mailto:a15157887349@163.com"/>
-    <hyperlink ref="A70" r:id="rId44" display="b15157887349@163.com" tooltip="mailto:b13757098596@163.com"/>
-    <hyperlink ref="A75" r:id="rId45" display="g15157887349@163.com"/>
-    <hyperlink ref="A76" r:id="rId46" display="h15157887349@163.com"/>
-    <hyperlink ref="A77" r:id="rId47" display="l15157887349@163.com"/>
-    <hyperlink ref="A78" r:id="rId48" display="j15157887349@163.com"/>
-    <hyperlink ref="A71" r:id="rId52" display="c15157887349@163.com" tooltip="mailto:c15957826243@163.com"/>
-    <hyperlink ref="A72" r:id="rId53" display="d15157887349@163.com" tooltip="mailto:d15957826243@163.com"/>
-    <hyperlink ref="A73" r:id="rId54" display="e15157887349@163.com" tooltip="mailto:e15957826243@163.com"/>
-    <hyperlink ref="A74" r:id="rId55" display="f15157887349@163.com" tooltip="mailto:f15957826243@163.com"/>
-    <hyperlink ref="A46" r:id="rId66" display="ah13587172463@163.com" tooltip="mailto:ah13587172463@163.com"/>
-    <hyperlink ref="A47" r:id="rId67" display="am13587172463@163.com" tooltip="mailto:am13587172463@163.com"/>
-    <hyperlink ref="A79" r:id="rId68" display="k15157887349@163.com" tooltip="mailto:k15157887349@163.com"/>
-    <hyperlink ref="A80" r:id="rId5" display="a13626784727@163.com" tooltip="mailto:a15157887349@163.com"/>
-    <hyperlink ref="A81" r:id="rId44" display="b13626784727@163.com" tooltip="mailto:b13757098596@163.com"/>
-    <hyperlink ref="A86" r:id="rId45" display="g13626784727@163.com"/>
-    <hyperlink ref="A87" r:id="rId46" display="h13626784727@163.com"/>
-    <hyperlink ref="A88" r:id="rId47" display="l13626784727@163.com"/>
-    <hyperlink ref="A89" r:id="rId48" display="j13626784727@163.com"/>
-    <hyperlink ref="A82" r:id="rId52" display="c13626784727@163.com" tooltip="mailto:c15957826243@163.com"/>
-    <hyperlink ref="A83" r:id="rId53" display="d13626784727@163.com" tooltip="mailto:d15957826243@163.com"/>
-    <hyperlink ref="A84" r:id="rId54" display="e13626784727@163.com" tooltip="mailto:e15957826243@163.com"/>
-    <hyperlink ref="A85" r:id="rId55" display="f13626784727@163.com" tooltip="mailto:f15957826243@163.com"/>
-    <hyperlink ref="A90" r:id="rId69" display="k13626784727@163.com" tooltip="mailto:k13626784727@163.com"/>
-    <hyperlink ref="A91" r:id="rId70" display="m13626784727@163.com" tooltip="mailto:m13626784727@163.com"/>
-    <hyperlink ref="A92" r:id="rId71" display="n13626784727@163.com" tooltip="mailto:n13626784727@163.com"/>
-    <hyperlink ref="A93" r:id="rId72" display="o13626784727@163.com" tooltip="mailto:o13626784727@163.com"/>
-    <hyperlink ref="A94" r:id="rId73" display="p13626784727@163.com" tooltip="mailto:p13626784727@163.com"/>
-    <hyperlink ref="A95" r:id="rId74" display="a15355785681@163.com" tooltip="mailto:a13626784727@163.com"/>
-    <hyperlink ref="A96" r:id="rId44" display="b15355785681@163.com" tooltip="mailto:b13757098596@163.com"/>
-    <hyperlink ref="A101" r:id="rId45" display="g15355785681@163.com"/>
-    <hyperlink ref="A102" r:id="rId46" display="h15355785681@163.com"/>
-    <hyperlink ref="A103" r:id="rId47" display="l15355785681@163.com"/>
-    <hyperlink ref="A104" r:id="rId48" display="j15355785681@163.com"/>
-    <hyperlink ref="A97" r:id="rId52" display="c15355785681@163.com" tooltip="mailto:c15957826243@163.com"/>
-    <hyperlink ref="A98" r:id="rId53" display="d15355785681@163.com" tooltip="mailto:d15957826243@163.com"/>
-    <hyperlink ref="A99" r:id="rId54" display="e15355785681@163.com" tooltip="mailto:e15957826243@163.com"/>
-    <hyperlink ref="A100" r:id="rId55" display="f15355785681@163.com" tooltip="mailto:f15957826243@163.com"/>
-    <hyperlink ref="A105" r:id="rId75" display="a15167186038@163.com" tooltip="mailto:a15355785681@163.com"/>
-    <hyperlink ref="A106" r:id="rId44" display="b15167186038@163.com" tooltip="mailto:b13757098596@163.com"/>
-    <hyperlink ref="A111" r:id="rId45" display="g15167186038@163.com"/>
-    <hyperlink ref="A112" r:id="rId46" display="h15167186038@163.com"/>
-    <hyperlink ref="A113" r:id="rId47" display="l15167186038@163.com"/>
-    <hyperlink ref="A114" r:id="rId48" display="j15167186038@163.com"/>
-    <hyperlink ref="A107" r:id="rId52" display="c15167186038@163.com" tooltip="mailto:c15957826243@163.com"/>
-    <hyperlink ref="A108" r:id="rId53" display="d15167186038@163.com" tooltip="mailto:d15957826243@163.com"/>
-    <hyperlink ref="A109" r:id="rId54" display="e15167186038@163.com" tooltip="mailto:e15957826243@163.com"/>
-    <hyperlink ref="A110" r:id="rId55" display="f15167186038@163.com" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A3" r:id="rId1" tooltip="mailto:b15158015845@163.com"/>
+    <hyperlink ref="A2" r:id="rId2" tooltip="mailto:a15158015845@163.com"/>
+    <hyperlink ref="A5" r:id="rId3" tooltip="mailto:a15157887349@163.com"/>
+    <hyperlink ref="A6" r:id="rId4" tooltip="mailto:b15157887349@163.com"/>
+    <hyperlink ref="A7" r:id="rId5" tooltip="mailto:n13587172463@163.com"/>
+    <hyperlink ref="A8" r:id="rId6" tooltip="mailto:o13587172463@163.com"/>
+    <hyperlink ref="A9" r:id="rId7" tooltip="mailto:p13587172463@163.com"/>
+    <hyperlink ref="A10" r:id="rId8" tooltip="mailto:qq13587172463@163.com"/>
+    <hyperlink ref="A11" r:id="rId9" tooltip="mailto:r13587172463@163.com"/>
+    <hyperlink ref="A12" r:id="rId10" tooltip="mailto:s13587172463@163.com"/>
+    <hyperlink ref="A13" r:id="rId11" tooltip="mailto:t13587172463@163.com"/>
+    <hyperlink ref="A14" r:id="rId12" tooltip="mailto:u13587172463@163.com"/>
+    <hyperlink ref="A15" r:id="rId13" tooltip="mailto:v13587172463@163.com"/>
+    <hyperlink ref="A16" r:id="rId14" tooltip="mailto:w13587172463@163.com"/>
+    <hyperlink ref="A17" r:id="rId15" tooltip="mailto:x13587172463@163.com"/>
+    <hyperlink ref="A18" r:id="rId16" tooltip="mailto:y13587172463@163.com"/>
+    <hyperlink ref="A19" r:id="rId17" tooltip="mailto:aa13587172463@163.com"/>
+    <hyperlink ref="A20" r:id="rId18" tooltip="mailto:bb13587172463@163.com"/>
+    <hyperlink ref="A21" r:id="rId19" tooltip="mailto:cc13587172463@163.com"/>
+    <hyperlink ref="A22" r:id="rId20" tooltip="mailto:dd13587172463@163.com"/>
+    <hyperlink ref="A24" r:id="rId21" tooltip="mailto:ff13587172463@163.com"/>
+    <hyperlink ref="A26" r:id="rId22" tooltip="mailto:hh13587172463@163.com"/>
+    <hyperlink ref="A25" r:id="rId23" tooltip="mailto:gg13587172463@163.com"/>
+    <hyperlink ref="A23" r:id="rId24" tooltip="mailto:ee13587172463@163.com"/>
+    <hyperlink ref="A27" r:id="rId25" tooltip="mailto:ll13587172463@163.com"/>
+    <hyperlink ref="A28" r:id="rId26" tooltip="mailto:jj13587172463@163.com"/>
+    <hyperlink ref="A29" r:id="rId27" tooltip="mailto:kk13587172463@163.com"/>
+    <hyperlink ref="A30" r:id="rId28" tooltip="mailto:mm13587172463@163.com"/>
+    <hyperlink ref="A31" r:id="rId29" tooltip="mailto:nn13587172463@163.com"/>
+    <hyperlink ref="A32" r:id="rId30" tooltip="mailto:oo13587172463@163.com"/>
+    <hyperlink ref="A33" r:id="rId31" tooltip="mailto:pp13587172463@163.com"/>
+    <hyperlink ref="A34" r:id="rId32" tooltip="mailto:rr13587172463@163.com"/>
+    <hyperlink ref="A35" r:id="rId33" tooltip="mailto:ss13587172463@163.com"/>
+    <hyperlink ref="A36" r:id="rId34" tooltip="mailto:tt13587172463@163.com"/>
+    <hyperlink ref="A37" r:id="rId35" tooltip="mailto:uu13587172463@163.com"/>
+    <hyperlink ref="A38" r:id="rId36" tooltip="mailto:vv13587172463@163.com"/>
+    <hyperlink ref="A39" r:id="rId37" tooltip="mailto:ww13587172463@163.com"/>
+    <hyperlink ref="A40" r:id="rId38" tooltip="mailto:xx13587172463@163.com"/>
+    <hyperlink ref="A41" r:id="rId39" tooltip="mailto:yy13587172463@163.com"/>
+    <hyperlink ref="A42" r:id="rId40" tooltip="mailto:zz13587172463@163.com"/>
+    <hyperlink ref="A46" r:id="rId41" tooltip="mailto:a13757098596@163.com"/>
+    <hyperlink ref="A47" r:id="rId42" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A48" r:id="rId43"/>
+    <hyperlink ref="A49" r:id="rId44"/>
+    <hyperlink ref="A50" r:id="rId45"/>
+    <hyperlink ref="A51" r:id="rId46"/>
+    <hyperlink ref="A52" r:id="rId47" tooltip="mailto:a15267310606@163.com"/>
+    <hyperlink ref="A53" r:id="rId48" tooltip="mailto:b15267310606@163.com"/>
+    <hyperlink ref="A54" r:id="rId49" tooltip="mailto:c15267310606@163.com"/>
+    <hyperlink ref="A55" r:id="rId50" tooltip="mailto:c15957826243@163.com"/>
+    <hyperlink ref="A56" r:id="rId51" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A57" r:id="rId52" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A58" r:id="rId53" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A59" r:id="rId54" tooltip="mailto:a13567614850@163.com"/>
+    <hyperlink ref="A60" r:id="rId55" tooltip="mailto:a13291866525@163.com"/>
+    <hyperlink ref="A61" r:id="rId56" tooltip="mailto:a15305783466@163.com"/>
+    <hyperlink ref="A62" r:id="rId57"/>
+    <hyperlink ref="A63" r:id="rId58" tooltip="mailto:a15857806565@163.com"/>
+    <hyperlink ref="A64" r:id="rId59" tooltip="mailto:a15058687363@163.com"/>
+    <hyperlink ref="A65" r:id="rId60" tooltip="mailto:b15058687363@163.com"/>
+    <hyperlink ref="A66" r:id="rId61" tooltip="mailto:c15058687363@163.com"/>
+    <hyperlink ref="A4" r:id="rId62" tooltip="mailto:d15158015845@163.com"/>
+    <hyperlink ref="A43" r:id="rId63" tooltip="mailto:ggg13587172463@163.com"/>
+    <hyperlink ref="A67" r:id="rId64" tooltip="mailto:a15157887349@163.com"/>
+    <hyperlink ref="A68" r:id="rId65" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A73" r:id="rId66"/>
+    <hyperlink ref="A74" r:id="rId67"/>
+    <hyperlink ref="A75" r:id="rId68"/>
+    <hyperlink ref="A76" r:id="rId69"/>
+    <hyperlink ref="A69" r:id="rId70" tooltip="mailto:c15957826243@163.com"/>
+    <hyperlink ref="A70" r:id="rId71" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A71" r:id="rId72" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A72" r:id="rId73" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A44" r:id="rId74" tooltip="mailto:ah13587172463@163.com"/>
+    <hyperlink ref="A45" r:id="rId75" tooltip="mailto:am13587172463@163.com"/>
+    <hyperlink ref="A77" r:id="rId76" tooltip="mailto:k15157887349@163.com"/>
+    <hyperlink ref="A78" r:id="rId77" tooltip="mailto:a15157887349@163.com"/>
+    <hyperlink ref="A79" r:id="rId78" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A84" r:id="rId79"/>
+    <hyperlink ref="A85" r:id="rId80"/>
+    <hyperlink ref="A86" r:id="rId81"/>
+    <hyperlink ref="A87" r:id="rId82"/>
+    <hyperlink ref="A80" r:id="rId83" tooltip="mailto:c15957826243@163.com"/>
+    <hyperlink ref="A81" r:id="rId84" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A82" r:id="rId85" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A83" r:id="rId86" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A88" r:id="rId87" tooltip="mailto:k13626784727@163.com"/>
+    <hyperlink ref="A89" r:id="rId88" tooltip="mailto:m13626784727@163.com"/>
+    <hyperlink ref="A90" r:id="rId89" tooltip="mailto:n13626784727@163.com"/>
+    <hyperlink ref="A91" r:id="rId90" tooltip="mailto:o13626784727@163.com"/>
+    <hyperlink ref="A92" r:id="rId91" tooltip="mailto:p13626784727@163.com"/>
+    <hyperlink ref="A93" r:id="rId92" tooltip="mailto:a13626784727@163.com"/>
+    <hyperlink ref="A94" r:id="rId93" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A99" r:id="rId94"/>
+    <hyperlink ref="A100" r:id="rId95"/>
+    <hyperlink ref="A101" r:id="rId96"/>
+    <hyperlink ref="A102" r:id="rId97"/>
+    <hyperlink ref="A95" r:id="rId98" tooltip="mailto:c15957826243@163.com"/>
+    <hyperlink ref="A96" r:id="rId99" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A97" r:id="rId100" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A98" r:id="rId101" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A103" r:id="rId102" tooltip="mailto:a15355785681@163.com"/>
+    <hyperlink ref="A104" r:id="rId103" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A109" r:id="rId104"/>
+    <hyperlink ref="A110" r:id="rId105"/>
+    <hyperlink ref="A111" r:id="rId106"/>
+    <hyperlink ref="A112" r:id="rId107"/>
+    <hyperlink ref="A105" r:id="rId108" tooltip="mailto:c15957826243@163.com"/>
+    <hyperlink ref="A106" r:id="rId109" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A107" r:id="rId110" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A108" r:id="rId111" tooltip="mailto:f15957826243@163.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.3818181818182" customWidth="1"/>
-    <col min="2" max="2" width="20.7363636363636" customWidth="1"/>
-    <col min="3" max="3" width="13.9272727272727" customWidth="1"/>
+    <col min="1" max="1" width="26.375" customWidth="1"/>
+    <col min="2" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3278,10 +2653,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>134</v>
       </c>
@@ -3289,10 +2667,13 @@
         <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>136</v>
       </c>
@@ -3300,10 +2681,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>137</v>
       </c>
@@ -3311,10 +2695,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>138</v>
       </c>
@@ -3322,10 +2709,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>139</v>
       </c>
@@ -3333,10 +2723,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>140</v>
       </c>
@@ -3344,10 +2737,13 @@
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>141</v>
       </c>
@@ -3355,10 +2751,13 @@
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>142</v>
       </c>
@@ -3366,10 +2765,13 @@
         <v>9</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>143</v>
       </c>
@@ -3377,10 +2779,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>144</v>
       </c>
@@ -3388,400 +2793,1763 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>135</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="a15167186038@163.com" tooltip="mailto:a15355785681@163.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="b15167186038@163.com" tooltip="mailto:b13757098596@163.com"/>
-    <hyperlink ref="A8" r:id="rId3" display="g15167186038@163.com"/>
-    <hyperlink ref="A9" r:id="rId4" display="h15167186038@163.com"/>
-    <hyperlink ref="A10" r:id="rId5" display="l15167186038@163.com"/>
-    <hyperlink ref="A11" r:id="rId6" display="j15167186038@163.com"/>
-    <hyperlink ref="A4" r:id="rId7" display="c15167186038@163.com" tooltip="mailto:c15957826243@163.com"/>
-    <hyperlink ref="A5" r:id="rId8" display="d15167186038@163.com" tooltip="mailto:d15957826243@163.com"/>
-    <hyperlink ref="A6" r:id="rId9" display="e15167186038@163.com" tooltip="mailto:e15957826243@163.com"/>
-    <hyperlink ref="A7" r:id="rId10" display="f15167186038@163.com" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A2" r:id="rId1" tooltip="mailto:a15355785681@163.com"/>
+    <hyperlink ref="A3" r:id="rId2" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A8" r:id="rId3"/>
+    <hyperlink ref="A9" r:id="rId4"/>
+    <hyperlink ref="A10" r:id="rId5"/>
+    <hyperlink ref="A11" r:id="rId6"/>
+    <hyperlink ref="A4" r:id="rId7" tooltip="mailto:c15957826243@163.com"/>
+    <hyperlink ref="A5" r:id="rId8" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A6" r:id="rId9" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A7" r:id="rId10" tooltip="mailto:f15957826243@163.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="17.8" customWidth="1"/>
-    <col min="3" max="3" width="13.9272727272727" customWidth="1"/>
+    <col min="1" max="1" width="26.125" customWidth="1"/>
+    <col min="2" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
+      <c r="B19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
+      <c r="B21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
+      <c r="B22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
+      <c r="B23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
+      <c r="B24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
+      <c r="B25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
+      <c r="B26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
+      <c r="B27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
+      <c r="B28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="4" t="s">
+      <c r="B29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="4" t="s">
+      <c r="B30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="4" t="s">
+      <c r="B31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="4" t="s">
+      <c r="B32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="4" t="s">
+      <c r="B33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="4" t="s">
+      <c r="B34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="4" t="s">
+      <c r="B35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="4" t="s">
+      <c r="B36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="4" t="s">
+      <c r="B37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="4" t="s">
+      <c r="B38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="4" t="s">
+      <c r="B39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="4" t="s">
+      <c r="B40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="4" t="s">
+      <c r="B41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="4" t="s">
+      <c r="B42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="4" t="s">
+      <c r="B43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>9</v>
+      <c r="B44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A64" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E64" s="18"/>
+    </row>
+    <row r="65" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A65" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65" s="21"/>
+    </row>
+    <row r="66" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A66" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" s="21"/>
+    </row>
+    <row r="67" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A67" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" s="18"/>
+    </row>
+    <row r="68" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A68" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E68" s="18"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="b13587172463@163.com" tooltip="mailto:b15157887349@163.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="n13587172463@163.com" tooltip="mailto:n13587172463@163.com"/>
-    <hyperlink ref="A4" r:id="rId3" display="o13587172463@163.com" tooltip="mailto:o13587172463@163.com"/>
-    <hyperlink ref="A5" r:id="rId4" display="p13587172463@163.com" tooltip="mailto:p13587172463@163.com"/>
-    <hyperlink ref="A6" r:id="rId5" display="qq13587172463@163.com" tooltip="mailto:qq13587172463@163.com"/>
-    <hyperlink ref="A7" r:id="rId6" display="r13587172463@163.com" tooltip="mailto:r13587172463@163.com"/>
-    <hyperlink ref="A8" r:id="rId7" display="s13587172463@163.com" tooltip="mailto:s13587172463@163.com"/>
-    <hyperlink ref="A9" r:id="rId8" display="t13587172463@163.com" tooltip="mailto:t13587172463@163.com"/>
-    <hyperlink ref="A10" r:id="rId9" display="u13587172463@163.com" tooltip="mailto:u13587172463@163.com"/>
-    <hyperlink ref="A11" r:id="rId10" display="v13587172463@163.com" tooltip="mailto:v13587172463@163.com"/>
-    <hyperlink ref="A12" r:id="rId11" display="w13587172463@163.com" tooltip="mailto:w13587172463@163.com"/>
-    <hyperlink ref="A13" r:id="rId12" display="x13587172463@163.com" tooltip="mailto:x13587172463@163.com"/>
-    <hyperlink ref="A14" r:id="rId13" display="y13587172463@163.com" tooltip="mailto:y13587172463@163.com"/>
-    <hyperlink ref="A15" r:id="rId14" display="z13587172463@163.com" tooltip="mailto:z13587172463@163.com"/>
-    <hyperlink ref="A16" r:id="rId15" display="aa13587172463@163.com" tooltip="mailto:aa13587172463@163.com"/>
-    <hyperlink ref="A17" r:id="rId16" display="bb13587172463@163.com" tooltip="mailto:bb13587172463@163.com"/>
-    <hyperlink ref="A18" r:id="rId17" display="cc13587172463@163.com" tooltip="mailto:cc13587172463@163.com"/>
-    <hyperlink ref="A19" r:id="rId18" display="dd13587172463@163.com" tooltip="mailto:dd13587172463@163.com"/>
-    <hyperlink ref="A21" r:id="rId19" display="ff13587172463@163.com" tooltip="mailto:ff13587172463@163.com"/>
-    <hyperlink ref="A23" r:id="rId20" display="hh13587172463@163.com" tooltip="mailto:hh13587172463@163.com"/>
-    <hyperlink ref="A22" r:id="rId21" display="gg13587172463@163.com" tooltip="mailto:gg13587172463@163.com"/>
-    <hyperlink ref="A20" r:id="rId22" display="ee13587172463@163.com" tooltip="mailto:ee13587172463@163.com"/>
-    <hyperlink ref="A24" r:id="rId23" display="ll13587172463@163.com" tooltip="mailto:ll13587172463@163.com"/>
-    <hyperlink ref="A25" r:id="rId24" display="jj13587172463@163.com" tooltip="mailto:jj13587172463@163.com"/>
-    <hyperlink ref="A26" r:id="rId25" display="kk13587172463@163.com" tooltip="mailto:kk13587172463@163.com"/>
-    <hyperlink ref="A27" r:id="rId26" display="mm13587172463@163.com" tooltip="mailto:mm13587172463@163.com"/>
-    <hyperlink ref="A28" r:id="rId27" display="nn13587172463@163.com" tooltip="mailto:nn13587172463@163.com"/>
-    <hyperlink ref="A29" r:id="rId28" display="oo13587172463@163.com" tooltip="mailto:oo13587172463@163.com"/>
-    <hyperlink ref="A30" r:id="rId29" display="pp13587172463@163.com" tooltip="mailto:pp13587172463@163.com"/>
-    <hyperlink ref="A31" r:id="rId30" display="rr13587172463@163.com" tooltip="mailto:rr13587172463@163.com"/>
-    <hyperlink ref="A32" r:id="rId31" display="ss13587172463@163.com" tooltip="mailto:ss13587172463@163.com"/>
-    <hyperlink ref="A33" r:id="rId32" display="tt13587172463@163.com" tooltip="mailto:tt13587172463@163.com"/>
-    <hyperlink ref="A34" r:id="rId33" display="uu13587172463@163.com" tooltip="mailto:uu13587172463@163.com"/>
-    <hyperlink ref="A35" r:id="rId34" display="vv13587172463@163.com" tooltip="mailto:vv13587172463@163.com"/>
-    <hyperlink ref="A36" r:id="rId35" display="ww13587172463@163.com" tooltip="mailto:ww13587172463@163.com"/>
-    <hyperlink ref="A37" r:id="rId36" display="xx13587172463@163.com" tooltip="mailto:xx13587172463@163.com"/>
-    <hyperlink ref="A38" r:id="rId37" display="yy13587172463@163.com" tooltip="mailto:yy13587172463@163.com"/>
-    <hyperlink ref="A39" r:id="rId38" display="zz13587172463@163.com" tooltip="mailto:zz13587172463@163.com"/>
+    <hyperlink ref="A3" r:id="rId1" tooltip="mailto:b15158015845@163.com"/>
+    <hyperlink ref="A2" r:id="rId2" tooltip="mailto:a15158015845@163.com"/>
+    <hyperlink ref="A5" r:id="rId3" tooltip="mailto:a17706132072@163.com"/>
+    <hyperlink ref="A6" r:id="rId4" tooltip="mailto:b17706132072@163.com"/>
+    <hyperlink ref="A7" r:id="rId5" tooltip="mailto:a15157887349@163.com"/>
+    <hyperlink ref="A8" r:id="rId6" tooltip="mailto:b15157887349@163.com"/>
+    <hyperlink ref="A9" r:id="rId7" tooltip="mailto:n13587172463@163.com"/>
+    <hyperlink ref="A10" r:id="rId8" tooltip="mailto:o13587172463@163.com"/>
+    <hyperlink ref="A11" r:id="rId9" tooltip="mailto:p13587172463@163.com"/>
+    <hyperlink ref="A12" r:id="rId10" tooltip="mailto:qq13587172463@163.com"/>
+    <hyperlink ref="A13" r:id="rId11" tooltip="mailto:r13587172463@163.com"/>
+    <hyperlink ref="A14" r:id="rId12" tooltip="mailto:s13587172463@163.com"/>
+    <hyperlink ref="A15" r:id="rId13" tooltip="mailto:t13587172463@163.com"/>
+    <hyperlink ref="A16" r:id="rId14" tooltip="mailto:u13587172463@163.com"/>
+    <hyperlink ref="A17" r:id="rId15" tooltip="mailto:v13587172463@163.com"/>
+    <hyperlink ref="A18" r:id="rId16" tooltip="mailto:w13587172463@163.com"/>
+    <hyperlink ref="A19" r:id="rId17" tooltip="mailto:x13587172463@163.com"/>
+    <hyperlink ref="A20" r:id="rId18" tooltip="mailto:y13587172463@163.com"/>
+    <hyperlink ref="A21" r:id="rId19" tooltip="mailto:aa13587172463@163.com"/>
+    <hyperlink ref="A22" r:id="rId20" tooltip="mailto:bb13587172463@163.com"/>
+    <hyperlink ref="A23" r:id="rId21" tooltip="mailto:cc13587172463@163.com"/>
+    <hyperlink ref="A24" r:id="rId22" tooltip="mailto:dd13587172463@163.com"/>
+    <hyperlink ref="A26" r:id="rId23" tooltip="mailto:ff13587172463@163.com"/>
+    <hyperlink ref="A28" r:id="rId24" tooltip="mailto:hh13587172463@163.com"/>
+    <hyperlink ref="A27" r:id="rId25" tooltip="mailto:gg13587172463@163.com"/>
+    <hyperlink ref="A25" r:id="rId26" tooltip="mailto:ee13587172463@163.com"/>
+    <hyperlink ref="A29" r:id="rId27" tooltip="mailto:ll13587172463@163.com"/>
+    <hyperlink ref="A30" r:id="rId28" tooltip="mailto:jj13587172463@163.com"/>
+    <hyperlink ref="A31" r:id="rId29" tooltip="mailto:kk13587172463@163.com"/>
+    <hyperlink ref="A32" r:id="rId30" tooltip="mailto:mm13587172463@163.com"/>
+    <hyperlink ref="A33" r:id="rId31" tooltip="mailto:nn13587172463@163.com"/>
+    <hyperlink ref="A34" r:id="rId32" tooltip="mailto:oo13587172463@163.com"/>
+    <hyperlink ref="A35" r:id="rId33" tooltip="mailto:pp13587172463@163.com"/>
+    <hyperlink ref="A36" r:id="rId34" tooltip="mailto:rr13587172463@163.com"/>
+    <hyperlink ref="A37" r:id="rId35" tooltip="mailto:ss13587172463@163.com"/>
+    <hyperlink ref="A38" r:id="rId36" tooltip="mailto:tt13587172463@163.com"/>
+    <hyperlink ref="A39" r:id="rId37" tooltip="mailto:uu13587172463@163.com"/>
+    <hyperlink ref="A40" r:id="rId38" tooltip="mailto:vv13587172463@163.com"/>
+    <hyperlink ref="A41" r:id="rId39" tooltip="mailto:ww13587172463@163.com"/>
+    <hyperlink ref="A42" r:id="rId40" tooltip="mailto:xx13587172463@163.com"/>
+    <hyperlink ref="A43" r:id="rId41" tooltip="mailto:yy13587172463@163.com"/>
+    <hyperlink ref="A44" r:id="rId42" tooltip="mailto:zz13587172463@163.com"/>
+    <hyperlink ref="A48" r:id="rId43" tooltip="mailto:a13757098596@163.com"/>
+    <hyperlink ref="A49" r:id="rId44" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A50" r:id="rId45"/>
+    <hyperlink ref="A51" r:id="rId46"/>
+    <hyperlink ref="A52" r:id="rId47"/>
+    <hyperlink ref="A53" r:id="rId48"/>
+    <hyperlink ref="A54" r:id="rId49" tooltip="mailto:a15267310606@163.com"/>
+    <hyperlink ref="A55" r:id="rId50" tooltip="mailto:b15267310606@163.com"/>
+    <hyperlink ref="A56" r:id="rId51" tooltip="mailto:c15267310606@163.com"/>
+    <hyperlink ref="A57" r:id="rId52" tooltip="mailto:c15957826243@163.com"/>
+    <hyperlink ref="A58" r:id="rId53" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A59" r:id="rId54" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A60" r:id="rId55" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A61" r:id="rId56" tooltip="mailto:a13567614850@163.com"/>
+    <hyperlink ref="A62" r:id="rId57" tooltip="mailto:a13291866525@163.com"/>
+    <hyperlink ref="A63" r:id="rId58" tooltip="mailto:a15305783466@163.com"/>
+    <hyperlink ref="A64" r:id="rId59"/>
+    <hyperlink ref="A65" r:id="rId60" tooltip="mailto:a15857806565@163.com"/>
+    <hyperlink ref="A66" r:id="rId61" tooltip="mailto:a15058687363@163.com"/>
+    <hyperlink ref="A67" r:id="rId62" tooltip="mailto:b15058687363@163.com"/>
+    <hyperlink ref="A68" r:id="rId63" tooltip="mailto:c15058687363@163.com"/>
+    <hyperlink ref="A4" r:id="rId64" tooltip="mailto:d15158015845@163.com"/>
+    <hyperlink ref="A45" r:id="rId65" tooltip="mailto:ggg13587172463@163.com"/>
+    <hyperlink ref="A69" r:id="rId66" tooltip="mailto:a15157887349@163.com"/>
+    <hyperlink ref="A70" r:id="rId67" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A75" r:id="rId68"/>
+    <hyperlink ref="A76" r:id="rId69"/>
+    <hyperlink ref="A77" r:id="rId70"/>
+    <hyperlink ref="A78" r:id="rId71"/>
+    <hyperlink ref="A71" r:id="rId72" tooltip="mailto:c15957826243@163.com"/>
+    <hyperlink ref="A72" r:id="rId73" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A73" r:id="rId74" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A74" r:id="rId75" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A46" r:id="rId76" tooltip="mailto:ah13587172463@163.com"/>
+    <hyperlink ref="A47" r:id="rId77" tooltip="mailto:am13587172463@163.com"/>
+    <hyperlink ref="A79" r:id="rId78" tooltip="mailto:k15157887349@163.com"/>
+    <hyperlink ref="A80" r:id="rId79" tooltip="mailto:a15157887349@163.com"/>
+    <hyperlink ref="A81" r:id="rId80" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A86" r:id="rId81"/>
+    <hyperlink ref="A87" r:id="rId82"/>
+    <hyperlink ref="A88" r:id="rId83"/>
+    <hyperlink ref="A89" r:id="rId84"/>
+    <hyperlink ref="A82" r:id="rId85" tooltip="mailto:c15957826243@163.com"/>
+    <hyperlink ref="A83" r:id="rId86" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A84" r:id="rId87" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A85" r:id="rId88" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A90" r:id="rId89" tooltip="mailto:k13626784727@163.com"/>
+    <hyperlink ref="A91" r:id="rId90" tooltip="mailto:m13626784727@163.com"/>
+    <hyperlink ref="A92" r:id="rId91" tooltip="mailto:n13626784727@163.com"/>
+    <hyperlink ref="A93" r:id="rId92" tooltip="mailto:o13626784727@163.com"/>
+    <hyperlink ref="A94" r:id="rId93" tooltip="mailto:p13626784727@163.com"/>
+    <hyperlink ref="A95" r:id="rId94" tooltip="mailto:a13626784727@163.com"/>
+    <hyperlink ref="A96" r:id="rId95" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A101" r:id="rId96"/>
+    <hyperlink ref="A102" r:id="rId97"/>
+    <hyperlink ref="A103" r:id="rId98"/>
+    <hyperlink ref="A104" r:id="rId99"/>
+    <hyperlink ref="A97" r:id="rId100" tooltip="mailto:c15957826243@163.com"/>
+    <hyperlink ref="A98" r:id="rId101" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A99" r:id="rId102" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A100" r:id="rId103" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A105" r:id="rId104" tooltip="mailto:a15355785681@163.com"/>
+    <hyperlink ref="A106" r:id="rId105" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A111" r:id="rId106"/>
+    <hyperlink ref="A112" r:id="rId107"/>
+    <hyperlink ref="A113" r:id="rId108"/>
+    <hyperlink ref="A114" r:id="rId109"/>
+    <hyperlink ref="A107" r:id="rId110" tooltip="mailto:c15957826243@163.com"/>
+    <hyperlink ref="A108" r:id="rId111" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A109" r:id="rId112" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A110" r:id="rId113" tooltip="mailto:f15957826243@163.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/login.xlsx
+++ b/src/main/resources/login.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8340"/>
+    <workbookView windowWidth="19200" windowHeight="8340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="账号信息" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="备份数据" sheetId="3" r:id="rId3"/>
+    <sheet name="主账号收取" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="145">
   <si>
     <t>Account</t>
   </si>
@@ -451,15 +451,6 @@
   </si>
   <si>
     <t>j15167186038@163.com</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>ExpectedTips</t>
-  </si>
-  <si>
-    <t>z13587172463@163.com</t>
   </si>
 </sst>
 </file>
@@ -467,9 +458,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -505,7 +496,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,41 +509,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -561,27 +530,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -601,24 +549,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,6 +570,58 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -647,13 +638,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="6" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
+        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,13 +656,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
+        <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,7 +674,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,61 +830,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,103 +848,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,16 +877,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -910,11 +901,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,17 +931,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -958,28 +960,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -991,10 +982,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1003,133 +994,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1155,28 +1146,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="10" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="10" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="10" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1187,8 +1172,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="10" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1197,7 +1185,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1521,8 +1512,8 @@
   <sheetPr/>
   <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1547,1225 +1538,1225 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="B5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="B11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="B13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="B14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="B15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="B16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="B17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="B18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="B19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="B21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="B22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="B23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="B24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="B25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="B26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="B27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="B28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="B29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="B30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="B31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="B32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="B33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="B34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="B35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="B36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="B37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="B38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="3" t="s">
+      <c r="B39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="B40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="3" t="s">
+      <c r="B41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="B42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="3" t="s">
+      <c r="B43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="3" t="s">
+      <c r="B44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="3" t="s">
+      <c r="B45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="B46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="3" t="s">
+      <c r="B47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="6" t="s">
+      <c r="B48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="6" t="s">
+      <c r="B49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="6" t="s">
+      <c r="B50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="6" t="s">
+      <c r="B51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="6" t="s">
+      <c r="B52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="6" t="s">
+      <c r="B53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="9" t="s">
+      <c r="B55" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="9" t="s">
+      <c r="B56" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="13" t="s">
+      <c r="B60" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="64" ht="15" spans="1:5">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B64" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="17" t="s">
+      <c r="B64" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E64" s="18"/>
+      <c r="E64" s="16"/>
     </row>
     <row r="65" ht="15" spans="1:5">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="D65" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E65" s="21"/>
+      <c r="E65" s="20"/>
     </row>
     <row r="66" ht="15" spans="1:5">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C66" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D66" s="24" t="s">
+      <c r="D66" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E66" s="21"/>
+      <c r="E66" s="20"/>
     </row>
     <row r="67" ht="15" spans="1:5">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B67" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="24" t="s">
+      <c r="B67" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E67" s="18"/>
+      <c r="E67" s="16"/>
     </row>
     <row r="68" ht="15" spans="1:5">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B68" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="24" t="s">
+      <c r="B68" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E68" s="18"/>
+      <c r="E68" s="16"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C69" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D69" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="D70" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="13" t="s">
+      <c r="D71" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="D72" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="D73" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C74" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="D74" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C75" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="D75" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B76" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="13" t="s">
+      <c r="B76" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B77" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="13" t="s">
+      <c r="B77" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B78" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="13" t="s">
+      <c r="B78" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B79" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="13" t="s">
+      <c r="B79" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="D84" s="18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B85" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="11" t="s">
+      <c r="B85" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B86" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="11" t="s">
+      <c r="B86" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="B87" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="11" t="s">
+      <c r="B87" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B88" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="11" t="s">
+      <c r="B88" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="18" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2773,13 +2764,13 @@
       <c r="A89" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="B89" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="11" t="s">
+      <c r="B89" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="18" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2787,13 +2778,13 @@
       <c r="A90" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="B90" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="11" t="s">
+      <c r="B90" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="18" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2801,13 +2792,13 @@
       <c r="A91" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="B91" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="11" t="s">
+      <c r="B91" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="18" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2815,13 +2806,13 @@
       <c r="A92" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B92" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="11" t="s">
+      <c r="B92" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="18" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2829,13 +2820,13 @@
       <c r="A93" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B93" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="11" t="s">
+      <c r="B93" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="18" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2843,293 +2834,293 @@
       <c r="A94" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="B94" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="11" t="s">
+      <c r="B94" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="3" t="s">
+      <c r="B103" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="3" t="s">
+      <c r="B104" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B105" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="6" t="s">
+      <c r="B105" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B106" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="6" t="s">
+      <c r="B106" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B107" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="6" t="s">
+      <c r="B107" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B108" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="6" t="s">
+      <c r="B108" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B109" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="6" t="s">
+      <c r="B109" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B110" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="6" t="s">
+      <c r="B110" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B111" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="6" t="s">
+      <c r="B111" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B112" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="6" t="s">
+      <c r="B112" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B113" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="6" t="s">
+      <c r="B113" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B114" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="6" t="s">
+      <c r="B114" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3257,10 +3248,368 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="26.1818181818182" customWidth="1"/>
+    <col min="2" max="3" width="17.8" customWidth="1"/>
+    <col min="4" max="4" width="13.9272727272727" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:5">
+      <c r="A14" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" ht="15" spans="1:5">
+      <c r="A15" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16" ht="15" spans="1:5">
+      <c r="A16" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" ht="15" spans="1:5">
+      <c r="A17" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" ht="15" spans="1:5">
+      <c r="A18" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="a13587172463@163.com" tooltip="mailto:a15157887349@163.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="a13757098596@163.com" tooltip="mailto:a13757098596@163.com"/>
+    <hyperlink ref="A4" r:id="rId3" display="a15267310606@163.com" tooltip="mailto:a15267310606@163.com"/>
+    <hyperlink ref="A5" r:id="rId4" display="b15267310606@163.com" tooltip="mailto:b15267310606@163.com"/>
+    <hyperlink ref="A6" r:id="rId5" display="c15267310606@163.com" tooltip="mailto:c15267310606@163.com"/>
+    <hyperlink ref="A7" r:id="rId6" display="c15957826243@163.com" tooltip="mailto:c15957826243@163.com"/>
+    <hyperlink ref="A8" r:id="rId7" display="d15957826243@163.com" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A9" r:id="rId8" display="e15957826243@163.com" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A10" r:id="rId9" display="f15957826243@163.com" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A11" r:id="rId10" display="a13567614850@163.com" tooltip="mailto:a13567614850@163.com"/>
+    <hyperlink ref="A12" r:id="rId11" display="a13291866525@163.com" tooltip="mailto:a13291866525@163.com"/>
+    <hyperlink ref="A13" r:id="rId12" display="a15305783466@163.com" tooltip="mailto:a15305783466@163.com"/>
+    <hyperlink ref="A14" r:id="rId13" display="a13868069569@163.com"/>
+    <hyperlink ref="A15" r:id="rId14" display="a15857806565@163.com" tooltip="mailto:a15857806565@163.com"/>
+    <hyperlink ref="A16" r:id="rId15" display="a15058687363@163.com" tooltip="mailto:a15058687363@163.com"/>
+    <hyperlink ref="A17" r:id="rId16" display="b15058687363@163.com" tooltip="mailto:b15058687363@163.com"/>
+    <hyperlink ref="A18" r:id="rId17" display="c15058687363@163.com" tooltip="mailto:c15058687363@163.com"/>
+    <hyperlink ref="A19" r:id="rId1" display="a15157887349@163.com" tooltip="mailto:a15157887349@163.com"/>
+    <hyperlink ref="A20" r:id="rId1" display="a13626784727@163.com" tooltip="mailto:a15157887349@163.com"/>
+    <hyperlink ref="A21" r:id="rId18" display="a15355785681@163.com" tooltip="mailto:a13626784727@163.com"/>
+    <hyperlink ref="A22" r:id="rId19" display="a15167186038@163.com" tooltip="mailto:a15355785681@163.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C11"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -3282,112 +3631,112 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3407,381 +3756,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C39"/>
-  <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="17.8" customWidth="1"/>
-    <col min="3" max="3" width="13.9272727272727" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="b13587172463@163.com" tooltip="mailto:b15157887349@163.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="n13587172463@163.com" tooltip="mailto:n13587172463@163.com"/>
-    <hyperlink ref="A4" r:id="rId3" display="o13587172463@163.com" tooltip="mailto:o13587172463@163.com"/>
-    <hyperlink ref="A5" r:id="rId4" display="p13587172463@163.com" tooltip="mailto:p13587172463@163.com"/>
-    <hyperlink ref="A6" r:id="rId5" display="qq13587172463@163.com" tooltip="mailto:qq13587172463@163.com"/>
-    <hyperlink ref="A7" r:id="rId6" display="r13587172463@163.com" tooltip="mailto:r13587172463@163.com"/>
-    <hyperlink ref="A8" r:id="rId7" display="s13587172463@163.com" tooltip="mailto:s13587172463@163.com"/>
-    <hyperlink ref="A9" r:id="rId8" display="t13587172463@163.com" tooltip="mailto:t13587172463@163.com"/>
-    <hyperlink ref="A10" r:id="rId9" display="u13587172463@163.com" tooltip="mailto:u13587172463@163.com"/>
-    <hyperlink ref="A11" r:id="rId10" display="v13587172463@163.com" tooltip="mailto:v13587172463@163.com"/>
-    <hyperlink ref="A12" r:id="rId11" display="w13587172463@163.com" tooltip="mailto:w13587172463@163.com"/>
-    <hyperlink ref="A13" r:id="rId12" display="x13587172463@163.com" tooltip="mailto:x13587172463@163.com"/>
-    <hyperlink ref="A14" r:id="rId13" display="y13587172463@163.com" tooltip="mailto:y13587172463@163.com"/>
-    <hyperlink ref="A15" r:id="rId14" display="z13587172463@163.com" tooltip="mailto:z13587172463@163.com"/>
-    <hyperlink ref="A16" r:id="rId15" display="aa13587172463@163.com" tooltip="mailto:aa13587172463@163.com"/>
-    <hyperlink ref="A17" r:id="rId16" display="bb13587172463@163.com" tooltip="mailto:bb13587172463@163.com"/>
-    <hyperlink ref="A18" r:id="rId17" display="cc13587172463@163.com" tooltip="mailto:cc13587172463@163.com"/>
-    <hyperlink ref="A19" r:id="rId18" display="dd13587172463@163.com" tooltip="mailto:dd13587172463@163.com"/>
-    <hyperlink ref="A21" r:id="rId19" display="ff13587172463@163.com" tooltip="mailto:ff13587172463@163.com"/>
-    <hyperlink ref="A23" r:id="rId20" display="hh13587172463@163.com" tooltip="mailto:hh13587172463@163.com"/>
-    <hyperlink ref="A22" r:id="rId21" display="gg13587172463@163.com" tooltip="mailto:gg13587172463@163.com"/>
-    <hyperlink ref="A20" r:id="rId22" display="ee13587172463@163.com" tooltip="mailto:ee13587172463@163.com"/>
-    <hyperlink ref="A24" r:id="rId23" display="ll13587172463@163.com" tooltip="mailto:ll13587172463@163.com"/>
-    <hyperlink ref="A25" r:id="rId24" display="jj13587172463@163.com" tooltip="mailto:jj13587172463@163.com"/>
-    <hyperlink ref="A26" r:id="rId25" display="kk13587172463@163.com" tooltip="mailto:kk13587172463@163.com"/>
-    <hyperlink ref="A27" r:id="rId26" display="mm13587172463@163.com" tooltip="mailto:mm13587172463@163.com"/>
-    <hyperlink ref="A28" r:id="rId27" display="nn13587172463@163.com" tooltip="mailto:nn13587172463@163.com"/>
-    <hyperlink ref="A29" r:id="rId28" display="oo13587172463@163.com" tooltip="mailto:oo13587172463@163.com"/>
-    <hyperlink ref="A30" r:id="rId29" display="pp13587172463@163.com" tooltip="mailto:pp13587172463@163.com"/>
-    <hyperlink ref="A31" r:id="rId30" display="rr13587172463@163.com" tooltip="mailto:rr13587172463@163.com"/>
-    <hyperlink ref="A32" r:id="rId31" display="ss13587172463@163.com" tooltip="mailto:ss13587172463@163.com"/>
-    <hyperlink ref="A33" r:id="rId32" display="tt13587172463@163.com" tooltip="mailto:tt13587172463@163.com"/>
-    <hyperlink ref="A34" r:id="rId33" display="uu13587172463@163.com" tooltip="mailto:uu13587172463@163.com"/>
-    <hyperlink ref="A35" r:id="rId34" display="vv13587172463@163.com" tooltip="mailto:vv13587172463@163.com"/>
-    <hyperlink ref="A36" r:id="rId35" display="ww13587172463@163.com" tooltip="mailto:ww13587172463@163.com"/>
-    <hyperlink ref="A37" r:id="rId36" display="xx13587172463@163.com" tooltip="mailto:xx13587172463@163.com"/>
-    <hyperlink ref="A38" r:id="rId37" display="yy13587172463@163.com" tooltip="mailto:yy13587172463@163.com"/>
-    <hyperlink ref="A39" r:id="rId38" display="zz13587172463@163.com" tooltip="mailto:zz13587172463@163.com"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/src/main/resources/login.xlsx
+++ b/src/main/resources/login.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TW\IdeaProjects\zhongyang\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8340" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="账号信息" sheetId="2" r:id="rId1"/>
-    <sheet name="主账号收取" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="主账号收取" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="146">
   <si>
     <t>Account</t>
   </si>
@@ -451,19 +456,17 @@
   </si>
   <si>
     <t>j15167186038@163.com</t>
+  </si>
+  <si>
+    <t>SecondPassword</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,7 +479,8 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -484,13 +488,15 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -498,132 +504,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -638,222 +531,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -876,295 +589,56 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1172,81 +646,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1504,26 +938,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.1818181818182" customWidth="1"/>
-    <col min="2" max="3" width="17.8" customWidth="1"/>
-    <col min="4" max="4" width="13.9272727272727" customWidth="1"/>
+    <col min="1" max="1" width="26.125" customWidth="1"/>
+    <col min="2" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1537,7 +971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -1551,7 +985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -1565,7 +999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -1579,7 +1013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="24" t="s">
         <v>10</v>
       </c>
@@ -1593,7 +1027,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="24" t="s">
         <v>13</v>
       </c>
@@ -1607,7 +1041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -1621,7 +1055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -1635,7 +1069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
@@ -1649,7 +1083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
@@ -1663,7 +1097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1677,7 +1111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -1691,7 +1125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1705,7 +1139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
@@ -1719,7 +1153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
@@ -1733,7 +1167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
@@ -1747,7 +1181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
@@ -1761,7 +1195,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
@@ -1775,7 +1209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
@@ -1789,7 +1223,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>28</v>
       </c>
@@ -1803,7 +1237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>29</v>
       </c>
@@ -1817,7 +1251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
@@ -1831,7 +1265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
@@ -1845,7 +1279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
@@ -1859,7 +1293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>33</v>
       </c>
@@ -1873,7 +1307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
@@ -1887,7 +1321,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>35</v>
       </c>
@@ -1901,7 +1335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="s">
         <v>36</v>
       </c>
@@ -1915,7 +1349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="s">
         <v>37</v>
       </c>
@@ -1929,7 +1363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="11" t="s">
         <v>38</v>
       </c>
@@ -1943,7 +1377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="11" t="s">
         <v>39</v>
       </c>
@@ -1957,7 +1391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="11" t="s">
         <v>40</v>
       </c>
@@ -1971,7 +1405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="s">
         <v>41</v>
       </c>
@@ -1985,7 +1419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="s">
         <v>42</v>
       </c>
@@ -1999,7 +1433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
         <v>43</v>
       </c>
@@ -2013,7 +1447,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="s">
         <v>44</v>
       </c>
@@ -2027,7 +1461,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
         <v>45</v>
       </c>
@@ -2041,7 +1475,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="11" t="s">
         <v>46</v>
       </c>
@@ -2055,7 +1489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="s">
         <v>47</v>
       </c>
@@ -2069,7 +1503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="11" t="s">
         <v>48</v>
       </c>
@@ -2083,7 +1517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="s">
         <v>49</v>
       </c>
@@ -2097,7 +1531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="s">
         <v>50</v>
       </c>
@@ -2111,7 +1545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="s">
         <v>51</v>
       </c>
@@ -2125,7 +1559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="11" t="s">
         <v>52</v>
       </c>
@@ -2139,7 +1573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="11" t="s">
         <v>53</v>
       </c>
@@ -2153,7 +1587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="11" t="s">
         <v>54</v>
       </c>
@@ -2167,7 +1601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="11" t="s">
         <v>55</v>
       </c>
@@ -2181,7 +1615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>56</v>
       </c>
@@ -2195,7 +1629,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>58</v>
       </c>
@@ -2209,7 +1643,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>59</v>
       </c>
@@ -2223,7 +1657,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>60</v>
       </c>
@@ -2237,7 +1671,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>61</v>
       </c>
@@ -2251,7 +1685,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>62</v>
       </c>
@@ -2265,7 +1699,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="7" t="s">
         <v>63</v>
       </c>
@@ -2279,7 +1713,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
         <v>66</v>
       </c>
@@ -2293,7 +1727,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
         <v>67</v>
       </c>
@@ -2307,7 +1741,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
         <v>68</v>
       </c>
@@ -2321,7 +1755,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
         <v>71</v>
       </c>
@@ -2335,7 +1769,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
         <v>72</v>
       </c>
@@ -2349,7 +1783,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
         <v>73</v>
       </c>
@@ -2363,7 +1797,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>74</v>
       </c>
@@ -2377,7 +1811,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="11" t="s">
         <v>77</v>
       </c>
@@ -2391,7 +1825,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="12" t="s">
         <v>80</v>
       </c>
@@ -2405,7 +1839,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" ht="15" spans="1:5">
+    <row r="64" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="13" t="s">
         <v>83</v>
       </c>
@@ -2420,7 +1854,7 @@
       </c>
       <c r="E64" s="16"/>
     </row>
-    <row r="65" ht="15" spans="1:5">
+    <row r="65" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="17" t="s">
         <v>85</v>
       </c>
@@ -2435,7 +1869,7 @@
       </c>
       <c r="E65" s="20"/>
     </row>
-    <row r="66" ht="15" spans="1:5">
+    <row r="66" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="21" t="s">
         <v>88</v>
       </c>
@@ -2450,7 +1884,7 @@
       </c>
       <c r="E66" s="20"/>
     </row>
-    <row r="67" ht="15" spans="1:5">
+    <row r="67" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="21" t="s">
         <v>91</v>
       </c>
@@ -2465,7 +1899,7 @@
       </c>
       <c r="E67" s="16"/>
     </row>
-    <row r="68" ht="15" spans="1:5">
+    <row r="68" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="21" t="s">
         <v>92</v>
       </c>
@@ -2480,7 +1914,7 @@
       </c>
       <c r="E68" s="16"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="9" t="s">
         <v>93</v>
       </c>
@@ -2494,7 +1928,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="9" t="s">
         <v>95</v>
       </c>
@@ -2508,7 +1942,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="9" t="s">
         <v>96</v>
       </c>
@@ -2522,7 +1956,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="9" t="s">
         <v>97</v>
       </c>
@@ -2536,7 +1970,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="9" t="s">
         <v>98</v>
       </c>
@@ -2550,7 +1984,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="9" t="s">
         <v>99</v>
       </c>
@@ -2564,7 +1998,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="9" t="s">
         <v>100</v>
       </c>
@@ -2578,7 +2012,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
         <v>101</v>
       </c>
@@ -2592,7 +2026,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="9" t="s">
         <v>102</v>
       </c>
@@ -2606,7 +2040,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="12" t="s">
         <v>103</v>
       </c>
@@ -2620,7 +2054,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="12" t="s">
         <v>104</v>
       </c>
@@ -2634,7 +2068,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="24" t="s">
         <v>105</v>
       </c>
@@ -2648,7 +2082,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="24" t="s">
         <v>108</v>
       </c>
@@ -2662,7 +2096,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="24" t="s">
         <v>109</v>
       </c>
@@ -2676,7 +2110,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="24" t="s">
         <v>110</v>
       </c>
@@ -2690,7 +2124,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="24" t="s">
         <v>111</v>
       </c>
@@ -2704,7 +2138,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="24" t="s">
         <v>112</v>
       </c>
@@ -2718,7 +2152,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="24" t="s">
         <v>113</v>
       </c>
@@ -2732,7 +2166,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="24" t="s">
         <v>114</v>
       </c>
@@ -2746,7 +2180,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="24" t="s">
         <v>115</v>
       </c>
@@ -2760,7 +2194,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="25" t="s">
         <v>116</v>
       </c>
@@ -2774,7 +2208,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="25" t="s">
         <v>117</v>
       </c>
@@ -2788,7 +2222,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="25" t="s">
         <v>118</v>
       </c>
@@ -2802,7 +2236,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="25" t="s">
         <v>119</v>
       </c>
@@ -2816,7 +2250,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="25" t="s">
         <v>120</v>
       </c>
@@ -2830,7 +2264,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="25" t="s">
         <v>121</v>
       </c>
@@ -2844,7 +2278,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="5" t="s">
         <v>122</v>
       </c>
@@ -2858,7 +2292,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="5" t="s">
         <v>125</v>
       </c>
@@ -2872,7 +2306,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="5" t="s">
         <v>126</v>
       </c>
@@ -2886,7 +2320,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="5" t="s">
         <v>127</v>
       </c>
@@ -2900,7 +2334,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="5" t="s">
         <v>128</v>
       </c>
@@ -2914,7 +2348,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="5" t="s">
         <v>129</v>
       </c>
@@ -2928,7 +2362,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="5" t="s">
         <v>130</v>
       </c>
@@ -2942,7 +2376,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="5" t="s">
         <v>131</v>
       </c>
@@ -2956,7 +2390,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="5" t="s">
         <v>132</v>
       </c>
@@ -2970,7 +2404,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="11" t="s">
         <v>133</v>
       </c>
@@ -2984,7 +2418,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
         <v>134</v>
       </c>
@@ -2998,7 +2432,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
         <v>136</v>
       </c>
@@ -3012,7 +2446,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
         <v>137</v>
       </c>
@@ -3026,7 +2460,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
         <v>138</v>
       </c>
@@ -3040,7 +2474,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
         <v>139</v>
       </c>
@@ -3054,7 +2488,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
         <v>140</v>
       </c>
@@ -3068,7 +2502,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
         <v>141</v>
       </c>
@@ -3082,7 +2516,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
         <v>142</v>
       </c>
@@ -3096,7 +2530,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
         <v>143</v>
       </c>
@@ -3110,7 +2544,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
         <v>144</v>
       </c>
@@ -3125,143 +2559,142 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="b15158015845@163.com" tooltip="mailto:b15158015845@163.com"/>
-    <hyperlink ref="A2" r:id="rId2" display="a15158015845@163.com" tooltip="mailto:a15158015845@163.com"/>
-    <hyperlink ref="A5" r:id="rId3" display="a17706132072@163.com" tooltip="mailto:a17706132072@163.com"/>
-    <hyperlink ref="A6" r:id="rId4" display="b17706132072@163.com" tooltip="mailto:b17706132072@163.com"/>
-    <hyperlink ref="A7" r:id="rId5" display="a13587172463@163.com" tooltip="mailto:a15157887349@163.com"/>
-    <hyperlink ref="A8" r:id="rId6" display="b13587172463@163.com" tooltip="mailto:b15157887349@163.com"/>
-    <hyperlink ref="A9" r:id="rId7" display="n13587172463@163.com" tooltip="mailto:n13587172463@163.com"/>
-    <hyperlink ref="A10" r:id="rId8" display="o13587172463@163.com" tooltip="mailto:o13587172463@163.com"/>
-    <hyperlink ref="A11" r:id="rId9" display="p13587172463@163.com" tooltip="mailto:p13587172463@163.com"/>
-    <hyperlink ref="A12" r:id="rId10" display="qq13587172463@163.com" tooltip="mailto:qq13587172463@163.com"/>
-    <hyperlink ref="A13" r:id="rId11" display="r13587172463@163.com" tooltip="mailto:r13587172463@163.com"/>
-    <hyperlink ref="A14" r:id="rId12" display="s13587172463@163.com" tooltip="mailto:s13587172463@163.com"/>
-    <hyperlink ref="A15" r:id="rId13" display="t13587172463@163.com" tooltip="mailto:t13587172463@163.com"/>
-    <hyperlink ref="A16" r:id="rId14" display="u13587172463@163.com" tooltip="mailto:u13587172463@163.com"/>
-    <hyperlink ref="A17" r:id="rId15" display="v13587172463@163.com" tooltip="mailto:v13587172463@163.com"/>
-    <hyperlink ref="A18" r:id="rId16" display="w13587172463@163.com" tooltip="mailto:w13587172463@163.com"/>
-    <hyperlink ref="A19" r:id="rId17" display="x13587172463@163.com" tooltip="mailto:x13587172463@163.com"/>
-    <hyperlink ref="A20" r:id="rId18" display="y13587172463@163.com" tooltip="mailto:y13587172463@163.com"/>
-    <hyperlink ref="A21" r:id="rId19" display="aa13587172463@163.com" tooltip="mailto:aa13587172463@163.com"/>
-    <hyperlink ref="A22" r:id="rId20" display="bb13587172463@163.com" tooltip="mailto:bb13587172463@163.com"/>
-    <hyperlink ref="A23" r:id="rId21" display="cc13587172463@163.com" tooltip="mailto:cc13587172463@163.com"/>
-    <hyperlink ref="A24" r:id="rId22" display="dd13587172463@163.com" tooltip="mailto:dd13587172463@163.com"/>
-    <hyperlink ref="A26" r:id="rId23" display="ff13587172463@163.com" tooltip="mailto:ff13587172463@163.com"/>
-    <hyperlink ref="A28" r:id="rId24" display="hh13587172463@163.com" tooltip="mailto:hh13587172463@163.com"/>
-    <hyperlink ref="A27" r:id="rId25" display="gg13587172463@163.com" tooltip="mailto:gg13587172463@163.com"/>
-    <hyperlink ref="A25" r:id="rId26" display="ee13587172463@163.com" tooltip="mailto:ee13587172463@163.com"/>
-    <hyperlink ref="A29" r:id="rId27" display="ll13587172463@163.com" tooltip="mailto:ll13587172463@163.com"/>
-    <hyperlink ref="A30" r:id="rId28" display="jj13587172463@163.com" tooltip="mailto:jj13587172463@163.com"/>
-    <hyperlink ref="A31" r:id="rId29" display="kk13587172463@163.com" tooltip="mailto:kk13587172463@163.com"/>
-    <hyperlink ref="A32" r:id="rId30" display="mm13587172463@163.com" tooltip="mailto:mm13587172463@163.com"/>
-    <hyperlink ref="A33" r:id="rId31" display="nn13587172463@163.com" tooltip="mailto:nn13587172463@163.com"/>
-    <hyperlink ref="A34" r:id="rId32" display="oo13587172463@163.com" tooltip="mailto:oo13587172463@163.com"/>
-    <hyperlink ref="A35" r:id="rId33" display="pp13587172463@163.com" tooltip="mailto:pp13587172463@163.com"/>
-    <hyperlink ref="A36" r:id="rId34" display="rr13587172463@163.com" tooltip="mailto:rr13587172463@163.com"/>
-    <hyperlink ref="A37" r:id="rId35" display="ss13587172463@163.com" tooltip="mailto:ss13587172463@163.com"/>
-    <hyperlink ref="A38" r:id="rId36" display="tt13587172463@163.com" tooltip="mailto:tt13587172463@163.com"/>
-    <hyperlink ref="A39" r:id="rId37" display="uu13587172463@163.com" tooltip="mailto:uu13587172463@163.com"/>
-    <hyperlink ref="A40" r:id="rId38" display="vv13587172463@163.com" tooltip="mailto:vv13587172463@163.com"/>
-    <hyperlink ref="A41" r:id="rId39" display="ww13587172463@163.com" tooltip="mailto:ww13587172463@163.com"/>
-    <hyperlink ref="A42" r:id="rId40" display="xx13587172463@163.com" tooltip="mailto:xx13587172463@163.com"/>
-    <hyperlink ref="A43" r:id="rId41" display="yy13587172463@163.com" tooltip="mailto:yy13587172463@163.com"/>
-    <hyperlink ref="A44" r:id="rId42" display="zz13587172463@163.com" tooltip="mailto:zz13587172463@163.com"/>
-    <hyperlink ref="A48" r:id="rId43" display="a13757098596@163.com" tooltip="mailto:a13757098596@163.com"/>
-    <hyperlink ref="A49" r:id="rId44" display="b13757098596@163.com" tooltip="mailto:b13757098596@163.com"/>
-    <hyperlink ref="A50" r:id="rId45" display="g13757098596@163.com"/>
-    <hyperlink ref="A51" r:id="rId46" display="h13757098596@163.com"/>
-    <hyperlink ref="A52" r:id="rId47" display="l13757098596@163.com"/>
-    <hyperlink ref="A53" r:id="rId48" display="j13757098596@163.com"/>
-    <hyperlink ref="A54" r:id="rId49" display="a15267310606@163.com" tooltip="mailto:a15267310606@163.com"/>
-    <hyperlink ref="A55" r:id="rId50" display="b15267310606@163.com" tooltip="mailto:b15267310606@163.com"/>
-    <hyperlink ref="A56" r:id="rId51" display="c15267310606@163.com" tooltip="mailto:c15267310606@163.com"/>
-    <hyperlink ref="A57" r:id="rId52" display="c15957826243@163.com" tooltip="mailto:c15957826243@163.com"/>
-    <hyperlink ref="A58" r:id="rId53" display="d15957826243@163.com" tooltip="mailto:d15957826243@163.com"/>
-    <hyperlink ref="A59" r:id="rId54" display="e15957826243@163.com" tooltip="mailto:e15957826243@163.com"/>
-    <hyperlink ref="A60" r:id="rId55" display="f15957826243@163.com" tooltip="mailto:f15957826243@163.com"/>
-    <hyperlink ref="A61" r:id="rId56" display="a13567614850@163.com" tooltip="mailto:a13567614850@163.com"/>
-    <hyperlink ref="A62" r:id="rId57" display="a13291866525@163.com" tooltip="mailto:a13291866525@163.com"/>
-    <hyperlink ref="A63" r:id="rId58" display="a15305783466@163.com" tooltip="mailto:a15305783466@163.com"/>
-    <hyperlink ref="A64" r:id="rId59" display="a13868069569@163.com"/>
-    <hyperlink ref="A65" r:id="rId60" display="a15857806565@163.com" tooltip="mailto:a15857806565@163.com"/>
-    <hyperlink ref="A66" r:id="rId61" display="a15058687363@163.com" tooltip="mailto:a15058687363@163.com"/>
-    <hyperlink ref="A67" r:id="rId62" display="b15058687363@163.com" tooltip="mailto:b15058687363@163.com"/>
-    <hyperlink ref="A68" r:id="rId63" display="c15058687363@163.com" tooltip="mailto:c15058687363@163.com"/>
-    <hyperlink ref="A4" r:id="rId64" display="d15158015845@163.com" tooltip="mailto:d15158015845@163.com"/>
-    <hyperlink ref="A45" r:id="rId65" display="ggg13587172463@163.com" tooltip="mailto:ggg13587172463@163.com"/>
-    <hyperlink ref="A69" r:id="rId5" display="a15157887349@163.com" tooltip="mailto:a15157887349@163.com"/>
-    <hyperlink ref="A70" r:id="rId44" display="b15157887349@163.com" tooltip="mailto:b13757098596@163.com"/>
-    <hyperlink ref="A75" r:id="rId45" display="g15157887349@163.com"/>
-    <hyperlink ref="A76" r:id="rId46" display="h15157887349@163.com"/>
-    <hyperlink ref="A77" r:id="rId47" display="l15157887349@163.com"/>
-    <hyperlink ref="A78" r:id="rId48" display="j15157887349@163.com"/>
-    <hyperlink ref="A71" r:id="rId52" display="c15157887349@163.com" tooltip="mailto:c15957826243@163.com"/>
-    <hyperlink ref="A72" r:id="rId53" display="d15157887349@163.com" tooltip="mailto:d15957826243@163.com"/>
-    <hyperlink ref="A73" r:id="rId54" display="e15157887349@163.com" tooltip="mailto:e15957826243@163.com"/>
-    <hyperlink ref="A74" r:id="rId55" display="f15157887349@163.com" tooltip="mailto:f15957826243@163.com"/>
-    <hyperlink ref="A46" r:id="rId66" display="ah13587172463@163.com" tooltip="mailto:ah13587172463@163.com"/>
-    <hyperlink ref="A47" r:id="rId67" display="am13587172463@163.com" tooltip="mailto:am13587172463@163.com"/>
-    <hyperlink ref="A79" r:id="rId68" display="k15157887349@163.com" tooltip="mailto:k15157887349@163.com"/>
-    <hyperlink ref="A80" r:id="rId5" display="a13626784727@163.com" tooltip="mailto:a15157887349@163.com"/>
-    <hyperlink ref="A81" r:id="rId44" display="b13626784727@163.com" tooltip="mailto:b13757098596@163.com"/>
-    <hyperlink ref="A86" r:id="rId45" display="g13626784727@163.com"/>
-    <hyperlink ref="A87" r:id="rId46" display="h13626784727@163.com"/>
-    <hyperlink ref="A88" r:id="rId47" display="l13626784727@163.com"/>
-    <hyperlink ref="A89" r:id="rId48" display="j13626784727@163.com"/>
-    <hyperlink ref="A82" r:id="rId52" display="c13626784727@163.com" tooltip="mailto:c15957826243@163.com"/>
-    <hyperlink ref="A83" r:id="rId53" display="d13626784727@163.com" tooltip="mailto:d15957826243@163.com"/>
-    <hyperlink ref="A84" r:id="rId54" display="e13626784727@163.com" tooltip="mailto:e15957826243@163.com"/>
-    <hyperlink ref="A85" r:id="rId55" display="f13626784727@163.com" tooltip="mailto:f15957826243@163.com"/>
-    <hyperlink ref="A90" r:id="rId69" display="k13626784727@163.com" tooltip="mailto:k13626784727@163.com"/>
-    <hyperlink ref="A91" r:id="rId70" display="m13626784727@163.com" tooltip="mailto:m13626784727@163.com"/>
-    <hyperlink ref="A92" r:id="rId71" display="n13626784727@163.com" tooltip="mailto:n13626784727@163.com"/>
-    <hyperlink ref="A93" r:id="rId72" display="o13626784727@163.com" tooltip="mailto:o13626784727@163.com"/>
-    <hyperlink ref="A94" r:id="rId73" display="p13626784727@163.com" tooltip="mailto:p13626784727@163.com"/>
-    <hyperlink ref="A95" r:id="rId74" display="a15355785681@163.com" tooltip="mailto:a13626784727@163.com"/>
-    <hyperlink ref="A96" r:id="rId44" display="b15355785681@163.com" tooltip="mailto:b13757098596@163.com"/>
-    <hyperlink ref="A101" r:id="rId45" display="g15355785681@163.com"/>
-    <hyperlink ref="A102" r:id="rId46" display="h15355785681@163.com"/>
-    <hyperlink ref="A103" r:id="rId47" display="l15355785681@163.com"/>
-    <hyperlink ref="A104" r:id="rId48" display="j15355785681@163.com"/>
-    <hyperlink ref="A97" r:id="rId52" display="c15355785681@163.com" tooltip="mailto:c15957826243@163.com"/>
-    <hyperlink ref="A98" r:id="rId53" display="d15355785681@163.com" tooltip="mailto:d15957826243@163.com"/>
-    <hyperlink ref="A99" r:id="rId54" display="e15355785681@163.com" tooltip="mailto:e15957826243@163.com"/>
-    <hyperlink ref="A100" r:id="rId55" display="f15355785681@163.com" tooltip="mailto:f15957826243@163.com"/>
-    <hyperlink ref="A105" r:id="rId75" display="a15167186038@163.com" tooltip="mailto:a15355785681@163.com"/>
-    <hyperlink ref="A106" r:id="rId44" display="b15167186038@163.com" tooltip="mailto:b13757098596@163.com"/>
-    <hyperlink ref="A111" r:id="rId45" display="g15167186038@163.com"/>
-    <hyperlink ref="A112" r:id="rId46" display="h15167186038@163.com"/>
-    <hyperlink ref="A113" r:id="rId47" display="l15167186038@163.com"/>
-    <hyperlink ref="A114" r:id="rId48" display="j15167186038@163.com"/>
-    <hyperlink ref="A107" r:id="rId52" display="c15167186038@163.com" tooltip="mailto:c15957826243@163.com"/>
-    <hyperlink ref="A108" r:id="rId53" display="d15167186038@163.com" tooltip="mailto:d15957826243@163.com"/>
-    <hyperlink ref="A109" r:id="rId54" display="e15167186038@163.com" tooltip="mailto:e15957826243@163.com"/>
-    <hyperlink ref="A110" r:id="rId55" display="f15167186038@163.com" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A3" r:id="rId1" tooltip="mailto:b15158015845@163.com"/>
+    <hyperlink ref="A2" r:id="rId2" tooltip="mailto:a15158015845@163.com"/>
+    <hyperlink ref="A5" r:id="rId3" tooltip="mailto:a17706132072@163.com"/>
+    <hyperlink ref="A6" r:id="rId4" tooltip="mailto:b17706132072@163.com"/>
+    <hyperlink ref="A7" r:id="rId5" tooltip="mailto:a15157887349@163.com"/>
+    <hyperlink ref="A8" r:id="rId6" tooltip="mailto:b15157887349@163.com"/>
+    <hyperlink ref="A9" r:id="rId7" tooltip="mailto:n13587172463@163.com"/>
+    <hyperlink ref="A10" r:id="rId8" tooltip="mailto:o13587172463@163.com"/>
+    <hyperlink ref="A11" r:id="rId9" tooltip="mailto:p13587172463@163.com"/>
+    <hyperlink ref="A12" r:id="rId10" tooltip="mailto:qq13587172463@163.com"/>
+    <hyperlink ref="A13" r:id="rId11" tooltip="mailto:r13587172463@163.com"/>
+    <hyperlink ref="A14" r:id="rId12" tooltip="mailto:s13587172463@163.com"/>
+    <hyperlink ref="A15" r:id="rId13" tooltip="mailto:t13587172463@163.com"/>
+    <hyperlink ref="A16" r:id="rId14" tooltip="mailto:u13587172463@163.com"/>
+    <hyperlink ref="A17" r:id="rId15" tooltip="mailto:v13587172463@163.com"/>
+    <hyperlink ref="A18" r:id="rId16" tooltip="mailto:w13587172463@163.com"/>
+    <hyperlink ref="A19" r:id="rId17" tooltip="mailto:x13587172463@163.com"/>
+    <hyperlink ref="A20" r:id="rId18" tooltip="mailto:y13587172463@163.com"/>
+    <hyperlink ref="A21" r:id="rId19" tooltip="mailto:aa13587172463@163.com"/>
+    <hyperlink ref="A22" r:id="rId20" tooltip="mailto:bb13587172463@163.com"/>
+    <hyperlink ref="A23" r:id="rId21" tooltip="mailto:cc13587172463@163.com"/>
+    <hyperlink ref="A24" r:id="rId22" tooltip="mailto:dd13587172463@163.com"/>
+    <hyperlink ref="A26" r:id="rId23" tooltip="mailto:ff13587172463@163.com"/>
+    <hyperlink ref="A28" r:id="rId24" tooltip="mailto:hh13587172463@163.com"/>
+    <hyperlink ref="A27" r:id="rId25" tooltip="mailto:gg13587172463@163.com"/>
+    <hyperlink ref="A25" r:id="rId26" tooltip="mailto:ee13587172463@163.com"/>
+    <hyperlink ref="A29" r:id="rId27" tooltip="mailto:ll13587172463@163.com"/>
+    <hyperlink ref="A30" r:id="rId28" tooltip="mailto:jj13587172463@163.com"/>
+    <hyperlink ref="A31" r:id="rId29" tooltip="mailto:kk13587172463@163.com"/>
+    <hyperlink ref="A32" r:id="rId30" tooltip="mailto:mm13587172463@163.com"/>
+    <hyperlink ref="A33" r:id="rId31" tooltip="mailto:nn13587172463@163.com"/>
+    <hyperlink ref="A34" r:id="rId32" tooltip="mailto:oo13587172463@163.com"/>
+    <hyperlink ref="A35" r:id="rId33" tooltip="mailto:pp13587172463@163.com"/>
+    <hyperlink ref="A36" r:id="rId34" tooltip="mailto:rr13587172463@163.com"/>
+    <hyperlink ref="A37" r:id="rId35" tooltip="mailto:ss13587172463@163.com"/>
+    <hyperlink ref="A38" r:id="rId36" tooltip="mailto:tt13587172463@163.com"/>
+    <hyperlink ref="A39" r:id="rId37" tooltip="mailto:uu13587172463@163.com"/>
+    <hyperlink ref="A40" r:id="rId38" tooltip="mailto:vv13587172463@163.com"/>
+    <hyperlink ref="A41" r:id="rId39" tooltip="mailto:ww13587172463@163.com"/>
+    <hyperlink ref="A42" r:id="rId40" tooltip="mailto:xx13587172463@163.com"/>
+    <hyperlink ref="A43" r:id="rId41" tooltip="mailto:yy13587172463@163.com"/>
+    <hyperlink ref="A44" r:id="rId42" tooltip="mailto:zz13587172463@163.com"/>
+    <hyperlink ref="A48" r:id="rId43" tooltip="mailto:a13757098596@163.com"/>
+    <hyperlink ref="A49" r:id="rId44" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A50" r:id="rId45"/>
+    <hyperlink ref="A51" r:id="rId46"/>
+    <hyperlink ref="A52" r:id="rId47"/>
+    <hyperlink ref="A53" r:id="rId48"/>
+    <hyperlink ref="A54" r:id="rId49" tooltip="mailto:a15267310606@163.com"/>
+    <hyperlink ref="A55" r:id="rId50" tooltip="mailto:b15267310606@163.com"/>
+    <hyperlink ref="A56" r:id="rId51" tooltip="mailto:c15267310606@163.com"/>
+    <hyperlink ref="A57" r:id="rId52" tooltip="mailto:c15957826243@163.com"/>
+    <hyperlink ref="A58" r:id="rId53" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A59" r:id="rId54" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A60" r:id="rId55" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A61" r:id="rId56" tooltip="mailto:a13567614850@163.com"/>
+    <hyperlink ref="A62" r:id="rId57" tooltip="mailto:a13291866525@163.com"/>
+    <hyperlink ref="A63" r:id="rId58" tooltip="mailto:a15305783466@163.com"/>
+    <hyperlink ref="A64" r:id="rId59"/>
+    <hyperlink ref="A65" r:id="rId60" tooltip="mailto:a15857806565@163.com"/>
+    <hyperlink ref="A66" r:id="rId61" tooltip="mailto:a15058687363@163.com"/>
+    <hyperlink ref="A67" r:id="rId62" tooltip="mailto:b15058687363@163.com"/>
+    <hyperlink ref="A68" r:id="rId63" tooltip="mailto:c15058687363@163.com"/>
+    <hyperlink ref="A4" r:id="rId64" tooltip="mailto:d15158015845@163.com"/>
+    <hyperlink ref="A45" r:id="rId65" tooltip="mailto:ggg13587172463@163.com"/>
+    <hyperlink ref="A69" r:id="rId66" tooltip="mailto:a15157887349@163.com"/>
+    <hyperlink ref="A70" r:id="rId67" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A75" r:id="rId68"/>
+    <hyperlink ref="A76" r:id="rId69"/>
+    <hyperlink ref="A77" r:id="rId70"/>
+    <hyperlink ref="A78" r:id="rId71"/>
+    <hyperlink ref="A71" r:id="rId72" tooltip="mailto:c15957826243@163.com"/>
+    <hyperlink ref="A72" r:id="rId73" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A73" r:id="rId74" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A74" r:id="rId75" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A46" r:id="rId76" tooltip="mailto:ah13587172463@163.com"/>
+    <hyperlink ref="A47" r:id="rId77" tooltip="mailto:am13587172463@163.com"/>
+    <hyperlink ref="A79" r:id="rId78" tooltip="mailto:k15157887349@163.com"/>
+    <hyperlink ref="A80" r:id="rId79" tooltip="mailto:a15157887349@163.com"/>
+    <hyperlink ref="A81" r:id="rId80" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A86" r:id="rId81"/>
+    <hyperlink ref="A87" r:id="rId82"/>
+    <hyperlink ref="A88" r:id="rId83"/>
+    <hyperlink ref="A89" r:id="rId84"/>
+    <hyperlink ref="A82" r:id="rId85" tooltip="mailto:c15957826243@163.com"/>
+    <hyperlink ref="A83" r:id="rId86" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A84" r:id="rId87" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A85" r:id="rId88" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A90" r:id="rId89" tooltip="mailto:k13626784727@163.com"/>
+    <hyperlink ref="A91" r:id="rId90" tooltip="mailto:m13626784727@163.com"/>
+    <hyperlink ref="A92" r:id="rId91" tooltip="mailto:n13626784727@163.com"/>
+    <hyperlink ref="A93" r:id="rId92" tooltip="mailto:o13626784727@163.com"/>
+    <hyperlink ref="A94" r:id="rId93" tooltip="mailto:p13626784727@163.com"/>
+    <hyperlink ref="A95" r:id="rId94" tooltip="mailto:a13626784727@163.com"/>
+    <hyperlink ref="A96" r:id="rId95" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A101" r:id="rId96"/>
+    <hyperlink ref="A102" r:id="rId97"/>
+    <hyperlink ref="A103" r:id="rId98"/>
+    <hyperlink ref="A104" r:id="rId99"/>
+    <hyperlink ref="A97" r:id="rId100" tooltip="mailto:c15957826243@163.com"/>
+    <hyperlink ref="A98" r:id="rId101" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A99" r:id="rId102" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A100" r:id="rId103" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A105" r:id="rId104" tooltip="mailto:a15355785681@163.com"/>
+    <hyperlink ref="A106" r:id="rId105" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A111" r:id="rId106"/>
+    <hyperlink ref="A112" r:id="rId107"/>
+    <hyperlink ref="A113" r:id="rId108"/>
+    <hyperlink ref="A114" r:id="rId109"/>
+    <hyperlink ref="A107" r:id="rId110" tooltip="mailto:c15957826243@163.com"/>
+    <hyperlink ref="A108" r:id="rId111" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A109" r:id="rId112" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A110" r:id="rId113" tooltip="mailto:f15957826243@163.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.1818181818182" customWidth="1"/>
-    <col min="2" max="3" width="17.8" customWidth="1"/>
-    <col min="4" max="4" width="13.9272727272727" customWidth="1"/>
+    <col min="1" max="1" width="26.375" customWidth="1"/>
+    <col min="2" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3275,23 +2708,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -3300,460 +2733,387 @@
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" ht="15" spans="1:5">
-      <c r="A14" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" ht="15" spans="1:5">
-      <c r="A15" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="20"/>
-    </row>
-    <row r="16" ht="15" spans="1:5">
-      <c r="A16" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="20"/>
-    </row>
-    <row r="17" ht="15" spans="1:5">
-      <c r="A17" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" ht="15" spans="1:5">
-      <c r="A18" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="3" t="s">
         <v>135</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="a13587172463@163.com" tooltip="mailto:a15157887349@163.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="a13757098596@163.com" tooltip="mailto:a13757098596@163.com"/>
-    <hyperlink ref="A4" r:id="rId3" display="a15267310606@163.com" tooltip="mailto:a15267310606@163.com"/>
-    <hyperlink ref="A5" r:id="rId4" display="b15267310606@163.com" tooltip="mailto:b15267310606@163.com"/>
-    <hyperlink ref="A6" r:id="rId5" display="c15267310606@163.com" tooltip="mailto:c15267310606@163.com"/>
-    <hyperlink ref="A7" r:id="rId6" display="c15957826243@163.com" tooltip="mailto:c15957826243@163.com"/>
-    <hyperlink ref="A8" r:id="rId7" display="d15957826243@163.com" tooltip="mailto:d15957826243@163.com"/>
-    <hyperlink ref="A9" r:id="rId8" display="e15957826243@163.com" tooltip="mailto:e15957826243@163.com"/>
-    <hyperlink ref="A10" r:id="rId9" display="f15957826243@163.com" tooltip="mailto:f15957826243@163.com"/>
-    <hyperlink ref="A11" r:id="rId10" display="a13567614850@163.com" tooltip="mailto:a13567614850@163.com"/>
-    <hyperlink ref="A12" r:id="rId11" display="a13291866525@163.com" tooltip="mailto:a13291866525@163.com"/>
-    <hyperlink ref="A13" r:id="rId12" display="a15305783466@163.com" tooltip="mailto:a15305783466@163.com"/>
-    <hyperlink ref="A14" r:id="rId13" display="a13868069569@163.com"/>
-    <hyperlink ref="A15" r:id="rId14" display="a15857806565@163.com" tooltip="mailto:a15857806565@163.com"/>
-    <hyperlink ref="A16" r:id="rId15" display="a15058687363@163.com" tooltip="mailto:a15058687363@163.com"/>
-    <hyperlink ref="A17" r:id="rId16" display="b15058687363@163.com" tooltip="mailto:b15058687363@163.com"/>
-    <hyperlink ref="A18" r:id="rId17" display="c15058687363@163.com" tooltip="mailto:c15058687363@163.com"/>
-    <hyperlink ref="A19" r:id="rId1" display="a15157887349@163.com" tooltip="mailto:a15157887349@163.com"/>
-    <hyperlink ref="A20" r:id="rId1" display="a13626784727@163.com" tooltip="mailto:a15157887349@163.com"/>
-    <hyperlink ref="A21" r:id="rId18" display="a15355785681@163.com" tooltip="mailto:a13626784727@163.com"/>
-    <hyperlink ref="A22" r:id="rId19" display="a15167186038@163.com" tooltip="mailto:a15355785681@163.com"/>
+    <hyperlink ref="A2" r:id="rId1" tooltip="mailto:a15355785681@163.com"/>
+    <hyperlink ref="A3" r:id="rId2" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A4" r:id="rId3" tooltip="mailto:c15957826243@163.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.3818181818182" customWidth="1"/>
-    <col min="2" max="2" width="20.7363636363636" customWidth="1"/>
-    <col min="3" max="3" width="13.9272727272727" customWidth="1"/>
+    <col min="1" max="1" width="26.125" customWidth="1"/>
+    <col min="2" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="a15167186038@163.com" tooltip="mailto:a15355785681@163.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="b15167186038@163.com" tooltip="mailto:b13757098596@163.com"/>
-    <hyperlink ref="A8" r:id="rId3" display="g15167186038@163.com"/>
-    <hyperlink ref="A9" r:id="rId4" display="h15167186038@163.com"/>
-    <hyperlink ref="A10" r:id="rId5" display="l15167186038@163.com"/>
-    <hyperlink ref="A11" r:id="rId6" display="j15167186038@163.com"/>
-    <hyperlink ref="A4" r:id="rId7" display="c15167186038@163.com" tooltip="mailto:c15957826243@163.com"/>
-    <hyperlink ref="A5" r:id="rId8" display="d15167186038@163.com" tooltip="mailto:d15957826243@163.com"/>
-    <hyperlink ref="A6" r:id="rId9" display="e15167186038@163.com" tooltip="mailto:e15957826243@163.com"/>
-    <hyperlink ref="A7" r:id="rId10" display="f15167186038@163.com" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A2" r:id="rId1" tooltip="mailto:a15157887349@163.com"/>
+    <hyperlink ref="A3" r:id="rId2" tooltip="mailto:a13757098596@163.com"/>
+    <hyperlink ref="A4" r:id="rId3" tooltip="mailto:a15267310606@163.com"/>
+    <hyperlink ref="A5" r:id="rId4" tooltip="mailto:b15267310606@163.com"/>
+    <hyperlink ref="A6" r:id="rId5" tooltip="mailto:c15267310606@163.com"/>
+    <hyperlink ref="A7" r:id="rId6" tooltip="mailto:c15957826243@163.com"/>
+    <hyperlink ref="A8" r:id="rId7" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A9" r:id="rId8" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A10" r:id="rId9" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A11" r:id="rId10" tooltip="mailto:a13567614850@163.com"/>
+    <hyperlink ref="A12" r:id="rId11" tooltip="mailto:a13291866525@163.com"/>
+    <hyperlink ref="A13" r:id="rId12" tooltip="mailto:a15305783466@163.com"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14" tooltip="mailto:a15857806565@163.com"/>
+    <hyperlink ref="A16" r:id="rId15" tooltip="mailto:a15058687363@163.com"/>
+    <hyperlink ref="A17" r:id="rId16" tooltip="mailto:b15058687363@163.com"/>
+    <hyperlink ref="A18" r:id="rId17" tooltip="mailto:c15058687363@163.com"/>
+    <hyperlink ref="A19" r:id="rId18" tooltip="mailto:a15157887349@163.com"/>
+    <hyperlink ref="A20" r:id="rId19" tooltip="mailto:a15157887349@163.com"/>
+    <hyperlink ref="A21" r:id="rId20" tooltip="mailto:a13626784727@163.com"/>
+    <hyperlink ref="A22" r:id="rId21" tooltip="mailto:a15355785681@163.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/login.xlsx
+++ b/src/main/resources/login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8820" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="账号信息" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="151">
   <si>
     <t>Account</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>j13757098596@163.com</t>
+  </si>
+  <si>
+    <t>k13757098596@163.com</t>
+  </si>
+  <si>
+    <t>m13757098596@163.com</t>
   </si>
   <si>
     <t>a15267310606@163.com</t>
@@ -470,10 +476,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -514,8 +520,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,7 +565,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,7 +580,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,6 +588,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -560,6 +604,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,22 +627,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,37 +638,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -706,7 +712,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,25 +766,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,19 +784,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,55 +826,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,6 +897,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -902,15 +917,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -966,10 +972,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -981,13 +987,13 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -996,115 +1002,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1497,10 +1503,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD5"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2295,87 +2301,87 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>68</v>
+      <c r="B58" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>73</v>
+      <c r="B61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2383,13 +2389,13 @@
         <v>76</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2397,163 +2403,163 @@
         <v>77</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C65" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D65" s="10" t="s">
+      <c r="B66" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="13" t="s">
+      <c r="B67" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="C67" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D67" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C66" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D66" s="8" t="s">
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="13" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="14" t="s">
+      <c r="B68" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="C68" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C67" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D67" s="12" t="s">
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="14" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="68" ht="14.25" spans="1:5">
-      <c r="A68" s="15" t="s">
+      <c r="B69" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="17" t="s">
+      <c r="C69" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D69" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E68" s="18"/>
-    </row>
-    <row r="69" ht="14.25" spans="1:5">
-      <c r="A69" s="19" t="s">
+    </row>
+    <row r="70" ht="14.25" spans="1:5">
+      <c r="A70" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B70" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D69" s="20" t="s">
+      <c r="E70" s="18"/>
+    </row>
+    <row r="71" ht="14.25" spans="1:5">
+      <c r="A71" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E69" s="21"/>
-    </row>
-    <row r="70" ht="14.25" spans="1:5">
-      <c r="A70" s="22" t="s">
+      <c r="B71" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="23" t="s">
+      <c r="C71" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D71" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C70" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D70" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E70" s="21"/>
-    </row>
-    <row r="71" ht="14.25" spans="1:5">
-      <c r="A71" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B71" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E71" s="18"/>
+      <c r="E71" s="21"/>
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="B72" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E72" s="18"/>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="11" t="s">
+      <c r="E72" s="21"/>
+    </row>
+    <row r="73" ht="14.25" spans="1:5">
+      <c r="A73" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B73" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="12" t="s">
+      <c r="B73" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E73" s="18"/>
+    </row>
+    <row r="74" ht="14.25" spans="1:5">
+      <c r="A74" s="22" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>98</v>
-      </c>
+      <c r="B74" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E74" s="18"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>5</v>
@@ -2562,7 +2568,7 @@
         <v>5</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2576,7 +2582,7 @@
         <v>5</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2590,7 +2596,7 @@
         <v>5</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2604,7 +2610,7 @@
         <v>5</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2618,7 +2624,7 @@
         <v>5</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2626,13 +2632,13 @@
         <v>105</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2640,17 +2646,17 @@
         <v>106</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="11" t="s">
         <v>107</v>
       </c>
       <c r="B82" s="12" t="s">
@@ -2660,11 +2666,11 @@
         <v>9</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="11" t="s">
         <v>108</v>
       </c>
       <c r="B83" s="12" t="s">
@@ -2674,49 +2680,49 @@
         <v>9</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>111</v>
+      <c r="B85" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2724,13 +2730,13 @@
         <v>114</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2738,13 +2744,13 @@
         <v>115</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2752,13 +2758,13 @@
         <v>116</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2766,13 +2772,13 @@
         <v>117</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2786,7 +2792,7 @@
         <v>9</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2800,11 +2806,11 @@
         <v>9</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="25" t="s">
+      <c r="A93" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B93" s="6" t="s">
@@ -2814,11 +2820,11 @@
         <v>9</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="25" t="s">
+      <c r="A94" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B94" s="6" t="s">
@@ -2828,7 +2834,7 @@
         <v>9</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2842,7 +2848,7 @@
         <v>9</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2856,7 +2862,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2870,7 +2876,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2884,49 +2890,49 @@
         <v>9</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C99" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D99" s="8" t="s">
+      <c r="B100" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="7" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="7" t="s">
+      <c r="B101" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B100" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="13" t="s">
+      <c r="C101" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D101" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2934,27 +2940,27 @@
         <v>131</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2962,13 +2968,13 @@
         <v>133</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2976,13 +2982,13 @@
         <v>134</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2990,13 +2996,13 @@
         <v>135</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3004,69 +3010,69 @@
         <v>136</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="13" t="s">
+      <c r="A108" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B109" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="10" t="s">
+      <c r="B109" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="13" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>139</v>
+      <c r="B110" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3080,7 +3086,7 @@
         <v>9</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3094,7 +3100,7 @@
         <v>9</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3108,7 +3114,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3122,7 +3128,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3136,7 +3142,7 @@
         <v>9</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3150,11 +3156,11 @@
         <v>9</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="26" t="s">
+      <c r="A118" s="9" t="s">
         <v>148</v>
       </c>
       <c r="B118" s="10" t="s">
@@ -3164,7 +3170,35 @@
         <v>9</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3217,75 +3251,77 @@
     <hyperlink ref="A54" r:id="rId46" display="h13757098596@163.com"/>
     <hyperlink ref="A55" r:id="rId47" display="l13757098596@163.com"/>
     <hyperlink ref="A56" r:id="rId48" display="j13757098596@163.com"/>
-    <hyperlink ref="A57" r:id="rId49" display="a15267310606@163.com" tooltip="mailto:a15267310606@163.com"/>
-    <hyperlink ref="A58" r:id="rId50" display="b15267310606@163.com" tooltip="mailto:b15267310606@163.com"/>
-    <hyperlink ref="A59" r:id="rId51" display="c15267310606@163.com" tooltip="mailto:c15267310606@163.com"/>
-    <hyperlink ref="A60" r:id="rId52" display="c15957826243@163.com" tooltip="mailto:c15957826243@163.com"/>
-    <hyperlink ref="A61" r:id="rId53" display="d15957826243@163.com" tooltip="mailto:d15957826243@163.com"/>
-    <hyperlink ref="A62" r:id="rId54" display="e15957826243@163.com" tooltip="mailto:e15957826243@163.com"/>
-    <hyperlink ref="A63" r:id="rId55" display="f15957826243@163.com" tooltip="mailto:f15957826243@163.com"/>
-    <hyperlink ref="A65" r:id="rId56" display="a13567614850@163.com" tooltip="mailto:a13567614850@163.com"/>
-    <hyperlink ref="A66" r:id="rId57" display="a13291866525@163.com" tooltip="mailto:a13291866525@163.com"/>
-    <hyperlink ref="A67" r:id="rId58" display="a15305783466@163.com" tooltip="mailto:a15305783466@163.com"/>
-    <hyperlink ref="A68" r:id="rId59" display="a13868069569@163.com"/>
-    <hyperlink ref="A69" r:id="rId60" display="a15857806565@163.com" tooltip="mailto:a15857806565@163.com"/>
-    <hyperlink ref="A70" r:id="rId61" display="a15058687363@163.com" tooltip="mailto:a15058687363@163.com"/>
-    <hyperlink ref="A71" r:id="rId62" display="b15058687363@163.com" tooltip="mailto:b15058687363@163.com"/>
-    <hyperlink ref="A72" r:id="rId63" display="c15058687363@163.com" tooltip="mailto:c15058687363@163.com"/>
+    <hyperlink ref="A59" r:id="rId49" display="a15267310606@163.com" tooltip="mailto:a15267310606@163.com"/>
+    <hyperlink ref="A60" r:id="rId50" display="b15267310606@163.com" tooltip="mailto:b15267310606@163.com"/>
+    <hyperlink ref="A61" r:id="rId51" display="c15267310606@163.com" tooltip="mailto:c15267310606@163.com"/>
+    <hyperlink ref="A62" r:id="rId52" display="c15957826243@163.com" tooltip="mailto:c15957826243@163.com"/>
+    <hyperlink ref="A63" r:id="rId53" display="d15957826243@163.com" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A64" r:id="rId54" display="e15957826243@163.com" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A65" r:id="rId55" display="f15957826243@163.com" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A67" r:id="rId56" display="a13567614850@163.com" tooltip="mailto:a13567614850@163.com"/>
+    <hyperlink ref="A68" r:id="rId57" display="a13291866525@163.com" tooltip="mailto:a13291866525@163.com"/>
+    <hyperlink ref="A69" r:id="rId58" display="a15305783466@163.com" tooltip="mailto:a15305783466@163.com"/>
+    <hyperlink ref="A70" r:id="rId59" display="a13868069569@163.com"/>
+    <hyperlink ref="A71" r:id="rId60" display="a15857806565@163.com" tooltip="mailto:a15857806565@163.com"/>
+    <hyperlink ref="A72" r:id="rId61" display="a15058687363@163.com" tooltip="mailto:a15058687363@163.com"/>
+    <hyperlink ref="A73" r:id="rId62" display="b15058687363@163.com" tooltip="mailto:b15058687363@163.com"/>
+    <hyperlink ref="A74" r:id="rId63" display="c15058687363@163.com" tooltip="mailto:c15058687363@163.com"/>
     <hyperlink ref="A4" r:id="rId64" display="d15158015845@163.com" tooltip="mailto:d15158015845@163.com"/>
     <hyperlink ref="A45" r:id="rId65" display="ggg13587172463@163.com" tooltip="mailto:ggg13587172463@163.com"/>
-    <hyperlink ref="A73" r:id="rId5" display="a15157887349@163.com" tooltip="mailto:a15157887349@163.com"/>
-    <hyperlink ref="A74" r:id="rId44" display="b15157887349@163.com" tooltip="mailto:b13757098596@163.com"/>
-    <hyperlink ref="A79" r:id="rId45" display="g15157887349@163.com"/>
-    <hyperlink ref="A80" r:id="rId46" display="h15157887349@163.com"/>
-    <hyperlink ref="A81" r:id="rId47" display="l15157887349@163.com"/>
-    <hyperlink ref="A82" r:id="rId48" display="j15157887349@163.com"/>
-    <hyperlink ref="A75" r:id="rId52" display="c15157887349@163.com" tooltip="mailto:c15957826243@163.com"/>
-    <hyperlink ref="A76" r:id="rId53" display="d15157887349@163.com" tooltip="mailto:d15957826243@163.com"/>
-    <hyperlink ref="A77" r:id="rId54" display="e15157887349@163.com" tooltip="mailto:e15957826243@163.com"/>
-    <hyperlink ref="A78" r:id="rId55" display="f15157887349@163.com" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A75" r:id="rId5" display="a15157887349@163.com" tooltip="mailto:a15157887349@163.com"/>
+    <hyperlink ref="A76" r:id="rId44" display="b15157887349@163.com" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A81" r:id="rId45" display="g15157887349@163.com"/>
+    <hyperlink ref="A82" r:id="rId46" display="h15157887349@163.com"/>
+    <hyperlink ref="A83" r:id="rId47" display="l15157887349@163.com"/>
+    <hyperlink ref="A84" r:id="rId48" display="j15157887349@163.com"/>
+    <hyperlink ref="A77" r:id="rId52" display="c15157887349@163.com" tooltip="mailto:c15957826243@163.com"/>
+    <hyperlink ref="A78" r:id="rId53" display="d15157887349@163.com" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A79" r:id="rId54" display="e15157887349@163.com" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A80" r:id="rId55" display="f15157887349@163.com" tooltip="mailto:f15957826243@163.com"/>
     <hyperlink ref="A46" r:id="rId66" display="ah13587172463@163.com" tooltip="mailto:ah13587172463@163.com"/>
     <hyperlink ref="A47" r:id="rId67" display="am13587172463@163.com" tooltip="mailto:am13587172463@163.com"/>
-    <hyperlink ref="A83" r:id="rId68" display="k15157887349@163.com" tooltip="mailto:k15157887349@163.com"/>
-    <hyperlink ref="A84" r:id="rId5" display="a13626784727@163.com" tooltip="mailto:a15157887349@163.com"/>
-    <hyperlink ref="A85" r:id="rId44" display="b13626784727@163.com" tooltip="mailto:b13757098596@163.com"/>
-    <hyperlink ref="A90" r:id="rId45" display="g13626784727@163.com"/>
-    <hyperlink ref="A91" r:id="rId46" display="h13626784727@163.com"/>
-    <hyperlink ref="A92" r:id="rId47" display="l13626784727@163.com"/>
-    <hyperlink ref="A93" r:id="rId48" display="j13626784727@163.com"/>
-    <hyperlink ref="A86" r:id="rId52" display="c13626784727@163.com" tooltip="mailto:c15957826243@163.com"/>
-    <hyperlink ref="A87" r:id="rId53" display="d13626784727@163.com" tooltip="mailto:d15957826243@163.com"/>
-    <hyperlink ref="A88" r:id="rId54" display="e13626784727@163.com" tooltip="mailto:e15957826243@163.com"/>
-    <hyperlink ref="A89" r:id="rId55" display="f13626784727@163.com" tooltip="mailto:f15957826243@163.com"/>
-    <hyperlink ref="A94" r:id="rId69" display="k13626784727@163.com" tooltip="mailto:k13626784727@163.com"/>
-    <hyperlink ref="A95" r:id="rId70" display="m13626784727@163.com" tooltip="mailto:m13626784727@163.com"/>
-    <hyperlink ref="A96" r:id="rId71" display="n13626784727@163.com" tooltip="mailto:n13626784727@163.com"/>
-    <hyperlink ref="A97" r:id="rId72" display="o13626784727@163.com" tooltip="mailto:o13626784727@163.com"/>
-    <hyperlink ref="A98" r:id="rId73" display="p13626784727@163.com" tooltip="mailto:p13626784727@163.com"/>
-    <hyperlink ref="A99" r:id="rId74" display="c15355785681@163.com" tooltip="mailto:c15355785681@163.com"/>
-    <hyperlink ref="A100" r:id="rId44" display="b15355785681@163.com" tooltip="mailto:b13757098596@163.com"/>
-    <hyperlink ref="A105" r:id="rId45" display="g15355785681@163.com"/>
-    <hyperlink ref="A106" r:id="rId46" display="h15355785681@163.com"/>
-    <hyperlink ref="A107" r:id="rId47" display="l15355785681@163.com"/>
-    <hyperlink ref="A108" r:id="rId48" display="j15355785681@163.com"/>
-    <hyperlink ref="A101" r:id="rId75" display="a15355785681@163.com" tooltip="mailto:a15355785681@163.com"/>
-    <hyperlink ref="A102" r:id="rId53" display="d15355785681@163.com" tooltip="mailto:d15957826243@163.com"/>
-    <hyperlink ref="A103" r:id="rId54" display="e15355785681@163.com" tooltip="mailto:e15957826243@163.com"/>
-    <hyperlink ref="A104" r:id="rId55" display="f15355785681@163.com" tooltip="mailto:f15957826243@163.com"/>
-    <hyperlink ref="A109" r:id="rId75" display="a15167186038@163.com" tooltip="mailto:a15355785681@163.com"/>
-    <hyperlink ref="A110" r:id="rId44" display="b15167186038@163.com" tooltip="mailto:b13757098596@163.com"/>
-    <hyperlink ref="A115" r:id="rId45" display="g15167186038@163.com"/>
-    <hyperlink ref="A116" r:id="rId46" display="h15167186038@163.com"/>
-    <hyperlink ref="A117" r:id="rId47" display="l15167186038@163.com"/>
-    <hyperlink ref="A118" r:id="rId48" display="j15167186038@163.com"/>
-    <hyperlink ref="A111" r:id="rId52" display="c15167186038@163.com" tooltip="mailto:c15957826243@163.com"/>
-    <hyperlink ref="A112" r:id="rId53" display="d15167186038@163.com" tooltip="mailto:d15957826243@163.com"/>
-    <hyperlink ref="A113" r:id="rId54" display="e15167186038@163.com" tooltip="mailto:e15957826243@163.com"/>
-    <hyperlink ref="A114" r:id="rId55" display="f15167186038@163.com" tooltip="mailto:f15957826243@163.com"/>
-    <hyperlink ref="A64" r:id="rId76" display="ag15957826243@163.com"/>
+    <hyperlink ref="A85" r:id="rId68" display="k15157887349@163.com" tooltip="mailto:k15157887349@163.com"/>
+    <hyperlink ref="A86" r:id="rId5" display="a13626784727@163.com" tooltip="mailto:a15157887349@163.com"/>
+    <hyperlink ref="A87" r:id="rId44" display="b13626784727@163.com" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A92" r:id="rId45" display="g13626784727@163.com"/>
+    <hyperlink ref="A93" r:id="rId46" display="h13626784727@163.com"/>
+    <hyperlink ref="A94" r:id="rId47" display="l13626784727@163.com"/>
+    <hyperlink ref="A95" r:id="rId48" display="j13626784727@163.com"/>
+    <hyperlink ref="A88" r:id="rId52" display="c13626784727@163.com" tooltip="mailto:c15957826243@163.com"/>
+    <hyperlink ref="A89" r:id="rId53" display="d13626784727@163.com" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A90" r:id="rId54" display="e13626784727@163.com" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A91" r:id="rId55" display="f13626784727@163.com" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A96" r:id="rId69" display="k13626784727@163.com" tooltip="mailto:k13626784727@163.com"/>
+    <hyperlink ref="A97" r:id="rId70" display="m13626784727@163.com" tooltip="mailto:m13626784727@163.com"/>
+    <hyperlink ref="A98" r:id="rId71" display="n13626784727@163.com" tooltip="mailto:n13626784727@163.com"/>
+    <hyperlink ref="A99" r:id="rId72" display="o13626784727@163.com" tooltip="mailto:o13626784727@163.com"/>
+    <hyperlink ref="A100" r:id="rId73" display="p13626784727@163.com" tooltip="mailto:p13626784727@163.com"/>
+    <hyperlink ref="A101" r:id="rId74" display="c15355785681@163.com" tooltip="mailto:c15355785681@163.com"/>
+    <hyperlink ref="A102" r:id="rId44" display="b15355785681@163.com" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A107" r:id="rId45" display="g15355785681@163.com"/>
+    <hyperlink ref="A108" r:id="rId46" display="h15355785681@163.com"/>
+    <hyperlink ref="A109" r:id="rId47" display="l15355785681@163.com"/>
+    <hyperlink ref="A110" r:id="rId48" display="j15355785681@163.com"/>
+    <hyperlink ref="A103" r:id="rId75" display="a15355785681@163.com" tooltip="mailto:a15355785681@163.com"/>
+    <hyperlink ref="A104" r:id="rId53" display="d15355785681@163.com" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A105" r:id="rId54" display="e15355785681@163.com" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A106" r:id="rId55" display="f15355785681@163.com" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A111" r:id="rId75" display="a15167186038@163.com" tooltip="mailto:a15355785681@163.com"/>
+    <hyperlink ref="A112" r:id="rId44" display="b15167186038@163.com" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A117" r:id="rId45" display="g15167186038@163.com"/>
+    <hyperlink ref="A118" r:id="rId46" display="h15167186038@163.com"/>
+    <hyperlink ref="A119" r:id="rId47" display="l15167186038@163.com"/>
+    <hyperlink ref="A120" r:id="rId48" display="j15167186038@163.com"/>
+    <hyperlink ref="A113" r:id="rId52" display="c15167186038@163.com" tooltip="mailto:c15957826243@163.com"/>
+    <hyperlink ref="A114" r:id="rId53" display="d15167186038@163.com" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A115" r:id="rId54" display="e15167186038@163.com" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A116" r:id="rId55" display="f15167186038@163.com" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A66" r:id="rId76" display="ag15957826243@163.com"/>
     <hyperlink ref="A48" r:id="rId77" display="af13587172463@163.com"/>
     <hyperlink ref="A49" r:id="rId78" display="an13587172463@163.com" tooltip="mailto:an13587172463@163.com"/>
     <hyperlink ref="A50" r:id="rId79" display="ao13587172463@163.com" tooltip="mailto:ao13587172463@163.com"/>
+    <hyperlink ref="A57" r:id="rId80" display="k13757098596@163.com"/>
+    <hyperlink ref="A58" r:id="rId81" display="m13757098596@163.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3366,7 +3402,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>9</v>
@@ -3375,49 +3411,49 @@
         <v>9</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>127</v>
-      </c>
       <c r="C7" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3440,7 +3476,7 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -3523,77 +3559,77 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:5">
       <c r="A11" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>9</v>
@@ -3602,43 +3638,43 @@
         <v>9</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E11" s="18"/>
     </row>
     <row r="12" ht="14.25" spans="1:5">
       <c r="A12" s="19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E12" s="21"/>
     </row>
     <row r="13" ht="14.25" spans="1:5">
       <c r="A13" s="22" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E13" s="21"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>5</v>
@@ -3647,40 +3683,40 @@
         <v>5</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>9</v>
@@ -3689,7 +3725,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/login.xlsx
+++ b/src/main/resources/login.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="151">
   <si>
     <t>Account</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -520,6 +520,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -536,6 +559,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -547,6 +578,38 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -571,73 +634,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -700,13 +700,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,48 +820,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -867,6 +867,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -878,6 +917,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -905,65 +964,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -972,10 +972,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -987,13 +987,13 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1002,73 +1002,73 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1083,10 +1083,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1095,22 +1095,22 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1505,8 +1505,8 @@
   <sheetPr/>
   <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3331,13 +3331,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="26.375" customWidth="1"/>
     <col min="2" max="3" width="20.75" customWidth="1"/>
@@ -3360,13 +3360,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>15</v>
@@ -3401,70 +3401,40 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>75</v>
+      <c r="A5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>130</v>
+      <c r="A6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="af13587172463@163.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="an13587172463@163.com" tooltip="mailto:an13587172463@163.com"/>
-    <hyperlink ref="A4" r:id="rId3" display="ao13587172463@163.com" tooltip="mailto:ao13587172463@163.com"/>
-    <hyperlink ref="A5" r:id="rId4" display="ag15957826243@163.com"/>
-    <hyperlink ref="A6" r:id="rId5" display="c15355785681@163.com" tooltip="mailto:c15355785681@163.com"/>
-    <hyperlink ref="A7" r:id="rId6" display="b15355785681@163.com" tooltip="mailto:b13757098596@163.com"/>
-    <hyperlink ref="A8" r:id="rId7" display="a15355785681@163.com" tooltip="mailto:a15355785681@163.com"/>
+    <hyperlink ref="A3" r:id="rId1" display="an13587172463@163.com" tooltip="mailto:an13587172463@163.com"/>
+    <hyperlink ref="A4" r:id="rId2" display="ao13587172463@163.com" tooltip="mailto:ao13587172463@163.com"/>
+    <hyperlink ref="A2" r:id="rId3" display="a13587172463@163.com" tooltip="mailto:a15157887349@163.com"/>
+    <hyperlink ref="A5" r:id="rId4" display="a13757098596@163.com" tooltip="mailto:a13757098596@163.com"/>
+    <hyperlink ref="A6" r:id="rId5" display="b13757098596@163.com" tooltip="mailto:b13757098596@163.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/login.xlsx
+++ b/src/main/resources/login.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="152">
   <si>
     <t>Account</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>c15267310606@163.com</t>
+  </si>
+  <si>
+    <t>杨兰香2</t>
   </si>
   <si>
     <t>c15957826243@163.com</t>
@@ -510,6 +513,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -574,13 +584,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -627,6 +630,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -634,14 +645,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -700,18 +703,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -724,13 +715,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,7 +757,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,7 +787,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,31 +811,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,12 +836,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,145 +975,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1505,8 +1508,8 @@
   <sheetPr/>
   <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2367,54 +2370,54 @@
         <v>9</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>9</v>
@@ -2423,12 +2426,12 @@
         <v>9</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B66" s="12" t="s">
         <v>9</v>
@@ -2437,54 +2440,54 @@
         <v>9</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B70" s="16" t="s">
         <v>9</v>
@@ -2493,58 +2496,58 @@
         <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E70" s="18"/>
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E71" s="21"/>
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E72" s="21"/>
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="24" t="s">
         <v>97</v>
-      </c>
-      <c r="B73" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="24" t="s">
-        <v>96</v>
       </c>
       <c r="E73" s="18"/>
     </row>
     <row r="74" ht="14.25" spans="1:5">
       <c r="A74" s="22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B74" s="23" t="s">
         <v>9</v>
@@ -2553,13 +2556,13 @@
         <v>9</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E74" s="18"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>5</v>
@@ -2568,12 +2571,12 @@
         <v>5</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B76" s="12" t="s">
         <v>5</v>
@@ -2582,12 +2585,12 @@
         <v>5</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B77" s="12" t="s">
         <v>5</v>
@@ -2596,12 +2599,12 @@
         <v>5</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B78" s="12" t="s">
         <v>5</v>
@@ -2610,12 +2613,12 @@
         <v>5</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>5</v>
@@ -2624,12 +2627,12 @@
         <v>5</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B80" s="12" t="s">
         <v>5</v>
@@ -2638,12 +2641,12 @@
         <v>5</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B81" s="12" t="s">
         <v>5</v>
@@ -2652,12 +2655,12 @@
         <v>5</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>9</v>
@@ -2666,12 +2669,12 @@
         <v>9</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B83" s="12" t="s">
         <v>9</v>
@@ -2680,12 +2683,12 @@
         <v>9</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B84" s="12" t="s">
         <v>9</v>
@@ -2694,12 +2697,12 @@
         <v>9</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B85" s="12" t="s">
         <v>9</v>
@@ -2708,82 +2711,82 @@
         <v>9</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D87" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>9</v>
@@ -2792,12 +2795,12 @@
         <v>9</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>9</v>
@@ -2806,12 +2809,12 @@
         <v>9</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>9</v>
@@ -2820,12 +2823,12 @@
         <v>9</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>9</v>
@@ -2834,12 +2837,12 @@
         <v>9</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>9</v>
@@ -2848,12 +2851,12 @@
         <v>9</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>9</v>
@@ -2862,12 +2865,12 @@
         <v>9</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>9</v>
@@ -2876,12 +2879,12 @@
         <v>9</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>9</v>
@@ -2890,12 +2893,12 @@
         <v>9</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>9</v>
@@ -2904,12 +2907,12 @@
         <v>9</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>9</v>
@@ -2918,124 +2921,124 @@
         <v>9</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D102" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>9</v>
@@ -3044,12 +3047,12 @@
         <v>9</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>9</v>
@@ -3058,12 +3061,12 @@
         <v>9</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B111" s="10" t="s">
         <v>9</v>
@@ -3072,26 +3075,26 @@
         <v>9</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B113" s="10" t="s">
         <v>9</v>
@@ -3100,12 +3103,12 @@
         <v>9</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B114" s="10" t="s">
         <v>9</v>
@@ -3114,12 +3117,12 @@
         <v>9</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B115" s="10" t="s">
         <v>9</v>
@@ -3128,12 +3131,12 @@
         <v>9</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B116" s="10" t="s">
         <v>9</v>
@@ -3142,12 +3145,12 @@
         <v>9</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B117" s="10" t="s">
         <v>9</v>
@@ -3156,12 +3159,12 @@
         <v>9</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B118" s="10" t="s">
         <v>9</v>
@@ -3170,12 +3173,12 @@
         <v>9</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B119" s="10" t="s">
         <v>9</v>
@@ -3184,12 +3187,12 @@
         <v>9</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B120" s="10" t="s">
         <v>9</v>
@@ -3198,7 +3201,7 @@
         <v>9</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3543,63 +3546,63 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:5">
       <c r="A11" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>9</v>
@@ -3608,43 +3611,43 @@
         <v>9</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E11" s="18"/>
     </row>
     <row r="12" ht="14.25" spans="1:5">
       <c r="A12" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E12" s="21"/>
     </row>
     <row r="13" ht="14.25" spans="1:5">
       <c r="A13" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E13" s="21"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>5</v>
@@ -3653,40 +3656,40 @@
         <v>5</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>9</v>
@@ -3695,7 +3698,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/login.xlsx
+++ b/src/main/resources/login.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="151">
   <si>
     <t>Account</t>
   </si>
@@ -48,430 +48,427 @@
     <t>zxb123</t>
   </si>
   <si>
+    <t>a13587172463@163.com</t>
+  </si>
+  <si>
+    <t>wxl123</t>
+  </si>
+  <si>
+    <t>王新兰</t>
+  </si>
+  <si>
+    <t>b13587172463@163.com</t>
+  </si>
+  <si>
+    <t>n13587172463@163.com</t>
+  </si>
+  <si>
+    <t>o13587172463@163.com</t>
+  </si>
+  <si>
+    <t>p13587172463@163.com</t>
+  </si>
+  <si>
+    <t>qq13587172463@163.com</t>
+  </si>
+  <si>
+    <t>r13587172463@163.com</t>
+  </si>
+  <si>
+    <t>s13587172463@163.com</t>
+  </si>
+  <si>
+    <t>t13587172463@163.com</t>
+  </si>
+  <si>
+    <t>u13587172463@163.com</t>
+  </si>
+  <si>
+    <t>v13587172463@163.com</t>
+  </si>
+  <si>
+    <t>w13587172463@163.com</t>
+  </si>
+  <si>
+    <t>x13587172463@163.com</t>
+  </si>
+  <si>
+    <t>y13587172463@163.com</t>
+  </si>
+  <si>
+    <t>aa13587172463@163.com</t>
+  </si>
+  <si>
+    <t>bb13587172463@163.com</t>
+  </si>
+  <si>
+    <t>cc13587172463@163.com</t>
+  </si>
+  <si>
+    <t>dd13587172463@163.com</t>
+  </si>
+  <si>
+    <t>ee13587172463@163.com</t>
+  </si>
+  <si>
+    <t>ff13587172463@163.com</t>
+  </si>
+  <si>
+    <t>gg13587172463@163.com</t>
+  </si>
+  <si>
+    <t>hh13587172463@163.com</t>
+  </si>
+  <si>
+    <t>ll13587172463@163.com</t>
+  </si>
+  <si>
+    <t>jj13587172463@163.com</t>
+  </si>
+  <si>
+    <t>kk13587172463@163.com</t>
+  </si>
+  <si>
+    <t>mm13587172463@163.com</t>
+  </si>
+  <si>
+    <t>nn13587172463@163.com</t>
+  </si>
+  <si>
+    <t>oo13587172463@163.com</t>
+  </si>
+  <si>
+    <t>pp13587172463@163.com</t>
+  </si>
+  <si>
+    <t>rr13587172463@163.com</t>
+  </si>
+  <si>
+    <t>ss13587172463@163.com</t>
+  </si>
+  <si>
+    <t>tt13587172463@163.com</t>
+  </si>
+  <si>
+    <t>uu13587172463@163.com</t>
+  </si>
+  <si>
+    <t>vv13587172463@163.com</t>
+  </si>
+  <si>
+    <t>ww13587172463@163.com</t>
+  </si>
+  <si>
+    <t>xx13587172463@163.com</t>
+  </si>
+  <si>
+    <t>yy13587172463@163.com</t>
+  </si>
+  <si>
+    <t>zz13587172463@163.com</t>
+  </si>
+  <si>
+    <t>ggg13587172463@163.com</t>
+  </si>
+  <si>
+    <t>ah13587172463@163.com</t>
+  </si>
+  <si>
+    <t>am13587172463@163.com</t>
+  </si>
+  <si>
+    <t>af13587172463@163.com</t>
+  </si>
+  <si>
+    <t>an13587172463@163.com</t>
+  </si>
+  <si>
+    <t>ao13587172463@163.com</t>
+  </si>
+  <si>
+    <t>a13757098596@163.com</t>
+  </si>
+  <si>
+    <t>毛小美</t>
+  </si>
+  <si>
+    <t>b13757098596@163.com</t>
+  </si>
+  <si>
+    <t>g13757098596@163.com</t>
+  </si>
+  <si>
+    <t>h13757098596@163.com</t>
+  </si>
+  <si>
+    <t>l13757098596@163.com</t>
+  </si>
+  <si>
+    <t>j13757098596@163.com</t>
+  </si>
+  <si>
+    <t>k13757098596@163.com</t>
+  </si>
+  <si>
+    <t>m13757098596@163.com</t>
+  </si>
+  <si>
+    <t>a15267310606@163.com</t>
+  </si>
+  <si>
+    <t>ylx123</t>
+  </si>
+  <si>
+    <t>杨兰香</t>
+  </si>
+  <si>
+    <t>b15267310606@163.com</t>
+  </si>
+  <si>
+    <t>c15267310606@163.com</t>
+  </si>
+  <si>
+    <t>杨兰香2</t>
+  </si>
+  <si>
+    <t>c15957826243@163.com</t>
+  </si>
+  <si>
+    <t>wjl123</t>
+  </si>
+  <si>
+    <t>王金兰</t>
+  </si>
+  <si>
+    <t>d15957826243@163.com</t>
+  </si>
+  <si>
+    <t>e15957826243@163.com</t>
+  </si>
+  <si>
+    <t>f15957826243@163.com</t>
+  </si>
+  <si>
+    <t>ag15957826243@163.com</t>
+  </si>
+  <si>
+    <t>a13567614850@163.com</t>
+  </si>
+  <si>
+    <t>wcl123</t>
+  </si>
+  <si>
+    <t>王春兰</t>
+  </si>
+  <si>
+    <t>a13291866525@163.com</t>
+  </si>
+  <si>
+    <t>lbx123</t>
+  </si>
+  <si>
+    <t>刘碧霞</t>
+  </si>
+  <si>
+    <t>a15305783466@163.com</t>
+  </si>
+  <si>
+    <t>jax123</t>
+  </si>
+  <si>
+    <t>金爱香</t>
+  </si>
+  <si>
+    <t>a13868069569@163.com</t>
+  </si>
+  <si>
+    <t>叶伟红</t>
+  </si>
+  <si>
+    <t>a15857806565@163.com</t>
+  </si>
+  <si>
+    <t>cye123</t>
+  </si>
+  <si>
+    <t>程永娥</t>
+  </si>
+  <si>
+    <t>a15058687363@163.com</t>
+  </si>
+  <si>
+    <t>lxh123</t>
+  </si>
+  <si>
+    <t>李秀华</t>
+  </si>
+  <si>
+    <t>b15058687363@163.com</t>
+  </si>
+  <si>
+    <t>c15058687363@163.com</t>
+  </si>
+  <si>
+    <t>a15157887349@163.com</t>
+  </si>
+  <si>
+    <t>叶林建</t>
+  </si>
+  <si>
+    <t>b15157887349@163.com</t>
+  </si>
+  <si>
+    <t>c15157887349@163.com</t>
+  </si>
+  <si>
+    <t>d15157887349@163.com</t>
+  </si>
+  <si>
+    <t>e15157887349@163.com</t>
+  </si>
+  <si>
+    <t>f15157887349@163.com</t>
+  </si>
+  <si>
+    <t>g15157887349@163.com</t>
+  </si>
+  <si>
+    <t>h15157887349@163.com</t>
+  </si>
+  <si>
+    <t>l15157887349@163.com</t>
+  </si>
+  <si>
+    <t>j15157887349@163.com</t>
+  </si>
+  <si>
+    <t>k15157887349@163.com</t>
+  </si>
+  <si>
+    <t>a13626784727@163.com</t>
+  </si>
+  <si>
+    <t>xfy123</t>
+  </si>
+  <si>
+    <t>夏发英</t>
+  </si>
+  <si>
+    <t>b13626784727@163.com</t>
+  </si>
+  <si>
+    <t>c13626784727@163.com</t>
+  </si>
+  <si>
+    <t>d13626784727@163.com</t>
+  </si>
+  <si>
+    <t>e13626784727@163.com</t>
+  </si>
+  <si>
+    <t>f13626784727@163.com</t>
+  </si>
+  <si>
+    <t>g13626784727@163.com</t>
+  </si>
+  <si>
+    <t>h13626784727@163.com</t>
+  </si>
+  <si>
+    <t>l13626784727@163.com</t>
+  </si>
+  <si>
+    <t>j13626784727@163.com</t>
+  </si>
+  <si>
+    <t>k13626784727@163.com</t>
+  </si>
+  <si>
+    <t>m13626784727@163.com</t>
+  </si>
+  <si>
+    <t>n13626784727@163.com</t>
+  </si>
+  <si>
+    <t>o13626784727@163.com</t>
+  </si>
+  <si>
+    <t>p13626784727@163.com</t>
+  </si>
+  <si>
+    <t>c15355785681@163.com</t>
+  </si>
+  <si>
+    <t>srw123</t>
+  </si>
+  <si>
+    <t>宋荣伟</t>
+  </si>
+  <si>
+    <t>b15355785681@163.com</t>
+  </si>
+  <si>
+    <t>a15355785681@163.com</t>
+  </si>
+  <si>
+    <t>d15355785681@163.com</t>
+  </si>
+  <si>
+    <t>e15355785681@163.com</t>
+  </si>
+  <si>
+    <t>f15355785681@163.com</t>
+  </si>
+  <si>
+    <t>g15355785681@163.com</t>
+  </si>
+  <si>
+    <t>h15355785681@163.com</t>
+  </si>
+  <si>
+    <t>l15355785681@163.com</t>
+  </si>
+  <si>
+    <t>j15355785681@163.com</t>
+  </si>
+  <si>
+    <t>a15167186038@163.com</t>
+  </si>
+  <si>
+    <t>蔡云飞</t>
+  </si>
+  <si>
+    <t>b15167186038@163.com</t>
+  </si>
+  <si>
+    <t>c15167186038@163.com</t>
+  </si>
+  <si>
+    <t>d15167186038@163.com</t>
+  </si>
+  <si>
+    <t>e15167186038@163.com</t>
+  </si>
+  <si>
+    <t>f15167186038@163.com</t>
+  </si>
+  <si>
+    <t>g15167186038@163.com</t>
+  </si>
+  <si>
+    <t>h15167186038@163.com</t>
+  </si>
+  <si>
+    <t>l15167186038@163.com</t>
+  </si>
+  <si>
+    <t>j15167186038@163.com</t>
+  </si>
+  <si>
     <t>a17706132072@163.com</t>
   </si>
   <si>
-    <t>wxl123</t>
-  </si>
-  <si>
     <t>叶晖</t>
-  </si>
-  <si>
-    <t>b17706132072@163.com</t>
-  </si>
-  <si>
-    <t>a13587172463@163.com</t>
-  </si>
-  <si>
-    <t>王新兰</t>
-  </si>
-  <si>
-    <t>b13587172463@163.com</t>
-  </si>
-  <si>
-    <t>n13587172463@163.com</t>
-  </si>
-  <si>
-    <t>o13587172463@163.com</t>
-  </si>
-  <si>
-    <t>p13587172463@163.com</t>
-  </si>
-  <si>
-    <t>qq13587172463@163.com</t>
-  </si>
-  <si>
-    <t>r13587172463@163.com</t>
-  </si>
-  <si>
-    <t>s13587172463@163.com</t>
-  </si>
-  <si>
-    <t>t13587172463@163.com</t>
-  </si>
-  <si>
-    <t>u13587172463@163.com</t>
-  </si>
-  <si>
-    <t>v13587172463@163.com</t>
-  </si>
-  <si>
-    <t>w13587172463@163.com</t>
-  </si>
-  <si>
-    <t>x13587172463@163.com</t>
-  </si>
-  <si>
-    <t>y13587172463@163.com</t>
-  </si>
-  <si>
-    <t>aa13587172463@163.com</t>
-  </si>
-  <si>
-    <t>bb13587172463@163.com</t>
-  </si>
-  <si>
-    <t>cc13587172463@163.com</t>
-  </si>
-  <si>
-    <t>dd13587172463@163.com</t>
-  </si>
-  <si>
-    <t>ee13587172463@163.com</t>
-  </si>
-  <si>
-    <t>ff13587172463@163.com</t>
-  </si>
-  <si>
-    <t>gg13587172463@163.com</t>
-  </si>
-  <si>
-    <t>hh13587172463@163.com</t>
-  </si>
-  <si>
-    <t>ll13587172463@163.com</t>
-  </si>
-  <si>
-    <t>jj13587172463@163.com</t>
-  </si>
-  <si>
-    <t>kk13587172463@163.com</t>
-  </si>
-  <si>
-    <t>mm13587172463@163.com</t>
-  </si>
-  <si>
-    <t>nn13587172463@163.com</t>
-  </si>
-  <si>
-    <t>oo13587172463@163.com</t>
-  </si>
-  <si>
-    <t>pp13587172463@163.com</t>
-  </si>
-  <si>
-    <t>rr13587172463@163.com</t>
-  </si>
-  <si>
-    <t>ss13587172463@163.com</t>
-  </si>
-  <si>
-    <t>tt13587172463@163.com</t>
-  </si>
-  <si>
-    <t>uu13587172463@163.com</t>
-  </si>
-  <si>
-    <t>vv13587172463@163.com</t>
-  </si>
-  <si>
-    <t>ww13587172463@163.com</t>
-  </si>
-  <si>
-    <t>xx13587172463@163.com</t>
-  </si>
-  <si>
-    <t>yy13587172463@163.com</t>
-  </si>
-  <si>
-    <t>zz13587172463@163.com</t>
-  </si>
-  <si>
-    <t>ggg13587172463@163.com</t>
-  </si>
-  <si>
-    <t>ah13587172463@163.com</t>
-  </si>
-  <si>
-    <t>am13587172463@163.com</t>
-  </si>
-  <si>
-    <t>af13587172463@163.com</t>
-  </si>
-  <si>
-    <t>an13587172463@163.com</t>
-  </si>
-  <si>
-    <t>ao13587172463@163.com</t>
-  </si>
-  <si>
-    <t>a13757098596@163.com</t>
-  </si>
-  <si>
-    <t>毛小美</t>
-  </si>
-  <si>
-    <t>b13757098596@163.com</t>
-  </si>
-  <si>
-    <t>g13757098596@163.com</t>
-  </si>
-  <si>
-    <t>h13757098596@163.com</t>
-  </si>
-  <si>
-    <t>l13757098596@163.com</t>
-  </si>
-  <si>
-    <t>j13757098596@163.com</t>
-  </si>
-  <si>
-    <t>k13757098596@163.com</t>
-  </si>
-  <si>
-    <t>m13757098596@163.com</t>
-  </si>
-  <si>
-    <t>a15267310606@163.com</t>
-  </si>
-  <si>
-    <t>ylx123</t>
-  </si>
-  <si>
-    <t>杨兰香</t>
-  </si>
-  <si>
-    <t>b15267310606@163.com</t>
-  </si>
-  <si>
-    <t>c15267310606@163.com</t>
-  </si>
-  <si>
-    <t>杨兰香2</t>
-  </si>
-  <si>
-    <t>c15957826243@163.com</t>
-  </si>
-  <si>
-    <t>wjl123</t>
-  </si>
-  <si>
-    <t>王金兰</t>
-  </si>
-  <si>
-    <t>d15957826243@163.com</t>
-  </si>
-  <si>
-    <t>e15957826243@163.com</t>
-  </si>
-  <si>
-    <t>f15957826243@163.com</t>
-  </si>
-  <si>
-    <t>ag15957826243@163.com</t>
-  </si>
-  <si>
-    <t>a13567614850@163.com</t>
-  </si>
-  <si>
-    <t>wcl123</t>
-  </si>
-  <si>
-    <t>王春兰</t>
-  </si>
-  <si>
-    <t>a13291866525@163.com</t>
-  </si>
-  <si>
-    <t>lbx123</t>
-  </si>
-  <si>
-    <t>刘碧霞</t>
-  </si>
-  <si>
-    <t>a15305783466@163.com</t>
-  </si>
-  <si>
-    <t>jax123</t>
-  </si>
-  <si>
-    <t>金爱香</t>
-  </si>
-  <si>
-    <t>a13868069569@163.com</t>
-  </si>
-  <si>
-    <t>叶伟红</t>
-  </si>
-  <si>
-    <t>a15857806565@163.com</t>
-  </si>
-  <si>
-    <t>cye123</t>
-  </si>
-  <si>
-    <t>程永娥</t>
-  </si>
-  <si>
-    <t>a15058687363@163.com</t>
-  </si>
-  <si>
-    <t>lxh123</t>
-  </si>
-  <si>
-    <t>李秀华</t>
-  </si>
-  <si>
-    <t>b15058687363@163.com</t>
-  </si>
-  <si>
-    <t>c15058687363@163.com</t>
-  </si>
-  <si>
-    <t>a15157887349@163.com</t>
-  </si>
-  <si>
-    <t>叶林建</t>
-  </si>
-  <si>
-    <t>b15157887349@163.com</t>
-  </si>
-  <si>
-    <t>c15157887349@163.com</t>
-  </si>
-  <si>
-    <t>d15157887349@163.com</t>
-  </si>
-  <si>
-    <t>e15157887349@163.com</t>
-  </si>
-  <si>
-    <t>f15157887349@163.com</t>
-  </si>
-  <si>
-    <t>g15157887349@163.com</t>
-  </si>
-  <si>
-    <t>h15157887349@163.com</t>
-  </si>
-  <si>
-    <t>l15157887349@163.com</t>
-  </si>
-  <si>
-    <t>j15157887349@163.com</t>
-  </si>
-  <si>
-    <t>k15157887349@163.com</t>
-  </si>
-  <si>
-    <t>a13626784727@163.com</t>
-  </si>
-  <si>
-    <t>xfy123</t>
-  </si>
-  <si>
-    <t>夏发英</t>
-  </si>
-  <si>
-    <t>b13626784727@163.com</t>
-  </si>
-  <si>
-    <t>c13626784727@163.com</t>
-  </si>
-  <si>
-    <t>d13626784727@163.com</t>
-  </si>
-  <si>
-    <t>e13626784727@163.com</t>
-  </si>
-  <si>
-    <t>f13626784727@163.com</t>
-  </si>
-  <si>
-    <t>g13626784727@163.com</t>
-  </si>
-  <si>
-    <t>h13626784727@163.com</t>
-  </si>
-  <si>
-    <t>l13626784727@163.com</t>
-  </si>
-  <si>
-    <t>j13626784727@163.com</t>
-  </si>
-  <si>
-    <t>k13626784727@163.com</t>
-  </si>
-  <si>
-    <t>m13626784727@163.com</t>
-  </si>
-  <si>
-    <t>n13626784727@163.com</t>
-  </si>
-  <si>
-    <t>o13626784727@163.com</t>
-  </si>
-  <si>
-    <t>p13626784727@163.com</t>
-  </si>
-  <si>
-    <t>c15355785681@163.com</t>
-  </si>
-  <si>
-    <t>srw123</t>
-  </si>
-  <si>
-    <t>宋荣伟</t>
-  </si>
-  <si>
-    <t>b15355785681@163.com</t>
-  </si>
-  <si>
-    <t>a15355785681@163.com</t>
-  </si>
-  <si>
-    <t>d15355785681@163.com</t>
-  </si>
-  <si>
-    <t>e15355785681@163.com</t>
-  </si>
-  <si>
-    <t>f15355785681@163.com</t>
-  </si>
-  <si>
-    <t>g15355785681@163.com</t>
-  </si>
-  <si>
-    <t>h15355785681@163.com</t>
-  </si>
-  <si>
-    <t>l15355785681@163.com</t>
-  </si>
-  <si>
-    <t>j15355785681@163.com</t>
-  </si>
-  <si>
-    <t>a15167186038@163.com</t>
-  </si>
-  <si>
-    <t>蔡云飞</t>
-  </si>
-  <si>
-    <t>b15167186038@163.com</t>
-  </si>
-  <si>
-    <t>c15167186038@163.com</t>
-  </si>
-  <si>
-    <t>d15167186038@163.com</t>
-  </si>
-  <si>
-    <t>e15167186038@163.com</t>
-  </si>
-  <si>
-    <t>f15167186038@163.com</t>
-  </si>
-  <si>
-    <t>g15167186038@163.com</t>
-  </si>
-  <si>
-    <t>h15167186038@163.com</t>
-  </si>
-  <si>
-    <t>l15167186038@163.com</t>
-  </si>
-  <si>
-    <t>j15167186038@163.com</t>
   </si>
 </sst>
 </file>
@@ -513,13 +510,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -584,6 +574,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -630,7 +627,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -638,13 +641,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -703,6 +700,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -715,31 +724,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,25 +748,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,7 +760,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,13 +784,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,6 +827,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,10 +972,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -987,133 +984,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1506,10 +1503,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1576,30 +1573,30 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1614,12 +1611,12 @@
         <v>11</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>11</v>
@@ -1628,12 +1625,12 @@
         <v>11</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>11</v>
@@ -1642,12 +1639,12 @@
         <v>11</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>11</v>
@@ -1656,12 +1653,12 @@
         <v>11</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>11</v>
@@ -1670,12 +1667,12 @@
         <v>11</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>11</v>
@@ -1684,12 +1681,12 @@
         <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>11</v>
@@ -1698,12 +1695,12 @@
         <v>11</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>11</v>
@@ -1712,12 +1709,12 @@
         <v>11</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>11</v>
@@ -1726,12 +1723,12 @@
         <v>11</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>11</v>
@@ -1740,12 +1737,12 @@
         <v>11</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>11</v>
@@ -1754,12 +1751,12 @@
         <v>11</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>11</v>
@@ -1768,12 +1765,12 @@
         <v>11</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>11</v>
@@ -1782,12 +1779,12 @@
         <v>11</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>11</v>
@@ -1796,12 +1793,12 @@
         <v>11</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>11</v>
@@ -1810,12 +1807,12 @@
         <v>11</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>11</v>
@@ -1824,12 +1821,12 @@
         <v>11</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>11</v>
@@ -1838,12 +1835,12 @@
         <v>11</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>11</v>
@@ -1852,41 +1849,41 @@
         <v>11</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="7" t="s">
+      <c r="B26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="B27" s="8" t="s">
         <v>11</v>
       </c>
@@ -1894,12 +1891,12 @@
         <v>11</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>11</v>
@@ -1908,12 +1905,12 @@
         <v>11</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>11</v>
@@ -1922,12 +1919,12 @@
         <v>11</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>11</v>
@@ -1936,12 +1933,12 @@
         <v>11</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>11</v>
@@ -1950,12 +1947,12 @@
         <v>11</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>11</v>
@@ -1964,12 +1961,12 @@
         <v>11</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>11</v>
@@ -1978,12 +1975,12 @@
         <v>11</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>11</v>
@@ -1992,12 +1989,12 @@
         <v>11</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>11</v>
@@ -2006,12 +2003,12 @@
         <v>11</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>11</v>
@@ -2020,12 +2017,12 @@
         <v>11</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>11</v>
@@ -2034,40 +2031,40 @@
         <v>11</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>9</v>
@@ -2076,12 +2073,12 @@
         <v>9</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>9</v>
@@ -2090,12 +2087,12 @@
         <v>9</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>9</v>
@@ -2104,12 +2101,12 @@
         <v>9</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>9</v>
@@ -2118,12 +2115,12 @@
         <v>9</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>9</v>
@@ -2132,27 +2129,27 @@
         <v>9</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="13" t="s">
-        <v>54</v>
-      </c>
       <c r="B46" s="8" t="s">
         <v>9</v>
       </c>
@@ -2160,63 +2157,63 @@
         <v>9</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="7" t="s">
+      <c r="B48" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="13" t="s">
+      <c r="B49" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>15</v>
+      <c r="B50" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2230,12 +2227,12 @@
         <v>9</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>9</v>
@@ -2244,12 +2241,12 @@
         <v>9</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>9</v>
@@ -2258,12 +2255,12 @@
         <v>9</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>9</v>
@@ -2272,12 +2269,12 @@
         <v>9</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>9</v>
@@ -2286,279 +2283,279 @@
         <v>9</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="9" t="s">
+      <c r="B57" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>60</v>
+      <c r="C57" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>70</v>
+      <c r="B60" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="4" t="s">
+      <c r="C61" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B64" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="11" t="s">
+      <c r="B65" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B65" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>76</v>
+      <c r="C65" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>76</v>
+      <c r="A66" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="13" t="s">
+      <c r="A67" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B67" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C67" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D67" s="12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="14" t="s">
+    <row r="68" ht="14.25" spans="1:5">
+      <c r="A68" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B68" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C69" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D69" s="12" t="s">
+      <c r="E68" s="18"/>
+    </row>
+    <row r="69" ht="14.25" spans="1:5">
+      <c r="A69" s="19" t="s">
         <v>89</v>
       </c>
+      <c r="B69" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" s="21"/>
     </row>
     <row r="70" ht="14.25" spans="1:5">
-      <c r="A70" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E70" s="18"/>
+      <c r="A70" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E70" s="21"/>
     </row>
     <row r="71" ht="14.25" spans="1:5">
-      <c r="A71" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D71" s="20" t="s">
+      <c r="A71" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="E71" s="21"/>
+      <c r="E71" s="18"/>
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D72" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E72" s="18"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E72" s="21"/>
-    </row>
-    <row r="73" ht="14.25" spans="1:5">
-      <c r="A73" s="22" t="s">
+      <c r="B73" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B73" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E73" s="18"/>
-    </row>
-    <row r="74" ht="14.25" spans="1:5">
-      <c r="A74" s="22" t="s">
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B74" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E74" s="18"/>
+      <c r="B74" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="11" t="s">
@@ -2571,12 +2568,12 @@
         <v>5</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B76" s="12" t="s">
         <v>5</v>
@@ -2585,12 +2582,12 @@
         <v>5</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B77" s="12" t="s">
         <v>5</v>
@@ -2599,12 +2596,12 @@
         <v>5</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B78" s="12" t="s">
         <v>5</v>
@@ -2613,12 +2610,12 @@
         <v>5</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>5</v>
@@ -2627,166 +2624,166 @@
         <v>5</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B81" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="11" t="s">
+      <c r="B82" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B82" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="11" t="s">
+      <c r="B83" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B83" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="14" t="s">
+      <c r="B84" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B84" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>101</v>
+      <c r="C84" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D85" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="B85" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>9</v>
@@ -2795,41 +2792,41 @@
         <v>9</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B92" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="5" t="s">
+      <c r="B93" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="B93" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="B94" s="6" t="s">
         <v>9</v>
       </c>
@@ -2837,12 +2834,12 @@
         <v>9</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>9</v>
@@ -2851,12 +2848,12 @@
         <v>9</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>9</v>
@@ -2865,12 +2862,12 @@
         <v>9</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>9</v>
@@ -2879,189 +2876,189 @@
         <v>9</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B98" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="25" t="s">
+      <c r="B99" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B99" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>114</v>
+      <c r="C99" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="25" t="s">
+      <c r="A100" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D100" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B100" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="7" t="s">
-        <v>129</v>
+      <c r="A101" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B102" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="13" t="s">
-        <v>133</v>
-      </c>
       <c r="B103" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B107" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="7" t="s">
+      <c r="B108" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B108" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="7" t="s">
+      <c r="B109" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B109" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="13" t="s">
+      <c r="A110" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B110" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>131</v>
+      <c r="B110" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3075,12 +3072,12 @@
         <v>9</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B112" s="10" t="s">
         <v>9</v>
@@ -3089,12 +3086,12 @@
         <v>9</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B113" s="10" t="s">
         <v>9</v>
@@ -3103,12 +3100,12 @@
         <v>9</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B114" s="10" t="s">
         <v>9</v>
@@ -3117,12 +3114,12 @@
         <v>9</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B115" s="10" t="s">
         <v>9</v>
@@ -3131,12 +3128,12 @@
         <v>9</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B116" s="10" t="s">
         <v>9</v>
@@ -3145,27 +3142,27 @@
         <v>9</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="B117" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="9" t="s">
-        <v>149</v>
-      </c>
       <c r="B118" s="10" t="s">
         <v>9</v>
       </c>
@@ -3173,158 +3170,128 @@
         <v>9</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="b15158015845@163.com" tooltip="mailto:b15158015845@163.com"/>
     <hyperlink ref="A2" r:id="rId2" display="a15158015845@163.com" tooltip="mailto:a15158015845@163.com"/>
-    <hyperlink ref="A5" r:id="rId3" display="a17706132072@163.com" tooltip="mailto:a17706132072@163.com"/>
-    <hyperlink ref="A6" r:id="rId4" display="b17706132072@163.com" tooltip="mailto:b17706132072@163.com"/>
-    <hyperlink ref="A7" r:id="rId5" display="a13587172463@163.com" tooltip="mailto:a15157887349@163.com"/>
-    <hyperlink ref="A8" r:id="rId6" display="b13587172463@163.com" tooltip="mailto:b15157887349@163.com"/>
-    <hyperlink ref="A9" r:id="rId7" display="n13587172463@163.com" tooltip="mailto:n13587172463@163.com"/>
-    <hyperlink ref="A10" r:id="rId8" display="o13587172463@163.com" tooltip="mailto:o13587172463@163.com"/>
-    <hyperlink ref="A11" r:id="rId9" display="p13587172463@163.com" tooltip="mailto:p13587172463@163.com"/>
-    <hyperlink ref="A12" r:id="rId10" display="qq13587172463@163.com" tooltip="mailto:qq13587172463@163.com"/>
-    <hyperlink ref="A13" r:id="rId11" display="r13587172463@163.com" tooltip="mailto:r13587172463@163.com"/>
-    <hyperlink ref="A14" r:id="rId12" display="s13587172463@163.com" tooltip="mailto:s13587172463@163.com"/>
-    <hyperlink ref="A15" r:id="rId13" display="t13587172463@163.com" tooltip="mailto:t13587172463@163.com"/>
-    <hyperlink ref="A16" r:id="rId14" display="u13587172463@163.com" tooltip="mailto:u13587172463@163.com"/>
-    <hyperlink ref="A17" r:id="rId15" display="v13587172463@163.com" tooltip="mailto:v13587172463@163.com"/>
-    <hyperlink ref="A18" r:id="rId16" display="w13587172463@163.com" tooltip="mailto:w13587172463@163.com"/>
-    <hyperlink ref="A19" r:id="rId17" display="x13587172463@163.com" tooltip="mailto:x13587172463@163.com"/>
-    <hyperlink ref="A20" r:id="rId18" display="y13587172463@163.com" tooltip="mailto:y13587172463@163.com"/>
-    <hyperlink ref="A21" r:id="rId19" display="aa13587172463@163.com" tooltip="mailto:aa13587172463@163.com"/>
-    <hyperlink ref="A22" r:id="rId20" display="bb13587172463@163.com" tooltip="mailto:bb13587172463@163.com"/>
-    <hyperlink ref="A23" r:id="rId21" display="cc13587172463@163.com" tooltip="mailto:cc13587172463@163.com"/>
-    <hyperlink ref="A24" r:id="rId22" display="dd13587172463@163.com" tooltip="mailto:dd13587172463@163.com"/>
-    <hyperlink ref="A26" r:id="rId23" display="ff13587172463@163.com" tooltip="mailto:ff13587172463@163.com"/>
-    <hyperlink ref="A28" r:id="rId24" display="hh13587172463@163.com" tooltip="mailto:hh13587172463@163.com"/>
-    <hyperlink ref="A27" r:id="rId25" display="gg13587172463@163.com" tooltip="mailto:gg13587172463@163.com"/>
-    <hyperlink ref="A25" r:id="rId26" display="ee13587172463@163.com" tooltip="mailto:ee13587172463@163.com"/>
-    <hyperlink ref="A29" r:id="rId27" display="ll13587172463@163.com" tooltip="mailto:ll13587172463@163.com"/>
-    <hyperlink ref="A30" r:id="rId28" display="jj13587172463@163.com" tooltip="mailto:jj13587172463@163.com"/>
-    <hyperlink ref="A31" r:id="rId29" display="kk13587172463@163.com" tooltip="mailto:kk13587172463@163.com"/>
-    <hyperlink ref="A32" r:id="rId30" display="mm13587172463@163.com" tooltip="mailto:mm13587172463@163.com"/>
-    <hyperlink ref="A33" r:id="rId31" display="nn13587172463@163.com" tooltip="mailto:nn13587172463@163.com"/>
-    <hyperlink ref="A34" r:id="rId32" display="oo13587172463@163.com" tooltip="mailto:oo13587172463@163.com"/>
-    <hyperlink ref="A35" r:id="rId33" display="pp13587172463@163.com" tooltip="mailto:pp13587172463@163.com"/>
-    <hyperlink ref="A36" r:id="rId34" display="rr13587172463@163.com" tooltip="mailto:rr13587172463@163.com"/>
-    <hyperlink ref="A37" r:id="rId35" display="ss13587172463@163.com" tooltip="mailto:ss13587172463@163.com"/>
-    <hyperlink ref="A38" r:id="rId36" display="tt13587172463@163.com" tooltip="mailto:tt13587172463@163.com"/>
-    <hyperlink ref="A39" r:id="rId37" display="uu13587172463@163.com" tooltip="mailto:uu13587172463@163.com"/>
-    <hyperlink ref="A40" r:id="rId38" display="vv13587172463@163.com" tooltip="mailto:vv13587172463@163.com"/>
-    <hyperlink ref="A41" r:id="rId39" display="ww13587172463@163.com" tooltip="mailto:ww13587172463@163.com"/>
-    <hyperlink ref="A42" r:id="rId40" display="xx13587172463@163.com" tooltip="mailto:xx13587172463@163.com"/>
-    <hyperlink ref="A43" r:id="rId41" display="yy13587172463@163.com" tooltip="mailto:yy13587172463@163.com"/>
-    <hyperlink ref="A44" r:id="rId42" display="zz13587172463@163.com" tooltip="mailto:zz13587172463@163.com"/>
-    <hyperlink ref="A51" r:id="rId43" display="a13757098596@163.com" tooltip="mailto:a13757098596@163.com"/>
-    <hyperlink ref="A52" r:id="rId44" display="b13757098596@163.com" tooltip="mailto:b13757098596@163.com"/>
-    <hyperlink ref="A53" r:id="rId45" display="g13757098596@163.com"/>
-    <hyperlink ref="A54" r:id="rId46" display="h13757098596@163.com"/>
-    <hyperlink ref="A55" r:id="rId47" display="l13757098596@163.com"/>
-    <hyperlink ref="A56" r:id="rId48" display="j13757098596@163.com"/>
-    <hyperlink ref="A59" r:id="rId49" display="a15267310606@163.com" tooltip="mailto:a15267310606@163.com"/>
-    <hyperlink ref="A60" r:id="rId50" display="b15267310606@163.com" tooltip="mailto:b15267310606@163.com"/>
-    <hyperlink ref="A61" r:id="rId51" display="c15267310606@163.com" tooltip="mailto:c15267310606@163.com"/>
-    <hyperlink ref="A62" r:id="rId52" display="c15957826243@163.com" tooltip="mailto:c15957826243@163.com"/>
-    <hyperlink ref="A63" r:id="rId53" display="d15957826243@163.com" tooltip="mailto:d15957826243@163.com"/>
-    <hyperlink ref="A64" r:id="rId54" display="e15957826243@163.com" tooltip="mailto:e15957826243@163.com"/>
-    <hyperlink ref="A65" r:id="rId55" display="f15957826243@163.com" tooltip="mailto:f15957826243@163.com"/>
-    <hyperlink ref="A67" r:id="rId56" display="a13567614850@163.com" tooltip="mailto:a13567614850@163.com"/>
-    <hyperlink ref="A68" r:id="rId57" display="a13291866525@163.com" tooltip="mailto:a13291866525@163.com"/>
-    <hyperlink ref="A69" r:id="rId58" display="a15305783466@163.com" tooltip="mailto:a15305783466@163.com"/>
-    <hyperlink ref="A70" r:id="rId59" display="a13868069569@163.com"/>
-    <hyperlink ref="A71" r:id="rId60" display="a15857806565@163.com" tooltip="mailto:a15857806565@163.com"/>
-    <hyperlink ref="A72" r:id="rId61" display="a15058687363@163.com" tooltip="mailto:a15058687363@163.com"/>
-    <hyperlink ref="A73" r:id="rId62" display="b15058687363@163.com" tooltip="mailto:b15058687363@163.com"/>
-    <hyperlink ref="A74" r:id="rId63" display="c15058687363@163.com" tooltip="mailto:c15058687363@163.com"/>
-    <hyperlink ref="A4" r:id="rId64" display="d15158015845@163.com" tooltip="mailto:d15158015845@163.com"/>
-    <hyperlink ref="A45" r:id="rId65" display="ggg13587172463@163.com" tooltip="mailto:ggg13587172463@163.com"/>
-    <hyperlink ref="A75" r:id="rId5" display="a15157887349@163.com" tooltip="mailto:a15157887349@163.com"/>
-    <hyperlink ref="A76" r:id="rId44" display="b15157887349@163.com" tooltip="mailto:b13757098596@163.com"/>
-    <hyperlink ref="A81" r:id="rId45" display="g15157887349@163.com"/>
-    <hyperlink ref="A82" r:id="rId46" display="h15157887349@163.com"/>
-    <hyperlink ref="A83" r:id="rId47" display="l15157887349@163.com"/>
-    <hyperlink ref="A84" r:id="rId48" display="j15157887349@163.com"/>
-    <hyperlink ref="A77" r:id="rId52" display="c15157887349@163.com" tooltip="mailto:c15957826243@163.com"/>
-    <hyperlink ref="A78" r:id="rId53" display="d15157887349@163.com" tooltip="mailto:d15957826243@163.com"/>
-    <hyperlink ref="A79" r:id="rId54" display="e15157887349@163.com" tooltip="mailto:e15957826243@163.com"/>
-    <hyperlink ref="A80" r:id="rId55" display="f15157887349@163.com" tooltip="mailto:f15957826243@163.com"/>
-    <hyperlink ref="A46" r:id="rId66" display="ah13587172463@163.com" tooltip="mailto:ah13587172463@163.com"/>
-    <hyperlink ref="A47" r:id="rId67" display="am13587172463@163.com" tooltip="mailto:am13587172463@163.com"/>
-    <hyperlink ref="A85" r:id="rId68" display="k15157887349@163.com" tooltip="mailto:k15157887349@163.com"/>
-    <hyperlink ref="A86" r:id="rId5" display="a13626784727@163.com" tooltip="mailto:a15157887349@163.com"/>
-    <hyperlink ref="A87" r:id="rId44" display="b13626784727@163.com" tooltip="mailto:b13757098596@163.com"/>
-    <hyperlink ref="A92" r:id="rId45" display="g13626784727@163.com"/>
-    <hyperlink ref="A93" r:id="rId46" display="h13626784727@163.com"/>
-    <hyperlink ref="A94" r:id="rId47" display="l13626784727@163.com"/>
-    <hyperlink ref="A95" r:id="rId48" display="j13626784727@163.com"/>
-    <hyperlink ref="A88" r:id="rId52" display="c13626784727@163.com" tooltip="mailto:c15957826243@163.com"/>
-    <hyperlink ref="A89" r:id="rId53" display="d13626784727@163.com" tooltip="mailto:d15957826243@163.com"/>
-    <hyperlink ref="A90" r:id="rId54" display="e13626784727@163.com" tooltip="mailto:e15957826243@163.com"/>
-    <hyperlink ref="A91" r:id="rId55" display="f13626784727@163.com" tooltip="mailto:f15957826243@163.com"/>
-    <hyperlink ref="A96" r:id="rId69" display="k13626784727@163.com" tooltip="mailto:k13626784727@163.com"/>
-    <hyperlink ref="A97" r:id="rId70" display="m13626784727@163.com" tooltip="mailto:m13626784727@163.com"/>
-    <hyperlink ref="A98" r:id="rId71" display="n13626784727@163.com" tooltip="mailto:n13626784727@163.com"/>
-    <hyperlink ref="A99" r:id="rId72" display="o13626784727@163.com" tooltip="mailto:o13626784727@163.com"/>
-    <hyperlink ref="A100" r:id="rId73" display="p13626784727@163.com" tooltip="mailto:p13626784727@163.com"/>
-    <hyperlink ref="A101" r:id="rId74" display="c15355785681@163.com" tooltip="mailto:c15355785681@163.com"/>
-    <hyperlink ref="A102" r:id="rId44" display="b15355785681@163.com" tooltip="mailto:b13757098596@163.com"/>
-    <hyperlink ref="A107" r:id="rId45" display="g15355785681@163.com"/>
-    <hyperlink ref="A108" r:id="rId46" display="h15355785681@163.com"/>
-    <hyperlink ref="A109" r:id="rId47" display="l15355785681@163.com"/>
-    <hyperlink ref="A110" r:id="rId48" display="j15355785681@163.com"/>
-    <hyperlink ref="A103" r:id="rId75" display="a15355785681@163.com" tooltip="mailto:a15355785681@163.com"/>
-    <hyperlink ref="A104" r:id="rId53" display="d15355785681@163.com" tooltip="mailto:d15957826243@163.com"/>
-    <hyperlink ref="A105" r:id="rId54" display="e15355785681@163.com" tooltip="mailto:e15957826243@163.com"/>
-    <hyperlink ref="A106" r:id="rId55" display="f15355785681@163.com" tooltip="mailto:f15957826243@163.com"/>
-    <hyperlink ref="A111" r:id="rId75" display="a15167186038@163.com" tooltip="mailto:a15355785681@163.com"/>
-    <hyperlink ref="A112" r:id="rId44" display="b15167186038@163.com" tooltip="mailto:b13757098596@163.com"/>
-    <hyperlink ref="A117" r:id="rId45" display="g15167186038@163.com"/>
-    <hyperlink ref="A118" r:id="rId46" display="h15167186038@163.com"/>
-    <hyperlink ref="A119" r:id="rId47" display="l15167186038@163.com"/>
-    <hyperlink ref="A120" r:id="rId48" display="j15167186038@163.com"/>
-    <hyperlink ref="A113" r:id="rId52" display="c15167186038@163.com" tooltip="mailto:c15957826243@163.com"/>
-    <hyperlink ref="A114" r:id="rId53" display="d15167186038@163.com" tooltip="mailto:d15957826243@163.com"/>
-    <hyperlink ref="A115" r:id="rId54" display="e15167186038@163.com" tooltip="mailto:e15957826243@163.com"/>
-    <hyperlink ref="A116" r:id="rId55" display="f15167186038@163.com" tooltip="mailto:f15957826243@163.com"/>
-    <hyperlink ref="A66" r:id="rId76" display="ag15957826243@163.com"/>
-    <hyperlink ref="A48" r:id="rId77" display="af13587172463@163.com"/>
-    <hyperlink ref="A49" r:id="rId78" display="an13587172463@163.com" tooltip="mailto:an13587172463@163.com"/>
-    <hyperlink ref="A50" r:id="rId79" display="ao13587172463@163.com" tooltip="mailto:ao13587172463@163.com"/>
-    <hyperlink ref="A57" r:id="rId80" display="k13757098596@163.com"/>
-    <hyperlink ref="A58" r:id="rId81" display="m13757098596@163.com"/>
+    <hyperlink ref="A5" r:id="rId3" display="a13587172463@163.com" tooltip="mailto:a15157887349@163.com"/>
+    <hyperlink ref="A6" r:id="rId4" display="b13587172463@163.com" tooltip="mailto:b15157887349@163.com"/>
+    <hyperlink ref="A7" r:id="rId5" display="n13587172463@163.com" tooltip="mailto:n13587172463@163.com"/>
+    <hyperlink ref="A8" r:id="rId6" display="o13587172463@163.com" tooltip="mailto:o13587172463@163.com"/>
+    <hyperlink ref="A9" r:id="rId7" display="p13587172463@163.com" tooltip="mailto:p13587172463@163.com"/>
+    <hyperlink ref="A10" r:id="rId8" display="qq13587172463@163.com" tooltip="mailto:qq13587172463@163.com"/>
+    <hyperlink ref="A11" r:id="rId9" display="r13587172463@163.com" tooltip="mailto:r13587172463@163.com"/>
+    <hyperlink ref="A12" r:id="rId10" display="s13587172463@163.com" tooltip="mailto:s13587172463@163.com"/>
+    <hyperlink ref="A13" r:id="rId11" display="t13587172463@163.com" tooltip="mailto:t13587172463@163.com"/>
+    <hyperlink ref="A14" r:id="rId12" display="u13587172463@163.com" tooltip="mailto:u13587172463@163.com"/>
+    <hyperlink ref="A15" r:id="rId13" display="v13587172463@163.com" tooltip="mailto:v13587172463@163.com"/>
+    <hyperlink ref="A16" r:id="rId14" display="w13587172463@163.com" tooltip="mailto:w13587172463@163.com"/>
+    <hyperlink ref="A17" r:id="rId15" display="x13587172463@163.com" tooltip="mailto:x13587172463@163.com"/>
+    <hyperlink ref="A18" r:id="rId16" display="y13587172463@163.com" tooltip="mailto:y13587172463@163.com"/>
+    <hyperlink ref="A19" r:id="rId17" display="aa13587172463@163.com" tooltip="mailto:aa13587172463@163.com"/>
+    <hyperlink ref="A20" r:id="rId18" display="bb13587172463@163.com" tooltip="mailto:bb13587172463@163.com"/>
+    <hyperlink ref="A21" r:id="rId19" display="cc13587172463@163.com" tooltip="mailto:cc13587172463@163.com"/>
+    <hyperlink ref="A22" r:id="rId20" display="dd13587172463@163.com" tooltip="mailto:dd13587172463@163.com"/>
+    <hyperlink ref="A24" r:id="rId21" display="ff13587172463@163.com" tooltip="mailto:ff13587172463@163.com"/>
+    <hyperlink ref="A26" r:id="rId22" display="hh13587172463@163.com" tooltip="mailto:hh13587172463@163.com"/>
+    <hyperlink ref="A25" r:id="rId23" display="gg13587172463@163.com" tooltip="mailto:gg13587172463@163.com"/>
+    <hyperlink ref="A23" r:id="rId24" display="ee13587172463@163.com" tooltip="mailto:ee13587172463@163.com"/>
+    <hyperlink ref="A27" r:id="rId25" display="ll13587172463@163.com" tooltip="mailto:ll13587172463@163.com"/>
+    <hyperlink ref="A28" r:id="rId26" display="jj13587172463@163.com" tooltip="mailto:jj13587172463@163.com"/>
+    <hyperlink ref="A29" r:id="rId27" display="kk13587172463@163.com" tooltip="mailto:kk13587172463@163.com"/>
+    <hyperlink ref="A30" r:id="rId28" display="mm13587172463@163.com" tooltip="mailto:mm13587172463@163.com"/>
+    <hyperlink ref="A31" r:id="rId29" display="nn13587172463@163.com" tooltip="mailto:nn13587172463@163.com"/>
+    <hyperlink ref="A32" r:id="rId30" display="oo13587172463@163.com" tooltip="mailto:oo13587172463@163.com"/>
+    <hyperlink ref="A33" r:id="rId31" display="pp13587172463@163.com" tooltip="mailto:pp13587172463@163.com"/>
+    <hyperlink ref="A34" r:id="rId32" display="rr13587172463@163.com" tooltip="mailto:rr13587172463@163.com"/>
+    <hyperlink ref="A35" r:id="rId33" display="ss13587172463@163.com" tooltip="mailto:ss13587172463@163.com"/>
+    <hyperlink ref="A36" r:id="rId34" display="tt13587172463@163.com" tooltip="mailto:tt13587172463@163.com"/>
+    <hyperlink ref="A37" r:id="rId35" display="uu13587172463@163.com" tooltip="mailto:uu13587172463@163.com"/>
+    <hyperlink ref="A38" r:id="rId36" display="vv13587172463@163.com" tooltip="mailto:vv13587172463@163.com"/>
+    <hyperlink ref="A39" r:id="rId37" display="ww13587172463@163.com" tooltip="mailto:ww13587172463@163.com"/>
+    <hyperlink ref="A40" r:id="rId38" display="xx13587172463@163.com" tooltip="mailto:xx13587172463@163.com"/>
+    <hyperlink ref="A41" r:id="rId39" display="yy13587172463@163.com" tooltip="mailto:yy13587172463@163.com"/>
+    <hyperlink ref="A42" r:id="rId40" display="zz13587172463@163.com" tooltip="mailto:zz13587172463@163.com"/>
+    <hyperlink ref="A49" r:id="rId41" display="a13757098596@163.com" tooltip="mailto:a13757098596@163.com"/>
+    <hyperlink ref="A50" r:id="rId42" display="b13757098596@163.com" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A51" r:id="rId43" display="g13757098596@163.com"/>
+    <hyperlink ref="A52" r:id="rId44" display="h13757098596@163.com"/>
+    <hyperlink ref="A53" r:id="rId45" display="l13757098596@163.com"/>
+    <hyperlink ref="A54" r:id="rId46" display="j13757098596@163.com"/>
+    <hyperlink ref="A57" r:id="rId47" display="a15267310606@163.com" tooltip="mailto:a15267310606@163.com"/>
+    <hyperlink ref="A58" r:id="rId48" display="b15267310606@163.com" tooltip="mailto:b15267310606@163.com"/>
+    <hyperlink ref="A59" r:id="rId49" display="c15267310606@163.com" tooltip="mailto:c15267310606@163.com"/>
+    <hyperlink ref="A60" r:id="rId50" display="c15957826243@163.com" tooltip="mailto:c15957826243@163.com"/>
+    <hyperlink ref="A61" r:id="rId51" display="d15957826243@163.com" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A62" r:id="rId52" display="e15957826243@163.com" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A63" r:id="rId53" display="f15957826243@163.com" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A65" r:id="rId54" display="a13567614850@163.com" tooltip="mailto:a13567614850@163.com"/>
+    <hyperlink ref="A66" r:id="rId55" display="a13291866525@163.com" tooltip="mailto:a13291866525@163.com"/>
+    <hyperlink ref="A67" r:id="rId56" display="a15305783466@163.com" tooltip="mailto:a15305783466@163.com"/>
+    <hyperlink ref="A68" r:id="rId57" display="a13868069569@163.com"/>
+    <hyperlink ref="A69" r:id="rId58" display="a15857806565@163.com" tooltip="mailto:a15857806565@163.com"/>
+    <hyperlink ref="A70" r:id="rId59" display="a15058687363@163.com" tooltip="mailto:a15058687363@163.com"/>
+    <hyperlink ref="A71" r:id="rId60" display="b15058687363@163.com" tooltip="mailto:b15058687363@163.com"/>
+    <hyperlink ref="A72" r:id="rId61" display="c15058687363@163.com" tooltip="mailto:c15058687363@163.com"/>
+    <hyperlink ref="A4" r:id="rId62" display="d15158015845@163.com" tooltip="mailto:d15158015845@163.com"/>
+    <hyperlink ref="A43" r:id="rId63" display="ggg13587172463@163.com" tooltip="mailto:ggg13587172463@163.com"/>
+    <hyperlink ref="A73" r:id="rId3" display="a15157887349@163.com" tooltip="mailto:a15157887349@163.com"/>
+    <hyperlink ref="A74" r:id="rId42" display="b15157887349@163.com" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A79" r:id="rId43" display="g15157887349@163.com"/>
+    <hyperlink ref="A80" r:id="rId44" display="h15157887349@163.com"/>
+    <hyperlink ref="A81" r:id="rId45" display="l15157887349@163.com"/>
+    <hyperlink ref="A82" r:id="rId46" display="j15157887349@163.com"/>
+    <hyperlink ref="A75" r:id="rId50" display="c15157887349@163.com" tooltip="mailto:c15957826243@163.com"/>
+    <hyperlink ref="A76" r:id="rId51" display="d15157887349@163.com" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A77" r:id="rId52" display="e15157887349@163.com" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A78" r:id="rId53" display="f15157887349@163.com" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A44" r:id="rId64" display="ah13587172463@163.com" tooltip="mailto:ah13587172463@163.com"/>
+    <hyperlink ref="A45" r:id="rId65" display="am13587172463@163.com" tooltip="mailto:am13587172463@163.com"/>
+    <hyperlink ref="A83" r:id="rId66" display="k15157887349@163.com" tooltip="mailto:k15157887349@163.com"/>
+    <hyperlink ref="A84" r:id="rId3" display="a13626784727@163.com" tooltip="mailto:a15157887349@163.com"/>
+    <hyperlink ref="A85" r:id="rId42" display="b13626784727@163.com" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A90" r:id="rId43" display="g13626784727@163.com"/>
+    <hyperlink ref="A91" r:id="rId44" display="h13626784727@163.com"/>
+    <hyperlink ref="A92" r:id="rId45" display="l13626784727@163.com"/>
+    <hyperlink ref="A93" r:id="rId46" display="j13626784727@163.com"/>
+    <hyperlink ref="A86" r:id="rId50" display="c13626784727@163.com" tooltip="mailto:c15957826243@163.com"/>
+    <hyperlink ref="A87" r:id="rId51" display="d13626784727@163.com" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A88" r:id="rId52" display="e13626784727@163.com" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A89" r:id="rId53" display="f13626784727@163.com" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A94" r:id="rId67" display="k13626784727@163.com" tooltip="mailto:k13626784727@163.com"/>
+    <hyperlink ref="A95" r:id="rId68" display="m13626784727@163.com" tooltip="mailto:m13626784727@163.com"/>
+    <hyperlink ref="A96" r:id="rId69" display="n13626784727@163.com" tooltip="mailto:n13626784727@163.com"/>
+    <hyperlink ref="A97" r:id="rId70" display="o13626784727@163.com" tooltip="mailto:o13626784727@163.com"/>
+    <hyperlink ref="A98" r:id="rId71" display="p13626784727@163.com" tooltip="mailto:p13626784727@163.com"/>
+    <hyperlink ref="A99" r:id="rId72" display="c15355785681@163.com" tooltip="mailto:c15355785681@163.com"/>
+    <hyperlink ref="A100" r:id="rId42" display="b15355785681@163.com" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A105" r:id="rId43" display="g15355785681@163.com"/>
+    <hyperlink ref="A106" r:id="rId44" display="h15355785681@163.com"/>
+    <hyperlink ref="A107" r:id="rId45" display="l15355785681@163.com"/>
+    <hyperlink ref="A108" r:id="rId46" display="j15355785681@163.com"/>
+    <hyperlink ref="A101" r:id="rId73" display="a15355785681@163.com" tooltip="mailto:a15355785681@163.com"/>
+    <hyperlink ref="A102" r:id="rId51" display="d15355785681@163.com" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A103" r:id="rId52" display="e15355785681@163.com" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A104" r:id="rId53" display="f15355785681@163.com" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A109" r:id="rId73" display="a15167186038@163.com" tooltip="mailto:a15355785681@163.com"/>
+    <hyperlink ref="A110" r:id="rId42" display="b15167186038@163.com" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A115" r:id="rId43" display="g15167186038@163.com"/>
+    <hyperlink ref="A116" r:id="rId44" display="h15167186038@163.com"/>
+    <hyperlink ref="A117" r:id="rId45" display="l15167186038@163.com"/>
+    <hyperlink ref="A118" r:id="rId46" display="j15167186038@163.com"/>
+    <hyperlink ref="A111" r:id="rId50" display="c15167186038@163.com" tooltip="mailto:c15957826243@163.com"/>
+    <hyperlink ref="A112" r:id="rId51" display="d15167186038@163.com" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A113" r:id="rId52" display="e15167186038@163.com" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A114" r:id="rId53" display="f15167186038@163.com" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A64" r:id="rId74" display="ag15957826243@163.com"/>
+    <hyperlink ref="A46" r:id="rId75" display="af13587172463@163.com"/>
+    <hyperlink ref="A47" r:id="rId76" display="an13587172463@163.com" tooltip="mailto:an13587172463@163.com"/>
+    <hyperlink ref="A48" r:id="rId77" display="ao13587172463@163.com" tooltip="mailto:ao13587172463@163.com"/>
+    <hyperlink ref="A55" r:id="rId78" display="k13757098596@163.com"/>
+    <hyperlink ref="A56" r:id="rId79" display="m13757098596@163.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3363,7 +3330,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>11</v>
@@ -3372,12 +3339,12 @@
         <v>11</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>9</v>
@@ -3386,12 +3353,12 @@
         <v>9</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>9</v>
@@ -3400,12 +3367,12 @@
         <v>9</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>9</v>
@@ -3414,12 +3381,12 @@
         <v>9</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>9</v>
@@ -3428,7 +3395,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3490,7 +3457,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>11</v>
@@ -3499,12 +3466,12 @@
         <v>11</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>11</v>
@@ -3513,12 +3480,12 @@
         <v>11</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>9</v>
@@ -3527,82 +3494,82 @@
         <v>9</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:5">
       <c r="A11" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>9</v>
@@ -3611,43 +3578,43 @@
         <v>9</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E11" s="18"/>
     </row>
     <row r="12" ht="14.25" spans="1:5">
       <c r="A12" s="19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E12" s="21"/>
     </row>
     <row r="13" ht="14.25" spans="1:5">
       <c r="A13" s="22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E13" s="21"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>5</v>
@@ -3656,40 +3623,40 @@
         <v>5</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>9</v>
@@ -3698,7 +3665,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/login.xlsx
+++ b/src/main/resources/login.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8820"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="账号信息" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
     <sheet name="主账号收取" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="149">
   <si>
     <t>Account</t>
   </si>
@@ -252,6 +252,168 @@
     <t>ag15957826243@163.com</t>
   </si>
   <si>
+    <t>a15157887349@163.com</t>
+  </si>
+  <si>
+    <t>叶林建</t>
+  </si>
+  <si>
+    <t>b15157887349@163.com</t>
+  </si>
+  <si>
+    <t>c15157887349@163.com</t>
+  </si>
+  <si>
+    <t>d15157887349@163.com</t>
+  </si>
+  <si>
+    <t>e15157887349@163.com</t>
+  </si>
+  <si>
+    <t>f15157887349@163.com</t>
+  </si>
+  <si>
+    <t>g15157887349@163.com</t>
+  </si>
+  <si>
+    <t>h15157887349@163.com</t>
+  </si>
+  <si>
+    <t>l15157887349@163.com</t>
+  </si>
+  <si>
+    <t>j15157887349@163.com</t>
+  </si>
+  <si>
+    <t>k15157887349@163.com</t>
+  </si>
+  <si>
+    <t>a13626784727@163.com</t>
+  </si>
+  <si>
+    <t>xfy123</t>
+  </si>
+  <si>
+    <t>夏发英</t>
+  </si>
+  <si>
+    <t>b13626784727@163.com</t>
+  </si>
+  <si>
+    <t>c13626784727@163.com</t>
+  </si>
+  <si>
+    <t>d13626784727@163.com</t>
+  </si>
+  <si>
+    <t>e13626784727@163.com</t>
+  </si>
+  <si>
+    <t>f13626784727@163.com</t>
+  </si>
+  <si>
+    <t>g13626784727@163.com</t>
+  </si>
+  <si>
+    <t>h13626784727@163.com</t>
+  </si>
+  <si>
+    <t>l13626784727@163.com</t>
+  </si>
+  <si>
+    <t>j13626784727@163.com</t>
+  </si>
+  <si>
+    <t>k13626784727@163.com</t>
+  </si>
+  <si>
+    <t>m13626784727@163.com</t>
+  </si>
+  <si>
+    <t>n13626784727@163.com</t>
+  </si>
+  <si>
+    <t>o13626784727@163.com</t>
+  </si>
+  <si>
+    <t>p13626784727@163.com</t>
+  </si>
+  <si>
+    <t>c15355785681@163.com</t>
+  </si>
+  <si>
+    <t>srw123</t>
+  </si>
+  <si>
+    <t>宋荣伟</t>
+  </si>
+  <si>
+    <t>b15355785681@163.com</t>
+  </si>
+  <si>
+    <t>a15355785681@163.com</t>
+  </si>
+  <si>
+    <t>d15355785681@163.com</t>
+  </si>
+  <si>
+    <t>e15355785681@163.com</t>
+  </si>
+  <si>
+    <t>f15355785681@163.com</t>
+  </si>
+  <si>
+    <t>g15355785681@163.com</t>
+  </si>
+  <si>
+    <t>h15355785681@163.com</t>
+  </si>
+  <si>
+    <t>l15355785681@163.com</t>
+  </si>
+  <si>
+    <t>j15355785681@163.com</t>
+  </si>
+  <si>
+    <t>a15167186038@163.com</t>
+  </si>
+  <si>
+    <t>蔡云飞</t>
+  </si>
+  <si>
+    <t>b15167186038@163.com</t>
+  </si>
+  <si>
+    <t>c15167186038@163.com</t>
+  </si>
+  <si>
+    <t>d15167186038@163.com</t>
+  </si>
+  <si>
+    <t>e15167186038@163.com</t>
+  </si>
+  <si>
+    <t>f15167186038@163.com</t>
+  </si>
+  <si>
+    <t>g15167186038@163.com</t>
+  </si>
+  <si>
+    <t>h15167186038@163.com</t>
+  </si>
+  <si>
+    <t>l15167186038@163.com</t>
+  </si>
+  <si>
+    <t>j15167186038@163.com</t>
+  </si>
+  <si>
+    <t>a17706132072@163.com</t>
+  </si>
+  <si>
+    <t>叶晖</t>
+  </si>
+  <si>
     <t>a13567614850@163.com</t>
   </si>
   <si>
@@ -301,174 +463,6 @@
   </si>
   <si>
     <t>李秀华</t>
-  </si>
-  <si>
-    <t>b15058687363@163.com</t>
-  </si>
-  <si>
-    <t>c15058687363@163.com</t>
-  </si>
-  <si>
-    <t>a15157887349@163.com</t>
-  </si>
-  <si>
-    <t>叶林建</t>
-  </si>
-  <si>
-    <t>b15157887349@163.com</t>
-  </si>
-  <si>
-    <t>c15157887349@163.com</t>
-  </si>
-  <si>
-    <t>d15157887349@163.com</t>
-  </si>
-  <si>
-    <t>e15157887349@163.com</t>
-  </si>
-  <si>
-    <t>f15157887349@163.com</t>
-  </si>
-  <si>
-    <t>g15157887349@163.com</t>
-  </si>
-  <si>
-    <t>h15157887349@163.com</t>
-  </si>
-  <si>
-    <t>l15157887349@163.com</t>
-  </si>
-  <si>
-    <t>j15157887349@163.com</t>
-  </si>
-  <si>
-    <t>k15157887349@163.com</t>
-  </si>
-  <si>
-    <t>a13626784727@163.com</t>
-  </si>
-  <si>
-    <t>xfy123</t>
-  </si>
-  <si>
-    <t>夏发英</t>
-  </si>
-  <si>
-    <t>b13626784727@163.com</t>
-  </si>
-  <si>
-    <t>c13626784727@163.com</t>
-  </si>
-  <si>
-    <t>d13626784727@163.com</t>
-  </si>
-  <si>
-    <t>e13626784727@163.com</t>
-  </si>
-  <si>
-    <t>f13626784727@163.com</t>
-  </si>
-  <si>
-    <t>g13626784727@163.com</t>
-  </si>
-  <si>
-    <t>h13626784727@163.com</t>
-  </si>
-  <si>
-    <t>l13626784727@163.com</t>
-  </si>
-  <si>
-    <t>j13626784727@163.com</t>
-  </si>
-  <si>
-    <t>k13626784727@163.com</t>
-  </si>
-  <si>
-    <t>m13626784727@163.com</t>
-  </si>
-  <si>
-    <t>n13626784727@163.com</t>
-  </si>
-  <si>
-    <t>o13626784727@163.com</t>
-  </si>
-  <si>
-    <t>p13626784727@163.com</t>
-  </si>
-  <si>
-    <t>c15355785681@163.com</t>
-  </si>
-  <si>
-    <t>srw123</t>
-  </si>
-  <si>
-    <t>宋荣伟</t>
-  </si>
-  <si>
-    <t>b15355785681@163.com</t>
-  </si>
-  <si>
-    <t>a15355785681@163.com</t>
-  </si>
-  <si>
-    <t>d15355785681@163.com</t>
-  </si>
-  <si>
-    <t>e15355785681@163.com</t>
-  </si>
-  <si>
-    <t>f15355785681@163.com</t>
-  </si>
-  <si>
-    <t>g15355785681@163.com</t>
-  </si>
-  <si>
-    <t>h15355785681@163.com</t>
-  </si>
-  <si>
-    <t>l15355785681@163.com</t>
-  </si>
-  <si>
-    <t>j15355785681@163.com</t>
-  </si>
-  <si>
-    <t>a15167186038@163.com</t>
-  </si>
-  <si>
-    <t>蔡云飞</t>
-  </si>
-  <si>
-    <t>b15167186038@163.com</t>
-  </si>
-  <si>
-    <t>c15167186038@163.com</t>
-  </si>
-  <si>
-    <t>d15167186038@163.com</t>
-  </si>
-  <si>
-    <t>e15167186038@163.com</t>
-  </si>
-  <si>
-    <t>f15167186038@163.com</t>
-  </si>
-  <si>
-    <t>g15167186038@163.com</t>
-  </si>
-  <si>
-    <t>h15167186038@163.com</t>
-  </si>
-  <si>
-    <t>l15167186038@163.com</t>
-  </si>
-  <si>
-    <t>j15167186038@163.com</t>
-  </si>
-  <si>
-    <t>a17706132072@163.com</t>
-  </si>
-  <si>
-    <t>叶晖</t>
   </si>
 </sst>
 </file>
@@ -476,10 +470,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -520,24 +514,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,6 +526,36 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -567,20 +575,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -589,48 +583,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -648,8 +612,38 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -700,7 +694,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FF7BDFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,109 +748,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,13 +766,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,45 +867,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -917,26 +878,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -959,8 +900,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -972,10 +972,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -987,13 +987,13 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1002,119 +1002,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1178,6 +1178,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1237,6 +1246,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="007BDFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1503,13 +1517,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="26.125" customWidth="1"/>
     <col min="2" max="3" width="17.75" customWidth="1"/>
@@ -2413,629 +2427,624 @@
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C65" s="10" t="s">
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="D65" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="13" t="s">
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B67" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C66" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D66" s="8" t="s">
+      <c r="B68" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="25" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="14" t="s">
+      <c r="B69" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B70" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C67" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D67" s="12" t="s">
+      <c r="B71" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="25" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="68" ht="14.25" spans="1:5">
-      <c r="A68" s="15" t="s">
+      <c r="B72" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="17" t="s">
+      <c r="B73" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E68" s="18"/>
-    </row>
-    <row r="69" ht="14.25" spans="1:5">
-      <c r="A69" s="19" t="s">
+      <c r="B74" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B75" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D69" s="20" t="s">
+      <c r="B76" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E69" s="21"/>
-    </row>
-    <row r="70" ht="14.25" spans="1:5">
-      <c r="A70" s="22" t="s">
+      <c r="C76" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="23" t="s">
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C70" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D70" s="24" t="s">
+      <c r="B77" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E70" s="21"/>
-    </row>
-    <row r="71" ht="14.25" spans="1:5">
-      <c r="A71" s="22" t="s">
+      <c r="B78" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B71" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E71" s="18"/>
-    </row>
-    <row r="72" ht="14.25" spans="1:5">
-      <c r="A72" s="22" t="s">
+      <c r="B79" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B72" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E72" s="18"/>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="11" t="s">
+      <c r="B80" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B73" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="12" t="s">
+      <c r="B81" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="11" t="s">
+      <c r="B82" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B74" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>98</v>
+      <c r="B83" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D91" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B84" s="6" t="s">
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D84" s="6" t="s">
+      <c r="B92" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="13" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="5" t="s">
+      <c r="B93" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B85" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="5" t="s">
+      <c r="B94" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B86" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="5" t="s">
+      <c r="B95" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B87" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="5" t="s">
+      <c r="B96" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B88" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="5" t="s">
+      <c r="B97" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B89" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>111</v>
+      <c r="B98" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B107" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C99" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>128</v>
+      <c r="B108" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="9" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B109" s="10" t="s">
         <v>9</v>
@@ -3044,12 +3053,12 @@
         <v>9</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="9" t="s">
-        <v>140</v>
+      <c r="A110" s="29" t="s">
+        <v>129</v>
       </c>
       <c r="B110" s="10" t="s">
         <v>9</v>
@@ -3058,119 +3067,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B117" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="10" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3228,70 +3125,62 @@
     <hyperlink ref="A61" r:id="rId51" display="d15957826243@163.com" tooltip="mailto:d15957826243@163.com"/>
     <hyperlink ref="A62" r:id="rId52" display="e15957826243@163.com" tooltip="mailto:e15957826243@163.com"/>
     <hyperlink ref="A63" r:id="rId53" display="f15957826243@163.com" tooltip="mailto:f15957826243@163.com"/>
-    <hyperlink ref="A65" r:id="rId54" display="a13567614850@163.com" tooltip="mailto:a13567614850@163.com"/>
-    <hyperlink ref="A66" r:id="rId55" display="a13291866525@163.com" tooltip="mailto:a13291866525@163.com"/>
-    <hyperlink ref="A67" r:id="rId56" display="a15305783466@163.com" tooltip="mailto:a15305783466@163.com"/>
-    <hyperlink ref="A68" r:id="rId57" display="a13868069569@163.com"/>
-    <hyperlink ref="A69" r:id="rId58" display="a15857806565@163.com" tooltip="mailto:a15857806565@163.com"/>
-    <hyperlink ref="A70" r:id="rId59" display="a15058687363@163.com" tooltip="mailto:a15058687363@163.com"/>
-    <hyperlink ref="A71" r:id="rId60" display="b15058687363@163.com" tooltip="mailto:b15058687363@163.com"/>
-    <hyperlink ref="A72" r:id="rId61" display="c15058687363@163.com" tooltip="mailto:c15058687363@163.com"/>
-    <hyperlink ref="A4" r:id="rId62" display="d15158015845@163.com" tooltip="mailto:d15158015845@163.com"/>
-    <hyperlink ref="A43" r:id="rId63" display="ggg13587172463@163.com" tooltip="mailto:ggg13587172463@163.com"/>
-    <hyperlink ref="A73" r:id="rId3" display="a15157887349@163.com" tooltip="mailto:a15157887349@163.com"/>
-    <hyperlink ref="A74" r:id="rId42" display="b15157887349@163.com" tooltip="mailto:b13757098596@163.com"/>
-    <hyperlink ref="A79" r:id="rId43" display="g15157887349@163.com"/>
-    <hyperlink ref="A80" r:id="rId44" display="h15157887349@163.com"/>
-    <hyperlink ref="A81" r:id="rId45" display="l15157887349@163.com"/>
-    <hyperlink ref="A82" r:id="rId46" display="j15157887349@163.com"/>
-    <hyperlink ref="A75" r:id="rId50" display="c15157887349@163.com" tooltip="mailto:c15957826243@163.com"/>
-    <hyperlink ref="A76" r:id="rId51" display="d15157887349@163.com" tooltip="mailto:d15957826243@163.com"/>
-    <hyperlink ref="A77" r:id="rId52" display="e15157887349@163.com" tooltip="mailto:e15957826243@163.com"/>
-    <hyperlink ref="A78" r:id="rId53" display="f15157887349@163.com" tooltip="mailto:f15957826243@163.com"/>
-    <hyperlink ref="A44" r:id="rId64" display="ah13587172463@163.com" tooltip="mailto:ah13587172463@163.com"/>
-    <hyperlink ref="A45" r:id="rId65" display="am13587172463@163.com" tooltip="mailto:am13587172463@163.com"/>
-    <hyperlink ref="A83" r:id="rId66" display="k15157887349@163.com" tooltip="mailto:k15157887349@163.com"/>
-    <hyperlink ref="A84" r:id="rId3" display="a13626784727@163.com" tooltip="mailto:a15157887349@163.com"/>
-    <hyperlink ref="A85" r:id="rId42" display="b13626784727@163.com" tooltip="mailto:b13757098596@163.com"/>
-    <hyperlink ref="A90" r:id="rId43" display="g13626784727@163.com"/>
-    <hyperlink ref="A91" r:id="rId44" display="h13626784727@163.com"/>
-    <hyperlink ref="A92" r:id="rId45" display="l13626784727@163.com"/>
-    <hyperlink ref="A93" r:id="rId46" display="j13626784727@163.com"/>
-    <hyperlink ref="A86" r:id="rId50" display="c13626784727@163.com" tooltip="mailto:c15957826243@163.com"/>
-    <hyperlink ref="A87" r:id="rId51" display="d13626784727@163.com" tooltip="mailto:d15957826243@163.com"/>
-    <hyperlink ref="A88" r:id="rId52" display="e13626784727@163.com" tooltip="mailto:e15957826243@163.com"/>
-    <hyperlink ref="A89" r:id="rId53" display="f13626784727@163.com" tooltip="mailto:f15957826243@163.com"/>
-    <hyperlink ref="A94" r:id="rId67" display="k13626784727@163.com" tooltip="mailto:k13626784727@163.com"/>
-    <hyperlink ref="A95" r:id="rId68" display="m13626784727@163.com" tooltip="mailto:m13626784727@163.com"/>
-    <hyperlink ref="A96" r:id="rId69" display="n13626784727@163.com" tooltip="mailto:n13626784727@163.com"/>
-    <hyperlink ref="A97" r:id="rId70" display="o13626784727@163.com" tooltip="mailto:o13626784727@163.com"/>
-    <hyperlink ref="A98" r:id="rId71" display="p13626784727@163.com" tooltip="mailto:p13626784727@163.com"/>
-    <hyperlink ref="A99" r:id="rId72" display="c15355785681@163.com" tooltip="mailto:c15355785681@163.com"/>
-    <hyperlink ref="A100" r:id="rId42" display="b15355785681@163.com" tooltip="mailto:b13757098596@163.com"/>
-    <hyperlink ref="A105" r:id="rId43" display="g15355785681@163.com"/>
-    <hyperlink ref="A106" r:id="rId44" display="h15355785681@163.com"/>
-    <hyperlink ref="A107" r:id="rId45" display="l15355785681@163.com"/>
-    <hyperlink ref="A108" r:id="rId46" display="j15355785681@163.com"/>
-    <hyperlink ref="A101" r:id="rId73" display="a15355785681@163.com" tooltip="mailto:a15355785681@163.com"/>
-    <hyperlink ref="A102" r:id="rId51" display="d15355785681@163.com" tooltip="mailto:d15957826243@163.com"/>
-    <hyperlink ref="A103" r:id="rId52" display="e15355785681@163.com" tooltip="mailto:e15957826243@163.com"/>
-    <hyperlink ref="A104" r:id="rId53" display="f15355785681@163.com" tooltip="mailto:f15957826243@163.com"/>
-    <hyperlink ref="A109" r:id="rId73" display="a15167186038@163.com" tooltip="mailto:a15355785681@163.com"/>
-    <hyperlink ref="A110" r:id="rId42" display="b15167186038@163.com" tooltip="mailto:b13757098596@163.com"/>
-    <hyperlink ref="A115" r:id="rId43" display="g15167186038@163.com"/>
-    <hyperlink ref="A116" r:id="rId44" display="h15167186038@163.com"/>
-    <hyperlink ref="A117" r:id="rId45" display="l15167186038@163.com"/>
-    <hyperlink ref="A118" r:id="rId46" display="j15167186038@163.com"/>
-    <hyperlink ref="A111" r:id="rId50" display="c15167186038@163.com" tooltip="mailto:c15957826243@163.com"/>
-    <hyperlink ref="A112" r:id="rId51" display="d15167186038@163.com" tooltip="mailto:d15957826243@163.com"/>
-    <hyperlink ref="A113" r:id="rId52" display="e15167186038@163.com" tooltip="mailto:e15957826243@163.com"/>
-    <hyperlink ref="A114" r:id="rId53" display="f15167186038@163.com" tooltip="mailto:f15957826243@163.com"/>
-    <hyperlink ref="A64" r:id="rId74" display="ag15957826243@163.com"/>
-    <hyperlink ref="A46" r:id="rId75" display="af13587172463@163.com"/>
-    <hyperlink ref="A47" r:id="rId76" display="an13587172463@163.com" tooltip="mailto:an13587172463@163.com"/>
-    <hyperlink ref="A48" r:id="rId77" display="ao13587172463@163.com" tooltip="mailto:ao13587172463@163.com"/>
-    <hyperlink ref="A55" r:id="rId78" display="k13757098596@163.com"/>
-    <hyperlink ref="A56" r:id="rId79" display="m13757098596@163.com"/>
+    <hyperlink ref="A4" r:id="rId54" display="d15158015845@163.com" tooltip="mailto:d15158015845@163.com"/>
+    <hyperlink ref="A43" r:id="rId55" display="ggg13587172463@163.com" tooltip="mailto:ggg13587172463@163.com"/>
+    <hyperlink ref="A65" r:id="rId3" display="a15157887349@163.com" tooltip="mailto:a15157887349@163.com"/>
+    <hyperlink ref="A66" r:id="rId42" display="b15157887349@163.com" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A71" r:id="rId43" display="g15157887349@163.com"/>
+    <hyperlink ref="A72" r:id="rId44" display="h15157887349@163.com"/>
+    <hyperlink ref="A73" r:id="rId45" display="l15157887349@163.com"/>
+    <hyperlink ref="A74" r:id="rId46" display="j15157887349@163.com"/>
+    <hyperlink ref="A67" r:id="rId50" display="c15157887349@163.com" tooltip="mailto:c15957826243@163.com"/>
+    <hyperlink ref="A68" r:id="rId51" display="d15157887349@163.com" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A69" r:id="rId52" display="e15157887349@163.com" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A70" r:id="rId53" display="f15157887349@163.com" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A44" r:id="rId56" display="ah13587172463@163.com" tooltip="mailto:ah13587172463@163.com"/>
+    <hyperlink ref="A45" r:id="rId57" display="am13587172463@163.com" tooltip="mailto:am13587172463@163.com"/>
+    <hyperlink ref="A75" r:id="rId58" display="k15157887349@163.com" tooltip="mailto:k15157887349@163.com"/>
+    <hyperlink ref="A76" r:id="rId3" display="a13626784727@163.com" tooltip="mailto:a15157887349@163.com"/>
+    <hyperlink ref="A77" r:id="rId42" display="b13626784727@163.com" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A82" r:id="rId43" display="g13626784727@163.com"/>
+    <hyperlink ref="A83" r:id="rId44" display="h13626784727@163.com"/>
+    <hyperlink ref="A84" r:id="rId45" display="l13626784727@163.com"/>
+    <hyperlink ref="A85" r:id="rId46" display="j13626784727@163.com"/>
+    <hyperlink ref="A78" r:id="rId50" display="c13626784727@163.com" tooltip="mailto:c15957826243@163.com"/>
+    <hyperlink ref="A79" r:id="rId51" display="d13626784727@163.com" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A80" r:id="rId52" display="e13626784727@163.com" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A81" r:id="rId53" display="f13626784727@163.com" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A86" r:id="rId59" display="k13626784727@163.com" tooltip="mailto:k13626784727@163.com"/>
+    <hyperlink ref="A87" r:id="rId60" display="m13626784727@163.com" tooltip="mailto:m13626784727@163.com"/>
+    <hyperlink ref="A88" r:id="rId61" display="n13626784727@163.com" tooltip="mailto:n13626784727@163.com"/>
+    <hyperlink ref="A89" r:id="rId62" display="o13626784727@163.com" tooltip="mailto:o13626784727@163.com"/>
+    <hyperlink ref="A90" r:id="rId63" display="p13626784727@163.com" tooltip="mailto:p13626784727@163.com"/>
+    <hyperlink ref="A91" r:id="rId64" display="c15355785681@163.com" tooltip="mailto:c15355785681@163.com"/>
+    <hyperlink ref="A92" r:id="rId42" display="b15355785681@163.com" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A97" r:id="rId43" display="g15355785681@163.com"/>
+    <hyperlink ref="A98" r:id="rId44" display="h15355785681@163.com"/>
+    <hyperlink ref="A99" r:id="rId45" display="l15355785681@163.com"/>
+    <hyperlink ref="A100" r:id="rId46" display="j15355785681@163.com"/>
+    <hyperlink ref="A93" r:id="rId65" display="a15355785681@163.com" tooltip="mailto:a15355785681@163.com"/>
+    <hyperlink ref="A94" r:id="rId51" display="d15355785681@163.com" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A95" r:id="rId52" display="e15355785681@163.com" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A96" r:id="rId53" display="f15355785681@163.com" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A101" r:id="rId65" display="a15167186038@163.com" tooltip="mailto:a15355785681@163.com"/>
+    <hyperlink ref="A102" r:id="rId42" display="b15167186038@163.com" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A107" r:id="rId43" display="g15167186038@163.com"/>
+    <hyperlink ref="A108" r:id="rId44" display="h15167186038@163.com"/>
+    <hyperlink ref="A109" r:id="rId45" display="l15167186038@163.com"/>
+    <hyperlink ref="A110" r:id="rId46" display="j15167186038@163.com"/>
+    <hyperlink ref="A103" r:id="rId50" display="c15167186038@163.com" tooltip="mailto:c15957826243@163.com"/>
+    <hyperlink ref="A104" r:id="rId51" display="d15167186038@163.com" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A105" r:id="rId52" display="e15167186038@163.com" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A106" r:id="rId53" display="f15167186038@163.com" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A64" r:id="rId66" display="ag15957826243@163.com"/>
+    <hyperlink ref="A46" r:id="rId67" display="af13587172463@163.com"/>
+    <hyperlink ref="A47" r:id="rId68" display="an13587172463@163.com" tooltip="mailto:an13587172463@163.com"/>
+    <hyperlink ref="A48" r:id="rId69" display="ao13587172463@163.com" tooltip="mailto:ao13587172463@163.com"/>
+    <hyperlink ref="A55" r:id="rId70" display="k13757098596@163.com"/>
+    <hyperlink ref="A56" r:id="rId71" display="m13757098596@163.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3457,7 +3346,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>11</v>
@@ -3466,7 +3355,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3527,49 +3416,49 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="14" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:5">
       <c r="A11" s="15" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>9</v>
@@ -3578,43 +3467,43 @@
         <v>9</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="E11" s="18"/>
     </row>
     <row r="12" ht="14.25" spans="1:5">
       <c r="A12" s="19" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="E12" s="21"/>
     </row>
     <row r="13" ht="14.25" spans="1:5">
       <c r="A13" s="22" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="E13" s="21"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="11" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>5</v>
@@ -3623,40 +3512,40 @@
         <v>5</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="7" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="9" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>9</v>
@@ -3665,7 +3554,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/login.xlsx
+++ b/src/main/resources/login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="16425" windowHeight="6840"/>
   </bookViews>
   <sheets>
     <sheet name="账号信息" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="149">
   <si>
     <t>Account</t>
   </si>
@@ -471,8 +471,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -514,8 +514,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,36 +527,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -575,6 +546,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -583,8 +568,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,45 +630,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -700,60 +700,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -766,7 +712,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,19 +742,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,7 +796,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,31 +832,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,21 +868,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -893,24 +878,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,8 +900,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -956,11 +958,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -972,10 +972,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -987,13 +987,13 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1002,115 +1002,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1519,8 +1519,8 @@
   <sheetPr/>
   <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3190,13 +3190,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="26.375" customWidth="1"/>
     <col min="2" max="3" width="20.75" customWidth="1"/>
@@ -3246,54 +3246,39 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>12</v>
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>57</v>
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="an13587172463@163.com" tooltip="mailto:an13587172463@163.com"/>
-    <hyperlink ref="A4" r:id="rId2" display="ao13587172463@163.com" tooltip="mailto:ao13587172463@163.com"/>
-    <hyperlink ref="A2" r:id="rId3" display="a13587172463@163.com" tooltip="mailto:a15157887349@163.com"/>
-    <hyperlink ref="A5" r:id="rId4" display="a13757098596@163.com" tooltip="mailto:a13757098596@163.com"/>
-    <hyperlink ref="A6" r:id="rId5" display="b13757098596@163.com" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A2" r:id="rId2" display="a13587172463@163.com" tooltip="mailto:a15157887349@163.com"/>
+    <hyperlink ref="A5" r:id="rId3" display="b15158015845@163.com" tooltip="mailto:b15158015845@163.com"/>
+    <hyperlink ref="A4" r:id="rId4" display="a15158015845@163.com" tooltip="mailto:a15158015845@163.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/login.xlsx
+++ b/src/main/resources/login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16425" windowHeight="6840"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="账号信息" sheetId="2" r:id="rId1"/>
@@ -470,10 +470,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -516,7 +516,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,29 +628,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -700,31 +700,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,6 +731,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,12 +808,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -839,6 +815,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,17 +867,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -893,15 +902,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -941,17 +941,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -972,145 +972,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1519,8 +1519,8 @@
   <sheetPr/>
   <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3074,7 +3074,7 @@
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="b15158015845@163.com" tooltip="mailto:b15158015845@163.com"/>
     <hyperlink ref="A2" r:id="rId2" display="a15158015845@163.com" tooltip="mailto:a15158015845@163.com"/>
-    <hyperlink ref="A5" r:id="rId3" display="a13587172463@163.com" tooltip="mailto:a15157887349@163.com"/>
+    <hyperlink ref="A5" r:id="rId3" display="a13587172463@163.com" tooltip="mailto:a13587172463@163.com"/>
     <hyperlink ref="A6" r:id="rId4" display="b13587172463@163.com" tooltip="mailto:b15157887349@163.com"/>
     <hyperlink ref="A7" r:id="rId5" display="n13587172463@163.com" tooltip="mailto:n13587172463@163.com"/>
     <hyperlink ref="A8" r:id="rId6" display="o13587172463@163.com" tooltip="mailto:o13587172463@163.com"/>
@@ -3127,7 +3127,7 @@
     <hyperlink ref="A63" r:id="rId53" display="f15957826243@163.com" tooltip="mailto:f15957826243@163.com"/>
     <hyperlink ref="A4" r:id="rId54" display="d15158015845@163.com" tooltip="mailto:d15158015845@163.com"/>
     <hyperlink ref="A43" r:id="rId55" display="ggg13587172463@163.com" tooltip="mailto:ggg13587172463@163.com"/>
-    <hyperlink ref="A65" r:id="rId3" display="a15157887349@163.com" tooltip="mailto:a15157887349@163.com"/>
+    <hyperlink ref="A65" r:id="rId56" display="a15157887349@163.com" tooltip="mailto:a15157887349@163.com"/>
     <hyperlink ref="A66" r:id="rId42" display="b15157887349@163.com" tooltip="mailto:b13757098596@163.com"/>
     <hyperlink ref="A71" r:id="rId43" display="g15157887349@163.com"/>
     <hyperlink ref="A72" r:id="rId44" display="h15157887349@163.com"/>
@@ -3137,10 +3137,10 @@
     <hyperlink ref="A68" r:id="rId51" display="d15157887349@163.com" tooltip="mailto:d15957826243@163.com"/>
     <hyperlink ref="A69" r:id="rId52" display="e15157887349@163.com" tooltip="mailto:e15957826243@163.com"/>
     <hyperlink ref="A70" r:id="rId53" display="f15157887349@163.com" tooltip="mailto:f15957826243@163.com"/>
-    <hyperlink ref="A44" r:id="rId56" display="ah13587172463@163.com" tooltip="mailto:ah13587172463@163.com"/>
-    <hyperlink ref="A45" r:id="rId57" display="am13587172463@163.com" tooltip="mailto:am13587172463@163.com"/>
-    <hyperlink ref="A75" r:id="rId58" display="k15157887349@163.com" tooltip="mailto:k15157887349@163.com"/>
-    <hyperlink ref="A76" r:id="rId3" display="a13626784727@163.com" tooltip="mailto:a15157887349@163.com"/>
+    <hyperlink ref="A44" r:id="rId57" display="ah13587172463@163.com" tooltip="mailto:ah13587172463@163.com"/>
+    <hyperlink ref="A45" r:id="rId58" display="am13587172463@163.com" tooltip="mailto:am13587172463@163.com"/>
+    <hyperlink ref="A75" r:id="rId59" display="k15157887349@163.com" tooltip="mailto:k15157887349@163.com"/>
+    <hyperlink ref="A76" r:id="rId56" display="a13626784727@163.com" tooltip="mailto:a15157887349@163.com"/>
     <hyperlink ref="A77" r:id="rId42" display="b13626784727@163.com" tooltip="mailto:b13757098596@163.com"/>
     <hyperlink ref="A82" r:id="rId43" display="g13626784727@163.com"/>
     <hyperlink ref="A83" r:id="rId44" display="h13626784727@163.com"/>
@@ -3150,22 +3150,22 @@
     <hyperlink ref="A79" r:id="rId51" display="d13626784727@163.com" tooltip="mailto:d15957826243@163.com"/>
     <hyperlink ref="A80" r:id="rId52" display="e13626784727@163.com" tooltip="mailto:e15957826243@163.com"/>
     <hyperlink ref="A81" r:id="rId53" display="f13626784727@163.com" tooltip="mailto:f15957826243@163.com"/>
-    <hyperlink ref="A86" r:id="rId59" display="k13626784727@163.com" tooltip="mailto:k13626784727@163.com"/>
-    <hyperlink ref="A87" r:id="rId60" display="m13626784727@163.com" tooltip="mailto:m13626784727@163.com"/>
-    <hyperlink ref="A88" r:id="rId61" display="n13626784727@163.com" tooltip="mailto:n13626784727@163.com"/>
-    <hyperlink ref="A89" r:id="rId62" display="o13626784727@163.com" tooltip="mailto:o13626784727@163.com"/>
-    <hyperlink ref="A90" r:id="rId63" display="p13626784727@163.com" tooltip="mailto:p13626784727@163.com"/>
-    <hyperlink ref="A91" r:id="rId64" display="c15355785681@163.com" tooltip="mailto:c15355785681@163.com"/>
+    <hyperlink ref="A86" r:id="rId60" display="k13626784727@163.com" tooltip="mailto:k13626784727@163.com"/>
+    <hyperlink ref="A87" r:id="rId61" display="m13626784727@163.com" tooltip="mailto:m13626784727@163.com"/>
+    <hyperlink ref="A88" r:id="rId62" display="n13626784727@163.com" tooltip="mailto:n13626784727@163.com"/>
+    <hyperlink ref="A89" r:id="rId63" display="o13626784727@163.com" tooltip="mailto:o13626784727@163.com"/>
+    <hyperlink ref="A90" r:id="rId64" display="p13626784727@163.com" tooltip="mailto:p13626784727@163.com"/>
+    <hyperlink ref="A91" r:id="rId65" display="c15355785681@163.com" tooltip="mailto:c15355785681@163.com"/>
     <hyperlink ref="A92" r:id="rId42" display="b15355785681@163.com" tooltip="mailto:b13757098596@163.com"/>
     <hyperlink ref="A97" r:id="rId43" display="g15355785681@163.com"/>
     <hyperlink ref="A98" r:id="rId44" display="h15355785681@163.com"/>
     <hyperlink ref="A99" r:id="rId45" display="l15355785681@163.com"/>
     <hyperlink ref="A100" r:id="rId46" display="j15355785681@163.com"/>
-    <hyperlink ref="A93" r:id="rId65" display="a15355785681@163.com" tooltip="mailto:a15355785681@163.com"/>
+    <hyperlink ref="A93" r:id="rId66" display="a15355785681@163.com" tooltip="mailto:a15355785681@163.com"/>
     <hyperlink ref="A94" r:id="rId51" display="d15355785681@163.com" tooltip="mailto:d15957826243@163.com"/>
     <hyperlink ref="A95" r:id="rId52" display="e15355785681@163.com" tooltip="mailto:e15957826243@163.com"/>
     <hyperlink ref="A96" r:id="rId53" display="f15355785681@163.com" tooltip="mailto:f15957826243@163.com"/>
-    <hyperlink ref="A101" r:id="rId65" display="a15167186038@163.com" tooltip="mailto:a15355785681@163.com"/>
+    <hyperlink ref="A101" r:id="rId66" display="a15167186038@163.com" tooltip="mailto:a15355785681@163.com"/>
     <hyperlink ref="A102" r:id="rId42" display="b15167186038@163.com" tooltip="mailto:b13757098596@163.com"/>
     <hyperlink ref="A107" r:id="rId43" display="g15167186038@163.com"/>
     <hyperlink ref="A108" r:id="rId44" display="h15167186038@163.com"/>
@@ -3175,12 +3175,12 @@
     <hyperlink ref="A104" r:id="rId51" display="d15167186038@163.com" tooltip="mailto:d15957826243@163.com"/>
     <hyperlink ref="A105" r:id="rId52" display="e15167186038@163.com" tooltip="mailto:e15957826243@163.com"/>
     <hyperlink ref="A106" r:id="rId53" display="f15167186038@163.com" tooltip="mailto:f15957826243@163.com"/>
-    <hyperlink ref="A64" r:id="rId66" display="ag15957826243@163.com"/>
-    <hyperlink ref="A46" r:id="rId67" display="af13587172463@163.com"/>
-    <hyperlink ref="A47" r:id="rId68" display="an13587172463@163.com" tooltip="mailto:an13587172463@163.com"/>
-    <hyperlink ref="A48" r:id="rId69" display="ao13587172463@163.com" tooltip="mailto:ao13587172463@163.com"/>
-    <hyperlink ref="A55" r:id="rId70" display="k13757098596@163.com"/>
-    <hyperlink ref="A56" r:id="rId71" display="m13757098596@163.com"/>
+    <hyperlink ref="A64" r:id="rId67" display="ag15957826243@163.com"/>
+    <hyperlink ref="A46" r:id="rId68" display="af13587172463@163.com"/>
+    <hyperlink ref="A47" r:id="rId69" display="an13587172463@163.com" tooltip="mailto:an13587172463@163.com"/>
+    <hyperlink ref="A48" r:id="rId70" display="ao13587172463@163.com" tooltip="mailto:ao13587172463@163.com"/>
+    <hyperlink ref="A55" r:id="rId71" display="k13757098596@163.com"/>
+    <hyperlink ref="A56" r:id="rId72" display="m13757098596@163.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3193,7 +3193,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>

--- a/src/main/resources/login.xlsx
+++ b/src/main/resources/login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="19200" windowHeight="9310"/>
   </bookViews>
   <sheets>
     <sheet name="账号信息" sheetId="2" r:id="rId1"/>
@@ -30,19 +30,19 @@
     <t>UserName</t>
   </si>
   <si>
+    <t>d15158015845@163.com</t>
+  </si>
+  <si>
+    <t>ylj123</t>
+  </si>
+  <si>
+    <t>叶鹏</t>
+  </si>
+  <si>
+    <t>b15158015845@163.com</t>
+  </si>
+  <si>
     <t>a15158015845@163.com</t>
-  </si>
-  <si>
-    <t>ylj123</t>
-  </si>
-  <si>
-    <t>叶鹏</t>
-  </si>
-  <si>
-    <t>b15158015845@163.com</t>
-  </si>
-  <si>
-    <t>d15158015845@163.com</t>
   </si>
   <si>
     <t>zxb123</t>
@@ -470,10 +470,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -514,24 +514,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,14 +568,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,7 +583,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,6 +613,14 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -600,44 +636,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -700,7 +700,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,7 +712,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,7 +766,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,66 +784,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -814,7 +796,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,19 +820,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,6 +867,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -878,65 +887,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -959,8 +909,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -972,10 +972,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -987,13 +987,13 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1002,115 +1002,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1519,15 +1519,15 @@
   <sheetPr/>
   <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="26.125" customWidth="1"/>
-    <col min="2" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="26.1272727272727" customWidth="1"/>
+    <col min="2" max="3" width="17.7545454545455" customWidth="1"/>
+    <col min="4" max="4" width="13.8727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3073,7 +3073,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="b15158015845@163.com" tooltip="mailto:b15158015845@163.com"/>
-    <hyperlink ref="A2" r:id="rId2" display="a15158015845@163.com" tooltip="mailto:a15158015845@163.com"/>
+    <hyperlink ref="A2" r:id="rId2" display="d15158015845@163.com" tooltip="mailto:d15158015845@163.com"/>
     <hyperlink ref="A5" r:id="rId3" display="a13587172463@163.com" tooltip="mailto:a13587172463@163.com"/>
     <hyperlink ref="A6" r:id="rId4" display="b13587172463@163.com" tooltip="mailto:b15157887349@163.com"/>
     <hyperlink ref="A7" r:id="rId5" display="n13587172463@163.com" tooltip="mailto:n13587172463@163.com"/>
@@ -3125,7 +3125,7 @@
     <hyperlink ref="A61" r:id="rId51" display="d15957826243@163.com" tooltip="mailto:d15957826243@163.com"/>
     <hyperlink ref="A62" r:id="rId52" display="e15957826243@163.com" tooltip="mailto:e15957826243@163.com"/>
     <hyperlink ref="A63" r:id="rId53" display="f15957826243@163.com" tooltip="mailto:f15957826243@163.com"/>
-    <hyperlink ref="A4" r:id="rId54" display="d15158015845@163.com" tooltip="mailto:d15158015845@163.com"/>
+    <hyperlink ref="A4" r:id="rId54" display="a15158015845@163.com" tooltip="mailto:a15158015845@163.com"/>
     <hyperlink ref="A43" r:id="rId55" display="ggg13587172463@163.com" tooltip="mailto:ggg13587172463@163.com"/>
     <hyperlink ref="A65" r:id="rId56" display="a15157887349@163.com" tooltip="mailto:a15157887349@163.com"/>
     <hyperlink ref="A66" r:id="rId42" display="b15157887349@163.com" tooltip="mailto:b13757098596@163.com"/>
@@ -3196,11 +3196,11 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="26.375" customWidth="1"/>
-    <col min="2" max="3" width="20.75" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="26.3727272727273" customWidth="1"/>
+    <col min="2" max="3" width="20.7545454545455" customWidth="1"/>
+    <col min="4" max="4" width="13.8727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3247,7 +3247,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
@@ -3294,11 +3294,11 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="26.125" customWidth="1"/>
-    <col min="2" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="26.1272727272727" customWidth="1"/>
+    <col min="2" max="3" width="17.7545454545455" customWidth="1"/>
+    <col min="4" max="4" width="13.8727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3317,7 +3317,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -3441,7 +3441,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:5">
+    <row r="11" ht="15" spans="1:5">
       <c r="A11" s="15" t="s">
         <v>141</v>
       </c>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="E11" s="18"/>
     </row>
-    <row r="12" ht="14.25" spans="1:5">
+    <row r="12" ht="15" spans="1:5">
       <c r="A12" s="19" t="s">
         <v>143</v>
       </c>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="E12" s="21"/>
     </row>
-    <row r="13" ht="14.25" spans="1:5">
+    <row r="13" ht="15" spans="1:5">
       <c r="A13" s="22" t="s">
         <v>146</v>
       </c>

--- a/src/main/resources/login.xlsx
+++ b/src/main/resources/login.xlsx
@@ -33,19 +33,19 @@
     <t>d15158015845@163.com</t>
   </si>
   <si>
+    <t>zxb123</t>
+  </si>
+  <si>
+    <t>叶鹏</t>
+  </si>
+  <si>
+    <t>b15158015845@163.com</t>
+  </si>
+  <si>
     <t>ylj123</t>
   </si>
   <si>
-    <t>叶鹏</t>
-  </si>
-  <si>
-    <t>b15158015845@163.com</t>
-  </si>
-  <si>
     <t>a15158015845@163.com</t>
-  </si>
-  <si>
-    <t>zxb123</t>
   </si>
   <si>
     <t>a13587172463@163.com</t>
@@ -471,9 +471,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -515,67 +515,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,10 +530,53 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -604,8 +587,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,24 +636,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,25 +706,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,55 +718,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,7 +742,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,13 +796,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,13 +814,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,30 +867,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -915,6 +891,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -926,15 +920,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,6 +949,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -972,145 +972,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1519,8 +1519,8 @@
   <sheetPr/>
   <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1563,10 +1563,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>6</v>
@@ -1574,13 +1574,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>6</v>
@@ -2053,10 +2053,10 @@
         <v>45</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>12</v>
@@ -2067,10 +2067,10 @@
         <v>46</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>12</v>
@@ -2081,10 +2081,10 @@
         <v>47</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>12</v>
@@ -2095,10 +2095,10 @@
         <v>48</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>12</v>
@@ -2109,10 +2109,10 @@
         <v>49</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>12</v>
@@ -2123,10 +2123,10 @@
         <v>50</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>12</v>
@@ -2137,10 +2137,10 @@
         <v>51</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>12</v>
@@ -2151,10 +2151,10 @@
         <v>52</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>12</v>
@@ -2165,10 +2165,10 @@
         <v>53</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>12</v>
@@ -2179,10 +2179,10 @@
         <v>54</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>12</v>
@@ -2193,10 +2193,10 @@
         <v>55</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>12</v>
@@ -2207,10 +2207,10 @@
         <v>56</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>57</v>
@@ -2221,10 +2221,10 @@
         <v>58</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>57</v>
@@ -2235,10 +2235,10 @@
         <v>59</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>57</v>
@@ -2249,10 +2249,10 @@
         <v>60</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>57</v>
@@ -2263,10 +2263,10 @@
         <v>61</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>57</v>
@@ -2277,10 +2277,10 @@
         <v>62</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>57</v>
@@ -2291,10 +2291,10 @@
         <v>63</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>57</v>
@@ -2305,10 +2305,10 @@
         <v>64</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>57</v>
@@ -2333,10 +2333,10 @@
         <v>68</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>67</v>
@@ -2347,10 +2347,10 @@
         <v>69</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>70</v>
@@ -2403,10 +2403,10 @@
         <v>76</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>73</v>
@@ -2417,10 +2417,10 @@
         <v>77</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>73</v>
@@ -2431,10 +2431,10 @@
         <v>78</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D65" s="26" t="s">
         <v>79</v>
@@ -2445,10 +2445,10 @@
         <v>80</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D66" s="26" t="s">
         <v>79</v>
@@ -2459,10 +2459,10 @@
         <v>81</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D67" s="26" t="s">
         <v>79</v>
@@ -2473,10 +2473,10 @@
         <v>82</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D68" s="26" t="s">
         <v>79</v>
@@ -2487,10 +2487,10 @@
         <v>83</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D69" s="26" t="s">
         <v>79</v>
@@ -2501,10 +2501,10 @@
         <v>84</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D70" s="26" t="s">
         <v>79</v>
@@ -2515,10 +2515,10 @@
         <v>85</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D71" s="26" t="s">
         <v>79</v>
@@ -2529,10 +2529,10 @@
         <v>86</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D72" s="26" t="s">
         <v>79</v>
@@ -2543,10 +2543,10 @@
         <v>87</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D73" s="26" t="s">
         <v>79</v>
@@ -2557,10 +2557,10 @@
         <v>88</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D74" s="26" t="s">
         <v>79</v>
@@ -2571,10 +2571,10 @@
         <v>89</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D75" s="26" t="s">
         <v>79</v>
@@ -2655,10 +2655,10 @@
         <v>97</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>92</v>
@@ -2669,10 +2669,10 @@
         <v>98</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>92</v>
@@ -2683,10 +2683,10 @@
         <v>99</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>92</v>
@@ -2697,10 +2697,10 @@
         <v>100</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>92</v>
@@ -2711,10 +2711,10 @@
         <v>101</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>92</v>
@@ -2725,10 +2725,10 @@
         <v>102</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>92</v>
@@ -2739,10 +2739,10 @@
         <v>103</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>92</v>
@@ -2753,10 +2753,10 @@
         <v>104</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>92</v>
@@ -2767,10 +2767,10 @@
         <v>105</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>92</v>
@@ -2781,10 +2781,10 @@
         <v>106</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>92</v>
@@ -2907,10 +2907,10 @@
         <v>117</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>109</v>
@@ -2921,10 +2921,10 @@
         <v>118</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>109</v>
@@ -2935,10 +2935,10 @@
         <v>119</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>120</v>
@@ -2949,10 +2949,10 @@
         <v>121</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>120</v>
@@ -2963,10 +2963,10 @@
         <v>122</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>120</v>
@@ -2977,10 +2977,10 @@
         <v>123</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>120</v>
@@ -2991,10 +2991,10 @@
         <v>124</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>120</v>
@@ -3005,10 +3005,10 @@
         <v>125</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>120</v>
@@ -3019,10 +3019,10 @@
         <v>126</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>120</v>
@@ -3033,10 +3033,10 @@
         <v>127</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>120</v>
@@ -3047,10 +3047,10 @@
         <v>128</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>120</v>
@@ -3061,10 +3061,10 @@
         <v>129</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>120</v>
@@ -3236,10 +3236,10 @@
         <v>54</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>12</v>
@@ -3247,13 +3247,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>6</v>
@@ -3264,10 +3264,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
@@ -3317,13 +3317,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>6</v>
@@ -3362,10 +3362,10 @@
         <v>56</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>57</v>
@@ -3446,10 +3446,10 @@
         <v>141</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>142</v>
@@ -3491,10 +3491,10 @@
         <v>78</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>79</v>
@@ -3533,10 +3533,10 @@
         <v>119</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>120</v>

--- a/src/main/resources/login.xlsx
+++ b/src/main/resources/login.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="9310"/>
+    <workbookView windowWidth="19200" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="账号信息" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
     <sheet name="主账号收取" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" refMode="R1C1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -470,9 +470,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -507,8 +507,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,67 +522,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,32 +538,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,7 +562,82 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -700,7 +700,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,7 +748,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,13 +796,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,25 +808,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,73 +832,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,63 +863,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -950,6 +893,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -964,6 +916,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -972,10 +972,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -984,16 +984,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1002,115 +1002,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1519,8 +1519,8 @@
   <sheetPr/>
   <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>

--- a/src/main/resources/login.xlsx
+++ b/src/main/resources/login.xlsx
@@ -471,9 +471,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -507,9 +507,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,7 +529,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,47 +628,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,59 +637,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -700,37 +700,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,7 +784,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,85 +820,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,28 +867,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -917,32 +921,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,6 +949,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -972,145 +972,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1519,8 +1519,8 @@
   <sheetPr/>
   <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>

--- a/src/main/resources/login.xlsx
+++ b/src/main/resources/login.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="159">
   <si>
     <t>Account</t>
   </si>
@@ -406,6 +406,36 @@
   </si>
   <si>
     <t>j15167186038@163.com</t>
+  </si>
+  <si>
+    <t>k15167186038@163.com</t>
+  </si>
+  <si>
+    <t>m15167186038@163.com</t>
+  </si>
+  <si>
+    <t>n15167186038@163.com</t>
+  </si>
+  <si>
+    <t>o15167186038@163.com</t>
+  </si>
+  <si>
+    <t>p15167186038@163.com</t>
+  </si>
+  <si>
+    <t>q15167186038@163.com</t>
+  </si>
+  <si>
+    <t>r15167186038@163.com</t>
+  </si>
+  <si>
+    <t>s15167186038@163.com</t>
+  </si>
+  <si>
+    <t>t15167186038@163.com</t>
+  </si>
+  <si>
+    <t>u15167186038@163.com</t>
   </si>
   <si>
     <t>a17706132072@163.com</t>
@@ -471,9 +501,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -508,7 +538,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,20 +587,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -550,63 +649,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -622,22 +667,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -700,7 +730,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,13 +778,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,13 +790,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,7 +802,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,13 +814,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,13 +838,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,43 +868,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,17 +897,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -900,23 +924,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -941,15 +965,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -964,6 +979,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -972,10 +1002,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -984,16 +1014,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1002,115 +1032,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1178,6 +1208,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="10" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1188,9 +1221,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1517,10 +1547,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:B49"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2427,156 +2457,156 @@
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C65" s="26" t="s">
+      <c r="C65" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="26" t="s">
+      <c r="D65" s="27" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="C66" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="26" t="s">
+      <c r="D66" s="27" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="26" t="s">
+      <c r="B67" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="C67" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="26" t="s">
+      <c r="D67" s="27" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="26" t="s">
+      <c r="C68" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="26" t="s">
+      <c r="D68" s="27" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="26" t="s">
+      <c r="C69" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="26" t="s">
+      <c r="D69" s="27" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="26" t="s">
+      <c r="C70" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="26" t="s">
+      <c r="D70" s="27" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="C71" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="26" t="s">
+      <c r="D71" s="27" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B72" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="26" t="s">
+      <c r="B72" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="27" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B73" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="26" t="s">
+      <c r="B73" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="27" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="27" t="s">
+      <c r="A74" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B74" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="26" t="s">
+      <c r="B74" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="27" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="27" t="s">
+      <c r="A75" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="B75" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="26" t="s">
+      <c r="B75" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="27" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2707,7 +2737,7 @@
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="29" t="s">
         <v>101</v>
       </c>
       <c r="B85" s="6" t="s">
@@ -2721,7 +2751,7 @@
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="28" t="s">
+      <c r="A86" s="29" t="s">
         <v>102</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -2735,7 +2765,7 @@
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="28" t="s">
+      <c r="A87" s="29" t="s">
         <v>103</v>
       </c>
       <c r="B87" s="6" t="s">
@@ -2749,7 +2779,7 @@
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="28" t="s">
+      <c r="A88" s="29" t="s">
         <v>104</v>
       </c>
       <c r="B88" s="6" t="s">
@@ -2763,7 +2793,7 @@
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="28" t="s">
+      <c r="A89" s="29" t="s">
         <v>105</v>
       </c>
       <c r="B89" s="6" t="s">
@@ -2777,7 +2807,7 @@
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="28" t="s">
+      <c r="A90" s="29" t="s">
         <v>106</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -3057,7 +3087,7 @@
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="29" t="s">
+      <c r="A110" s="25" t="s">
         <v>129</v>
       </c>
       <c r="B110" s="10" t="s">
@@ -3067,6 +3097,146 @@
         <v>5</v>
       </c>
       <c r="D110" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" s="10" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3181,6 +3351,16 @@
     <hyperlink ref="A48" r:id="rId70" display="ao13587172463@163.com" tooltip="mailto:ao13587172463@163.com"/>
     <hyperlink ref="A55" r:id="rId71" display="k13757098596@163.com"/>
     <hyperlink ref="A56" r:id="rId72" display="m13757098596@163.com"/>
+    <hyperlink ref="A111" r:id="rId73" display="k15167186038@163.com" tooltip="mailto:k15167186038@163.com"/>
+    <hyperlink ref="A112" r:id="rId74" display="m15167186038@163.com" tooltip="mailto:m15167186038@163.com"/>
+    <hyperlink ref="A117" r:id="rId75" display="r15167186038@163.com" tooltip="mailto:r15167186038@163.com"/>
+    <hyperlink ref="A118" r:id="rId76" display="s15167186038@163.com" tooltip="mailto:s15167186038@163.com"/>
+    <hyperlink ref="A119" r:id="rId77" display="t15167186038@163.com" tooltip="mailto:t15167186038@163.com"/>
+    <hyperlink ref="A120" r:id="rId78" display="u15167186038@163.com" tooltip="mailto:u15167186038@163.com"/>
+    <hyperlink ref="A113" r:id="rId79" display="n15167186038@163.com" tooltip="mailto:n15167186038@163.com"/>
+    <hyperlink ref="A114" r:id="rId80" display="o15167186038@163.com" tooltip="mailto:o15167186038@163.com"/>
+    <hyperlink ref="A115" r:id="rId81" display="p15167186038@163.com" tooltip="mailto:p15167186038@163.com"/>
+    <hyperlink ref="A116" r:id="rId82" display="q15167186038@163.com" tooltip="mailto:q15167186038@163.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3190,13 +3370,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="26.3727272727273" customWidth="1"/>
     <col min="2" max="3" width="20.7545454545455" customWidth="1"/>
@@ -3246,39 +3426,159 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
+      <c r="A4" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
+      <c r="A5" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="an13587172463@163.com" tooltip="mailto:an13587172463@163.com"/>
     <hyperlink ref="A2" r:id="rId2" display="a13587172463@163.com" tooltip="mailto:a15157887349@163.com"/>
-    <hyperlink ref="A5" r:id="rId3" display="b15158015845@163.com" tooltip="mailto:b15158015845@163.com"/>
-    <hyperlink ref="A4" r:id="rId4" display="a15158015845@163.com" tooltip="mailto:a15158015845@163.com"/>
+    <hyperlink ref="A4" r:id="rId3" display="k15167186038@163.com" tooltip="mailto:k15167186038@163.com"/>
+    <hyperlink ref="A5" r:id="rId4" display="m15167186038@163.com" tooltip="mailto:m15167186038@163.com"/>
+    <hyperlink ref="A10" r:id="rId5" display="r15167186038@163.com" tooltip="mailto:r15167186038@163.com"/>
+    <hyperlink ref="A11" r:id="rId6" display="s15167186038@163.com" tooltip="mailto:s15167186038@163.com"/>
+    <hyperlink ref="A12" r:id="rId7" display="t15167186038@163.com" tooltip="mailto:t15167186038@163.com"/>
+    <hyperlink ref="A13" r:id="rId8" display="u15167186038@163.com" tooltip="mailto:u15167186038@163.com"/>
+    <hyperlink ref="A6" r:id="rId9" display="n15167186038@163.com" tooltip="mailto:n15167186038@163.com"/>
+    <hyperlink ref="A7" r:id="rId10" display="o15167186038@163.com" tooltip="mailto:o15167186038@163.com"/>
+    <hyperlink ref="A8" r:id="rId11" display="p15167186038@163.com" tooltip="mailto:p15167186038@163.com"/>
+    <hyperlink ref="A9" r:id="rId12" display="q15167186038@163.com" tooltip="mailto:q15167186038@163.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3331,7 +3631,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>11</v>
@@ -3340,7 +3640,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3401,49 +3701,49 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="14" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:5">
       <c r="A11" s="15" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>5</v>
@@ -3452,37 +3752,37 @@
         <v>5</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E11" s="18"/>
     </row>
     <row r="12" ht="15" spans="1:5">
       <c r="A12" s="19" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E12" s="21"/>
     </row>
     <row r="13" ht="15" spans="1:5">
       <c r="A13" s="22" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E13" s="21"/>
     </row>

--- a/src/main/resources/login.xlsx
+++ b/src/main/resources/login.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="160">
   <si>
     <t>Account</t>
   </si>
@@ -45,397 +45,400 @@
     <t>ylj123</t>
   </si>
   <si>
+    <t>e15158015845@163.com</t>
+  </si>
+  <si>
+    <t>a13587172463@163.com</t>
+  </si>
+  <si>
+    <t>wxl123</t>
+  </si>
+  <si>
+    <t>王新兰</t>
+  </si>
+  <si>
+    <t>b13587172463@163.com</t>
+  </si>
+  <si>
+    <t>n13587172463@163.com</t>
+  </si>
+  <si>
+    <t>o13587172463@163.com</t>
+  </si>
+  <si>
+    <t>p13587172463@163.com</t>
+  </si>
+  <si>
+    <t>qq13587172463@163.com</t>
+  </si>
+  <si>
+    <t>r13587172463@163.com</t>
+  </si>
+  <si>
+    <t>s13587172463@163.com</t>
+  </si>
+  <si>
+    <t>t13587172463@163.com</t>
+  </si>
+  <si>
+    <t>u13587172463@163.com</t>
+  </si>
+  <si>
+    <t>v13587172463@163.com</t>
+  </si>
+  <si>
+    <t>w13587172463@163.com</t>
+  </si>
+  <si>
+    <t>x13587172463@163.com</t>
+  </si>
+  <si>
+    <t>y13587172463@163.com</t>
+  </si>
+  <si>
+    <t>aa13587172463@163.com</t>
+  </si>
+  <si>
+    <t>bb13587172463@163.com</t>
+  </si>
+  <si>
+    <t>cc13587172463@163.com</t>
+  </si>
+  <si>
+    <t>dd13587172463@163.com</t>
+  </si>
+  <si>
+    <t>ee13587172463@163.com</t>
+  </si>
+  <si>
+    <t>ff13587172463@163.com</t>
+  </si>
+  <si>
+    <t>gg13587172463@163.com</t>
+  </si>
+  <si>
+    <t>hh13587172463@163.com</t>
+  </si>
+  <si>
+    <t>ll13587172463@163.com</t>
+  </si>
+  <si>
+    <t>jj13587172463@163.com</t>
+  </si>
+  <si>
+    <t>kk13587172463@163.com</t>
+  </si>
+  <si>
+    <t>mm13587172463@163.com</t>
+  </si>
+  <si>
+    <t>nn13587172463@163.com</t>
+  </si>
+  <si>
+    <t>oo13587172463@163.com</t>
+  </si>
+  <si>
+    <t>pp13587172463@163.com</t>
+  </si>
+  <si>
+    <t>rr13587172463@163.com</t>
+  </si>
+  <si>
+    <t>ss13587172463@163.com</t>
+  </si>
+  <si>
+    <t>tt13587172463@163.com</t>
+  </si>
+  <si>
+    <t>uu13587172463@163.com</t>
+  </si>
+  <si>
+    <t>vv13587172463@163.com</t>
+  </si>
+  <si>
+    <t>ww13587172463@163.com</t>
+  </si>
+  <si>
+    <t>xx13587172463@163.com</t>
+  </si>
+  <si>
+    <t>yy13587172463@163.com</t>
+  </si>
+  <si>
+    <t>zz13587172463@163.com</t>
+  </si>
+  <si>
+    <t>ggg13587172463@163.com</t>
+  </si>
+  <si>
+    <t>ah13587172463@163.com</t>
+  </si>
+  <si>
+    <t>am13587172463@163.com</t>
+  </si>
+  <si>
+    <t>af13587172463@163.com</t>
+  </si>
+  <si>
+    <t>an13587172463@163.com</t>
+  </si>
+  <si>
+    <t>ao13587172463@163.com</t>
+  </si>
+  <si>
+    <t>a13757098596@163.com</t>
+  </si>
+  <si>
+    <t>毛小美</t>
+  </si>
+  <si>
+    <t>b13757098596@163.com</t>
+  </si>
+  <si>
+    <t>g13757098596@163.com</t>
+  </si>
+  <si>
+    <t>h13757098596@163.com</t>
+  </si>
+  <si>
+    <t>l13757098596@163.com</t>
+  </si>
+  <si>
+    <t>j13757098596@163.com</t>
+  </si>
+  <si>
+    <t>k13757098596@163.com</t>
+  </si>
+  <si>
+    <t>m13757098596@163.com</t>
+  </si>
+  <si>
+    <t>a15267310606@163.com</t>
+  </si>
+  <si>
+    <t>ylx123</t>
+  </si>
+  <si>
+    <t>杨兰香</t>
+  </si>
+  <si>
+    <t>b15267310606@163.com</t>
+  </si>
+  <si>
+    <t>c15267310606@163.com</t>
+  </si>
+  <si>
+    <t>杨兰香2</t>
+  </si>
+  <si>
+    <t>c15957826243@163.com</t>
+  </si>
+  <si>
+    <t>wjl123</t>
+  </si>
+  <si>
+    <t>王金兰</t>
+  </si>
+  <si>
+    <t>d15957826243@163.com</t>
+  </si>
+  <si>
+    <t>e15957826243@163.com</t>
+  </si>
+  <si>
+    <t>f15957826243@163.com</t>
+  </si>
+  <si>
+    <t>ag15957826243@163.com</t>
+  </si>
+  <si>
+    <t>a15157887349@163.com</t>
+  </si>
+  <si>
+    <t>叶林建</t>
+  </si>
+  <si>
+    <t>b15157887349@163.com</t>
+  </si>
+  <si>
+    <t>c15157887349@163.com</t>
+  </si>
+  <si>
+    <t>d15157887349@163.com</t>
+  </si>
+  <si>
+    <t>e15157887349@163.com</t>
+  </si>
+  <si>
+    <t>f15157887349@163.com</t>
+  </si>
+  <si>
+    <t>g15157887349@163.com</t>
+  </si>
+  <si>
+    <t>h15157887349@163.com</t>
+  </si>
+  <si>
+    <t>l15157887349@163.com</t>
+  </si>
+  <si>
+    <t>j15157887349@163.com</t>
+  </si>
+  <si>
+    <t>k15157887349@163.com</t>
+  </si>
+  <si>
+    <t>a13626784727@163.com</t>
+  </si>
+  <si>
+    <t>xfy123</t>
+  </si>
+  <si>
+    <t>夏发英</t>
+  </si>
+  <si>
+    <t>b13626784727@163.com</t>
+  </si>
+  <si>
+    <t>c13626784727@163.com</t>
+  </si>
+  <si>
+    <t>d13626784727@163.com</t>
+  </si>
+  <si>
+    <t>e13626784727@163.com</t>
+  </si>
+  <si>
+    <t>f13626784727@163.com</t>
+  </si>
+  <si>
+    <t>g13626784727@163.com</t>
+  </si>
+  <si>
+    <t>h13626784727@163.com</t>
+  </si>
+  <si>
+    <t>l13626784727@163.com</t>
+  </si>
+  <si>
+    <t>j13626784727@163.com</t>
+  </si>
+  <si>
+    <t>k13626784727@163.com</t>
+  </si>
+  <si>
+    <t>m13626784727@163.com</t>
+  </si>
+  <si>
+    <t>n13626784727@163.com</t>
+  </si>
+  <si>
+    <t>o13626784727@163.com</t>
+  </si>
+  <si>
+    <t>p13626784727@163.com</t>
+  </si>
+  <si>
+    <t>c15355785681@163.com</t>
+  </si>
+  <si>
+    <t>srw123</t>
+  </si>
+  <si>
+    <t>宋荣伟</t>
+  </si>
+  <si>
+    <t>b15355785681@163.com</t>
+  </si>
+  <si>
+    <t>a15355785681@163.com</t>
+  </si>
+  <si>
+    <t>d15355785681@163.com</t>
+  </si>
+  <si>
+    <t>e15355785681@163.com</t>
+  </si>
+  <si>
+    <t>f15355785681@163.com</t>
+  </si>
+  <si>
+    <t>g15355785681@163.com</t>
+  </si>
+  <si>
+    <t>h15355785681@163.com</t>
+  </si>
+  <si>
+    <t>l15355785681@163.com</t>
+  </si>
+  <si>
+    <t>j15355785681@163.com</t>
+  </si>
+  <si>
+    <t>a15167186038@163.com</t>
+  </si>
+  <si>
+    <t>蔡云飞</t>
+  </si>
+  <si>
+    <t>b15167186038@163.com</t>
+  </si>
+  <si>
+    <t>c15167186038@163.com</t>
+  </si>
+  <si>
+    <t>d15167186038@163.com</t>
+  </si>
+  <si>
+    <t>e15167186038@163.com</t>
+  </si>
+  <si>
+    <t>f15167186038@163.com</t>
+  </si>
+  <si>
+    <t>g15167186038@163.com</t>
+  </si>
+  <si>
+    <t>h15167186038@163.com</t>
+  </si>
+  <si>
+    <t>l15167186038@163.com</t>
+  </si>
+  <si>
+    <t>j15167186038@163.com</t>
+  </si>
+  <si>
+    <t>k15167186038@163.com</t>
+  </si>
+  <si>
+    <t>m15167186038@163.com</t>
+  </si>
+  <si>
+    <t>n15167186038@163.com</t>
+  </si>
+  <si>
+    <t>o15167186038@163.com</t>
+  </si>
+  <si>
+    <t>p15167186038@163.com</t>
+  </si>
+  <si>
+    <t>q15167186038@163.com</t>
+  </si>
+  <si>
+    <t>r15167186038@163.com</t>
+  </si>
+  <si>
+    <t>s15167186038@163.com</t>
+  </si>
+  <si>
+    <t>t15167186038@163.com</t>
+  </si>
+  <si>
+    <t>u15167186038@163.com</t>
+  </si>
+  <si>
     <t>a15158015845@163.com</t>
-  </si>
-  <si>
-    <t>a13587172463@163.com</t>
-  </si>
-  <si>
-    <t>wxl123</t>
-  </si>
-  <si>
-    <t>王新兰</t>
-  </si>
-  <si>
-    <t>b13587172463@163.com</t>
-  </si>
-  <si>
-    <t>n13587172463@163.com</t>
-  </si>
-  <si>
-    <t>o13587172463@163.com</t>
-  </si>
-  <si>
-    <t>p13587172463@163.com</t>
-  </si>
-  <si>
-    <t>qq13587172463@163.com</t>
-  </si>
-  <si>
-    <t>r13587172463@163.com</t>
-  </si>
-  <si>
-    <t>s13587172463@163.com</t>
-  </si>
-  <si>
-    <t>t13587172463@163.com</t>
-  </si>
-  <si>
-    <t>u13587172463@163.com</t>
-  </si>
-  <si>
-    <t>v13587172463@163.com</t>
-  </si>
-  <si>
-    <t>w13587172463@163.com</t>
-  </si>
-  <si>
-    <t>x13587172463@163.com</t>
-  </si>
-  <si>
-    <t>y13587172463@163.com</t>
-  </si>
-  <si>
-    <t>aa13587172463@163.com</t>
-  </si>
-  <si>
-    <t>bb13587172463@163.com</t>
-  </si>
-  <si>
-    <t>cc13587172463@163.com</t>
-  </si>
-  <si>
-    <t>dd13587172463@163.com</t>
-  </si>
-  <si>
-    <t>ee13587172463@163.com</t>
-  </si>
-  <si>
-    <t>ff13587172463@163.com</t>
-  </si>
-  <si>
-    <t>gg13587172463@163.com</t>
-  </si>
-  <si>
-    <t>hh13587172463@163.com</t>
-  </si>
-  <si>
-    <t>ll13587172463@163.com</t>
-  </si>
-  <si>
-    <t>jj13587172463@163.com</t>
-  </si>
-  <si>
-    <t>kk13587172463@163.com</t>
-  </si>
-  <si>
-    <t>mm13587172463@163.com</t>
-  </si>
-  <si>
-    <t>nn13587172463@163.com</t>
-  </si>
-  <si>
-    <t>oo13587172463@163.com</t>
-  </si>
-  <si>
-    <t>pp13587172463@163.com</t>
-  </si>
-  <si>
-    <t>rr13587172463@163.com</t>
-  </si>
-  <si>
-    <t>ss13587172463@163.com</t>
-  </si>
-  <si>
-    <t>tt13587172463@163.com</t>
-  </si>
-  <si>
-    <t>uu13587172463@163.com</t>
-  </si>
-  <si>
-    <t>vv13587172463@163.com</t>
-  </si>
-  <si>
-    <t>ww13587172463@163.com</t>
-  </si>
-  <si>
-    <t>xx13587172463@163.com</t>
-  </si>
-  <si>
-    <t>yy13587172463@163.com</t>
-  </si>
-  <si>
-    <t>zz13587172463@163.com</t>
-  </si>
-  <si>
-    <t>ggg13587172463@163.com</t>
-  </si>
-  <si>
-    <t>ah13587172463@163.com</t>
-  </si>
-  <si>
-    <t>am13587172463@163.com</t>
-  </si>
-  <si>
-    <t>af13587172463@163.com</t>
-  </si>
-  <si>
-    <t>an13587172463@163.com</t>
-  </si>
-  <si>
-    <t>ao13587172463@163.com</t>
-  </si>
-  <si>
-    <t>a13757098596@163.com</t>
-  </si>
-  <si>
-    <t>毛小美</t>
-  </si>
-  <si>
-    <t>b13757098596@163.com</t>
-  </si>
-  <si>
-    <t>g13757098596@163.com</t>
-  </si>
-  <si>
-    <t>h13757098596@163.com</t>
-  </si>
-  <si>
-    <t>l13757098596@163.com</t>
-  </si>
-  <si>
-    <t>j13757098596@163.com</t>
-  </si>
-  <si>
-    <t>k13757098596@163.com</t>
-  </si>
-  <si>
-    <t>m13757098596@163.com</t>
-  </si>
-  <si>
-    <t>a15267310606@163.com</t>
-  </si>
-  <si>
-    <t>ylx123</t>
-  </si>
-  <si>
-    <t>杨兰香</t>
-  </si>
-  <si>
-    <t>b15267310606@163.com</t>
-  </si>
-  <si>
-    <t>c15267310606@163.com</t>
-  </si>
-  <si>
-    <t>杨兰香2</t>
-  </si>
-  <si>
-    <t>c15957826243@163.com</t>
-  </si>
-  <si>
-    <t>wjl123</t>
-  </si>
-  <si>
-    <t>王金兰</t>
-  </si>
-  <si>
-    <t>d15957826243@163.com</t>
-  </si>
-  <si>
-    <t>e15957826243@163.com</t>
-  </si>
-  <si>
-    <t>f15957826243@163.com</t>
-  </si>
-  <si>
-    <t>ag15957826243@163.com</t>
-  </si>
-  <si>
-    <t>a15157887349@163.com</t>
-  </si>
-  <si>
-    <t>叶林建</t>
-  </si>
-  <si>
-    <t>b15157887349@163.com</t>
-  </si>
-  <si>
-    <t>c15157887349@163.com</t>
-  </si>
-  <si>
-    <t>d15157887349@163.com</t>
-  </si>
-  <si>
-    <t>e15157887349@163.com</t>
-  </si>
-  <si>
-    <t>f15157887349@163.com</t>
-  </si>
-  <si>
-    <t>g15157887349@163.com</t>
-  </si>
-  <si>
-    <t>h15157887349@163.com</t>
-  </si>
-  <si>
-    <t>l15157887349@163.com</t>
-  </si>
-  <si>
-    <t>j15157887349@163.com</t>
-  </si>
-  <si>
-    <t>k15157887349@163.com</t>
-  </si>
-  <si>
-    <t>a13626784727@163.com</t>
-  </si>
-  <si>
-    <t>xfy123</t>
-  </si>
-  <si>
-    <t>夏发英</t>
-  </si>
-  <si>
-    <t>b13626784727@163.com</t>
-  </si>
-  <si>
-    <t>c13626784727@163.com</t>
-  </si>
-  <si>
-    <t>d13626784727@163.com</t>
-  </si>
-  <si>
-    <t>e13626784727@163.com</t>
-  </si>
-  <si>
-    <t>f13626784727@163.com</t>
-  </si>
-  <si>
-    <t>g13626784727@163.com</t>
-  </si>
-  <si>
-    <t>h13626784727@163.com</t>
-  </si>
-  <si>
-    <t>l13626784727@163.com</t>
-  </si>
-  <si>
-    <t>j13626784727@163.com</t>
-  </si>
-  <si>
-    <t>k13626784727@163.com</t>
-  </si>
-  <si>
-    <t>m13626784727@163.com</t>
-  </si>
-  <si>
-    <t>n13626784727@163.com</t>
-  </si>
-  <si>
-    <t>o13626784727@163.com</t>
-  </si>
-  <si>
-    <t>p13626784727@163.com</t>
-  </si>
-  <si>
-    <t>c15355785681@163.com</t>
-  </si>
-  <si>
-    <t>srw123</t>
-  </si>
-  <si>
-    <t>宋荣伟</t>
-  </si>
-  <si>
-    <t>b15355785681@163.com</t>
-  </si>
-  <si>
-    <t>a15355785681@163.com</t>
-  </si>
-  <si>
-    <t>d15355785681@163.com</t>
-  </si>
-  <si>
-    <t>e15355785681@163.com</t>
-  </si>
-  <si>
-    <t>f15355785681@163.com</t>
-  </si>
-  <si>
-    <t>g15355785681@163.com</t>
-  </si>
-  <si>
-    <t>h15355785681@163.com</t>
-  </si>
-  <si>
-    <t>l15355785681@163.com</t>
-  </si>
-  <si>
-    <t>j15355785681@163.com</t>
-  </si>
-  <si>
-    <t>a15167186038@163.com</t>
-  </si>
-  <si>
-    <t>蔡云飞</t>
-  </si>
-  <si>
-    <t>b15167186038@163.com</t>
-  </si>
-  <si>
-    <t>c15167186038@163.com</t>
-  </si>
-  <si>
-    <t>d15167186038@163.com</t>
-  </si>
-  <si>
-    <t>e15167186038@163.com</t>
-  </si>
-  <si>
-    <t>f15167186038@163.com</t>
-  </si>
-  <si>
-    <t>g15167186038@163.com</t>
-  </si>
-  <si>
-    <t>h15167186038@163.com</t>
-  </si>
-  <si>
-    <t>l15167186038@163.com</t>
-  </si>
-  <si>
-    <t>j15167186038@163.com</t>
-  </si>
-  <si>
-    <t>k15167186038@163.com</t>
-  </si>
-  <si>
-    <t>m15167186038@163.com</t>
-  </si>
-  <si>
-    <t>n15167186038@163.com</t>
-  </si>
-  <si>
-    <t>o15167186038@163.com</t>
-  </si>
-  <si>
-    <t>p15167186038@163.com</t>
-  </si>
-  <si>
-    <t>q15167186038@163.com</t>
-  </si>
-  <si>
-    <t>r15167186038@163.com</t>
-  </si>
-  <si>
-    <t>s15167186038@163.com</t>
-  </si>
-  <si>
-    <t>t15167186038@163.com</t>
-  </si>
-  <si>
-    <t>u15167186038@163.com</t>
   </si>
   <si>
     <t>a17706132072@163.com</t>
@@ -500,10 +503,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -551,6 +554,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -567,45 +584,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,8 +605,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,9 +615,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -649,9 +637,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,7 +670,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,19 +739,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,13 +751,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,7 +769,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,13 +793,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,13 +817,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,43 +853,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,15 +900,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -917,6 +911,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -956,6 +959,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -979,21 +997,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1002,10 +1005,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1017,121 +1020,121 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1549,8 +1552,8 @@
   <sheetPr/>
   <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1607,10 +1610,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>6</v>
@@ -3295,7 +3298,7 @@
     <hyperlink ref="A61" r:id="rId51" display="d15957826243@163.com" tooltip="mailto:d15957826243@163.com"/>
     <hyperlink ref="A62" r:id="rId52" display="e15957826243@163.com" tooltip="mailto:e15957826243@163.com"/>
     <hyperlink ref="A63" r:id="rId53" display="f15957826243@163.com" tooltip="mailto:f15957826243@163.com"/>
-    <hyperlink ref="A4" r:id="rId54" display="a15158015845@163.com" tooltip="mailto:a15158015845@163.com"/>
+    <hyperlink ref="A4" r:id="rId54" display="e15158015845@163.com" tooltip="mailto:e15158015845@163.com"/>
     <hyperlink ref="A43" r:id="rId55" display="ggg13587172463@163.com" tooltip="mailto:ggg13587172463@163.com"/>
     <hyperlink ref="A65" r:id="rId56" display="a15157887349@163.com" tooltip="mailto:a15157887349@163.com"/>
     <hyperlink ref="A66" r:id="rId42" display="b15157887349@163.com" tooltip="mailto:b13757098596@163.com"/>
@@ -3617,7 +3620,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
@@ -3631,7 +3634,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>11</v>
@@ -3640,7 +3643,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3701,49 +3704,49 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:5">
       <c r="A11" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>5</v>
@@ -3752,37 +3755,37 @@
         <v>5</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E11" s="18"/>
     </row>
     <row r="12" ht="15" spans="1:5">
       <c r="A12" s="19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E12" s="21"/>
     </row>
     <row r="13" ht="15" spans="1:5">
       <c r="A13" s="22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E13" s="21"/>
     </row>

--- a/src/main/resources/login.xlsx
+++ b/src/main/resources/login.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="160">
   <si>
     <t>Account</t>
   </si>
@@ -503,9 +503,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -555,14 +555,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,38 +615,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -638,7 +638,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,10 +669,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -733,7 +733,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,7 +745,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,121 +871,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,6 +901,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -911,6 +941,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,6 +974,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -947,56 +997,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1005,10 +1005,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1020,13 +1020,13 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1038,99 +1038,99 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1143,7 +1143,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1553,7 +1553,7 @@
   <dimension ref="A1:D120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -3329,16 +3329,16 @@
     <hyperlink ref="A89" r:id="rId63" display="o13626784727@163.com" tooltip="mailto:o13626784727@163.com"/>
     <hyperlink ref="A90" r:id="rId64" display="p13626784727@163.com" tooltip="mailto:p13626784727@163.com"/>
     <hyperlink ref="A91" r:id="rId65" display="c15355785681@163.com" tooltip="mailto:c15355785681@163.com"/>
-    <hyperlink ref="A92" r:id="rId42" display="b15355785681@163.com" tooltip="mailto:b13757098596@163.com"/>
-    <hyperlink ref="A97" r:id="rId43" display="g15355785681@163.com"/>
-    <hyperlink ref="A98" r:id="rId44" display="h15355785681@163.com"/>
-    <hyperlink ref="A99" r:id="rId45" display="l15355785681@163.com"/>
-    <hyperlink ref="A100" r:id="rId46" display="j15355785681@163.com"/>
-    <hyperlink ref="A93" r:id="rId66" display="a15355785681@163.com" tooltip="mailto:a15355785681@163.com"/>
-    <hyperlink ref="A94" r:id="rId51" display="d15355785681@163.com" tooltip="mailto:d15957826243@163.com"/>
-    <hyperlink ref="A95" r:id="rId52" display="e15355785681@163.com" tooltip="mailto:e15957826243@163.com"/>
-    <hyperlink ref="A96" r:id="rId53" display="f15355785681@163.com" tooltip="mailto:f15957826243@163.com"/>
-    <hyperlink ref="A101" r:id="rId66" display="a15167186038@163.com" tooltip="mailto:a15355785681@163.com"/>
+    <hyperlink ref="A92" r:id="rId66" display="b15355785681@163.com" tooltip="mailto:b15355785681@163.com"/>
+    <hyperlink ref="A97" r:id="rId67" display="g15355785681@163.com" tooltip="mailto:g15355785681@163.com"/>
+    <hyperlink ref="A98" r:id="rId68" display="h15355785681@163.com" tooltip="mailto:h15355785681@163.com"/>
+    <hyperlink ref="A99" r:id="rId69" display="l15355785681@163.com" tooltip="mailto:l15355785681@163.com"/>
+    <hyperlink ref="A100" r:id="rId70" display="j15355785681@163.com" tooltip="mailto:j15355785681@163.com"/>
+    <hyperlink ref="A93" r:id="rId71" display="a15355785681@163.com" tooltip="mailto:a15355785681@163.com"/>
+    <hyperlink ref="A94" r:id="rId72" display="d15355785681@163.com" tooltip="mailto:d15355785681@163.com"/>
+    <hyperlink ref="A95" r:id="rId73" display="e15355785681@163.com" tooltip="mailto:e15355785681@163.com"/>
+    <hyperlink ref="A96" r:id="rId74" display="f15355785681@163.com" tooltip="mailto:f15355785681@163.com"/>
+    <hyperlink ref="A101" r:id="rId71" display="a15167186038@163.com" tooltip="mailto:a15355785681@163.com"/>
     <hyperlink ref="A102" r:id="rId42" display="b15167186038@163.com" tooltip="mailto:b13757098596@163.com"/>
     <hyperlink ref="A107" r:id="rId43" display="g15167186038@163.com"/>
     <hyperlink ref="A108" r:id="rId44" display="h15167186038@163.com"/>
@@ -3348,22 +3348,22 @@
     <hyperlink ref="A104" r:id="rId51" display="d15167186038@163.com" tooltip="mailto:d15957826243@163.com"/>
     <hyperlink ref="A105" r:id="rId52" display="e15167186038@163.com" tooltip="mailto:e15957826243@163.com"/>
     <hyperlink ref="A106" r:id="rId53" display="f15167186038@163.com" tooltip="mailto:f15957826243@163.com"/>
-    <hyperlink ref="A64" r:id="rId67" display="ag15957826243@163.com"/>
-    <hyperlink ref="A46" r:id="rId68" display="af13587172463@163.com"/>
-    <hyperlink ref="A47" r:id="rId69" display="an13587172463@163.com" tooltip="mailto:an13587172463@163.com"/>
-    <hyperlink ref="A48" r:id="rId70" display="ao13587172463@163.com" tooltip="mailto:ao13587172463@163.com"/>
-    <hyperlink ref="A55" r:id="rId71" display="k13757098596@163.com"/>
-    <hyperlink ref="A56" r:id="rId72" display="m13757098596@163.com"/>
-    <hyperlink ref="A111" r:id="rId73" display="k15167186038@163.com" tooltip="mailto:k15167186038@163.com"/>
-    <hyperlink ref="A112" r:id="rId74" display="m15167186038@163.com" tooltip="mailto:m15167186038@163.com"/>
-    <hyperlink ref="A117" r:id="rId75" display="r15167186038@163.com" tooltip="mailto:r15167186038@163.com"/>
-    <hyperlink ref="A118" r:id="rId76" display="s15167186038@163.com" tooltip="mailto:s15167186038@163.com"/>
-    <hyperlink ref="A119" r:id="rId77" display="t15167186038@163.com" tooltip="mailto:t15167186038@163.com"/>
-    <hyperlink ref="A120" r:id="rId78" display="u15167186038@163.com" tooltip="mailto:u15167186038@163.com"/>
-    <hyperlink ref="A113" r:id="rId79" display="n15167186038@163.com" tooltip="mailto:n15167186038@163.com"/>
-    <hyperlink ref="A114" r:id="rId80" display="o15167186038@163.com" tooltip="mailto:o15167186038@163.com"/>
-    <hyperlink ref="A115" r:id="rId81" display="p15167186038@163.com" tooltip="mailto:p15167186038@163.com"/>
-    <hyperlink ref="A116" r:id="rId82" display="q15167186038@163.com" tooltip="mailto:q15167186038@163.com"/>
+    <hyperlink ref="A64" r:id="rId75" display="ag15957826243@163.com" tooltip="mailto:ag15957826243@163.com"/>
+    <hyperlink ref="A46" r:id="rId76" display="af13587172463@163.com"/>
+    <hyperlink ref="A47" r:id="rId77" display="an13587172463@163.com" tooltip="mailto:an13587172463@163.com"/>
+    <hyperlink ref="A48" r:id="rId78" display="ao13587172463@163.com" tooltip="mailto:ao13587172463@163.com"/>
+    <hyperlink ref="A55" r:id="rId79" display="k13757098596@163.com"/>
+    <hyperlink ref="A56" r:id="rId80" display="m13757098596@163.com"/>
+    <hyperlink ref="A111" r:id="rId81" display="k15167186038@163.com" tooltip="mailto:k15167186038@163.com"/>
+    <hyperlink ref="A112" r:id="rId82" display="m15167186038@163.com" tooltip="mailto:m15167186038@163.com"/>
+    <hyperlink ref="A117" r:id="rId83" display="r15167186038@163.com" tooltip="mailto:r15167186038@163.com"/>
+    <hyperlink ref="A118" r:id="rId84" display="s15167186038@163.com" tooltip="mailto:s15167186038@163.com"/>
+    <hyperlink ref="A119" r:id="rId85" display="t15167186038@163.com" tooltip="mailto:t15167186038@163.com"/>
+    <hyperlink ref="A120" r:id="rId86" display="u15167186038@163.com" tooltip="mailto:u15167186038@163.com"/>
+    <hyperlink ref="A113" r:id="rId87" display="n15167186038@163.com" tooltip="mailto:n15167186038@163.com"/>
+    <hyperlink ref="A114" r:id="rId88" display="o15167186038@163.com" tooltip="mailto:o15167186038@163.com"/>
+    <hyperlink ref="A115" r:id="rId89" display="p15167186038@163.com" tooltip="mailto:p15167186038@163.com"/>
+    <hyperlink ref="A116" r:id="rId90" display="q15167186038@163.com" tooltip="mailto:q15167186038@163.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3373,16 +3373,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="26.3727272727273" customWidth="1"/>
-    <col min="2" max="3" width="20.7545454545455" customWidth="1"/>
+    <col min="1" max="1" width="26.1272727272727" customWidth="1"/>
+    <col min="2" max="3" width="17.7545454545455" customWidth="1"/>
     <col min="4" max="4" width="13.8727272727273" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3401,36 +3401,36 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>12</v>
+      <c r="A2" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>12</v>
+      <c r="A3" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>5</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>5</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>5</v>
@@ -3471,8 +3471,8 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="9" t="s">
-        <v>133</v>
+      <c r="A7" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>5</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>5</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>5</v>
@@ -3513,8 +3513,8 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="9" t="s">
-        <v>136</v>
+      <c r="A10" s="25" t="s">
+        <v>139</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>5</v>
@@ -3526,62 +3526,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="an13587172463@163.com" tooltip="mailto:an13587172463@163.com"/>
-    <hyperlink ref="A2" r:id="rId2" display="a13587172463@163.com" tooltip="mailto:a15157887349@163.com"/>
-    <hyperlink ref="A4" r:id="rId3" display="k15167186038@163.com" tooltip="mailto:k15167186038@163.com"/>
-    <hyperlink ref="A5" r:id="rId4" display="m15167186038@163.com" tooltip="mailto:m15167186038@163.com"/>
-    <hyperlink ref="A10" r:id="rId5" display="r15167186038@163.com" tooltip="mailto:r15167186038@163.com"/>
-    <hyperlink ref="A11" r:id="rId6" display="s15167186038@163.com" tooltip="mailto:s15167186038@163.com"/>
-    <hyperlink ref="A12" r:id="rId7" display="t15167186038@163.com" tooltip="mailto:t15167186038@163.com"/>
-    <hyperlink ref="A13" r:id="rId8" display="u15167186038@163.com" tooltip="mailto:u15167186038@163.com"/>
-    <hyperlink ref="A6" r:id="rId9" display="n15167186038@163.com" tooltip="mailto:n15167186038@163.com"/>
-    <hyperlink ref="A7" r:id="rId10" display="o15167186038@163.com" tooltip="mailto:o15167186038@163.com"/>
-    <hyperlink ref="A8" r:id="rId11" display="p15167186038@163.com" tooltip="mailto:p15167186038@163.com"/>
-    <hyperlink ref="A9" r:id="rId12" display="q15167186038@163.com" tooltip="mailto:q15167186038@163.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="a15167186038@163.com" tooltip="mailto:a15167186038@163.com"/>
+    <hyperlink ref="A7" r:id="rId2" display="r15167186038@163.com" tooltip="mailto:r15167186038@163.com"/>
+    <hyperlink ref="A8" r:id="rId3" display="s15167186038@163.com" tooltip="mailto:s15167186038@163.com"/>
+    <hyperlink ref="A9" r:id="rId4" display="t15167186038@163.com" tooltip="mailto:t15167186038@163.com"/>
+    <hyperlink ref="A10" r:id="rId5" display="u15167186038@163.com" tooltip="mailto:u15167186038@163.com"/>
+    <hyperlink ref="A3" r:id="rId6" display="n15167186038@163.com" tooltip="mailto:n15167186038@163.com"/>
+    <hyperlink ref="A4" r:id="rId7" display="o15167186038@163.com" tooltip="mailto:o15167186038@163.com"/>
+    <hyperlink ref="A5" r:id="rId8" display="p15167186038@163.com" tooltip="mailto:p15167186038@163.com"/>
+    <hyperlink ref="A6" r:id="rId9" display="q15167186038@163.com" tooltip="mailto:q15167186038@163.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/login.xlsx
+++ b/src/main/resources/login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8340"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="账号信息" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="149">
   <si>
     <t>Account</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>k15157887349@163.com</t>
+  </si>
+  <si>
+    <t>m15157887349@163.com</t>
   </si>
   <si>
     <t>a15167186038@163.com</t>
@@ -468,10 +471,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -499,21 +502,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,60 +520,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -597,14 +539,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -618,19 +599,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -685,19 +688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,13 +700,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,13 +724,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,7 +760,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,67 +820,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,17 +876,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -905,24 +902,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,13 +929,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -963,10 +966,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -975,16 +978,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -993,115 +996,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1490,10 +1493,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2554,31 +2557,31 @@
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B76" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>91</v>
+      <c r="B76" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2592,7 +2595,7 @@
         <v>5</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2606,7 +2609,7 @@
         <v>5</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2620,7 +2623,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2634,7 +2637,7 @@
         <v>5</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2648,7 +2651,7 @@
         <v>5</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2662,7 +2665,7 @@
         <v>5</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2676,11 +2679,11 @@
         <v>5</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="19" t="s">
+      <c r="A85" s="10" t="s">
         <v>100</v>
       </c>
       <c r="B85" s="11" t="s">
@@ -2690,11 +2693,11 @@
         <v>5</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="19" t="s">
         <v>101</v>
       </c>
       <c r="B86" s="11" t="s">
@@ -2704,7 +2707,7 @@
         <v>5</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2718,7 +2721,7 @@
         <v>5</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2732,7 +2735,7 @@
         <v>5</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2746,7 +2749,7 @@
         <v>5</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2760,7 +2763,7 @@
         <v>5</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2774,7 +2777,7 @@
         <v>5</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2788,7 +2791,7 @@
         <v>5</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2802,7 +2805,7 @@
         <v>5</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2816,11 +2819,11 @@
         <v>5</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="19" t="s">
+      <c r="A95" s="10" t="s">
         <v>110</v>
       </c>
       <c r="B95" s="11" t="s">
@@ -2830,7 +2833,21 @@
         <v>5</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2903,32 +2920,33 @@
     <hyperlink ref="A44" r:id="rId57" display="ah13587172463@163.com" tooltip="mailto:ah13587172463@163.com"/>
     <hyperlink ref="A45" r:id="rId58" display="am13587172463@163.com" tooltip="mailto:am13587172463@163.com"/>
     <hyperlink ref="A75" r:id="rId59" display="k15157887349@163.com" tooltip="mailto:k15157887349@163.com"/>
-    <hyperlink ref="A76" r:id="rId60" display="a15167186038@163.com" tooltip="mailto:a15355785681@163.com"/>
-    <hyperlink ref="A77" r:id="rId42" display="b15167186038@163.com" tooltip="mailto:b13757098596@163.com"/>
-    <hyperlink ref="A82" r:id="rId43" display="g15167186038@163.com"/>
-    <hyperlink ref="A83" r:id="rId44" display="h15167186038@163.com"/>
-    <hyperlink ref="A84" r:id="rId45" display="l15167186038@163.com"/>
-    <hyperlink ref="A85" r:id="rId46" display="j15167186038@163.com"/>
-    <hyperlink ref="A78" r:id="rId50" display="c15167186038@163.com" tooltip="mailto:c15957826243@163.com"/>
-    <hyperlink ref="A79" r:id="rId51" display="d15167186038@163.com" tooltip="mailto:d15957826243@163.com"/>
-    <hyperlink ref="A80" r:id="rId52" display="e15167186038@163.com" tooltip="mailto:e15957826243@163.com"/>
-    <hyperlink ref="A81" r:id="rId53" display="f15167186038@163.com" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A77" r:id="rId60" display="a15167186038@163.com" tooltip="mailto:a15355785681@163.com"/>
+    <hyperlink ref="A78" r:id="rId42" display="b15167186038@163.com" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A83" r:id="rId43" display="g15167186038@163.com"/>
+    <hyperlink ref="A84" r:id="rId44" display="h15167186038@163.com"/>
+    <hyperlink ref="A85" r:id="rId45" display="l15167186038@163.com"/>
+    <hyperlink ref="A86" r:id="rId46" display="j15167186038@163.com"/>
+    <hyperlink ref="A79" r:id="rId50" display="c15167186038@163.com" tooltip="mailto:c15957826243@163.com"/>
+    <hyperlink ref="A80" r:id="rId51" display="d15167186038@163.com" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A81" r:id="rId52" display="e15167186038@163.com" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A82" r:id="rId53" display="f15167186038@163.com" tooltip="mailto:f15957826243@163.com"/>
     <hyperlink ref="A64" r:id="rId61" display="ag15957826243@163.com" tooltip="mailto:ag15957826243@163.com"/>
     <hyperlink ref="A46" r:id="rId62" display="af13587172463@163.com"/>
     <hyperlink ref="A47" r:id="rId63" display="an13587172463@163.com" tooltip="mailto:an13587172463@163.com"/>
     <hyperlink ref="A48" r:id="rId64" display="ao13587172463@163.com" tooltip="mailto:ao13587172463@163.com"/>
     <hyperlink ref="A55" r:id="rId65" display="k13757098596@163.com"/>
     <hyperlink ref="A56" r:id="rId66" display="m13757098596@163.com"/>
-    <hyperlink ref="A86" r:id="rId67" display="k15167186038@163.com" tooltip="mailto:k15167186038@163.com"/>
-    <hyperlink ref="A87" r:id="rId68" display="m15167186038@163.com" tooltip="mailto:m15167186038@163.com"/>
-    <hyperlink ref="A92" r:id="rId69" display="r15167186038@163.com" tooltip="mailto:r15167186038@163.com"/>
-    <hyperlink ref="A93" r:id="rId70" display="s15167186038@163.com" tooltip="mailto:s15167186038@163.com"/>
-    <hyperlink ref="A94" r:id="rId71" display="t15167186038@163.com" tooltip="mailto:t15167186038@163.com"/>
-    <hyperlink ref="A95" r:id="rId72" display="u15167186038@163.com" tooltip="mailto:u15167186038@163.com"/>
-    <hyperlink ref="A88" r:id="rId73" display="n15167186038@163.com" tooltip="mailto:n15167186038@163.com"/>
-    <hyperlink ref="A89" r:id="rId74" display="o15167186038@163.com" tooltip="mailto:o15167186038@163.com"/>
-    <hyperlink ref="A90" r:id="rId75" display="p15167186038@163.com" tooltip="mailto:p15167186038@163.com"/>
-    <hyperlink ref="A91" r:id="rId76" display="q15167186038@163.com" tooltip="mailto:q15167186038@163.com"/>
+    <hyperlink ref="A87" r:id="rId67" display="k15167186038@163.com" tooltip="mailto:k15167186038@163.com"/>
+    <hyperlink ref="A88" r:id="rId68" display="m15167186038@163.com" tooltip="mailto:m15167186038@163.com"/>
+    <hyperlink ref="A93" r:id="rId69" display="r15167186038@163.com" tooltip="mailto:r15167186038@163.com"/>
+    <hyperlink ref="A94" r:id="rId70" display="s15167186038@163.com" tooltip="mailto:s15167186038@163.com"/>
+    <hyperlink ref="A95" r:id="rId71" display="t15167186038@163.com" tooltip="mailto:t15167186038@163.com"/>
+    <hyperlink ref="A96" r:id="rId72" display="u15167186038@163.com" tooltip="mailto:u15167186038@163.com"/>
+    <hyperlink ref="A89" r:id="rId73" display="n15167186038@163.com" tooltip="mailto:n15167186038@163.com"/>
+    <hyperlink ref="A90" r:id="rId74" display="o15167186038@163.com" tooltip="mailto:o15167186038@163.com"/>
+    <hyperlink ref="A91" r:id="rId75" display="p15167186038@163.com" tooltip="mailto:p15167186038@163.com"/>
+    <hyperlink ref="A92" r:id="rId76" display="q15167186038@163.com" tooltip="mailto:q15167186038@163.com"/>
+    <hyperlink ref="A76" r:id="rId77" display="m15157887349@163.com" tooltip="mailto:m15157887349@163.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4003,77 +4021,77 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>5</v>
@@ -4082,12 +4100,12 @@
         <v>5</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>5</v>
@@ -4096,12 +4114,12 @@
         <v>5</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>5</v>
@@ -4110,12 +4128,12 @@
         <v>5</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>5</v>
@@ -4124,12 +4142,12 @@
         <v>5</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>5</v>
@@ -4138,12 +4156,12 @@
         <v>5</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>5</v>
@@ -4152,12 +4170,12 @@
         <v>5</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>5</v>
@@ -4166,12 +4184,12 @@
         <v>5</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>5</v>
@@ -4180,12 +4198,12 @@
         <v>5</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>5</v>
@@ -4194,12 +4212,12 @@
         <v>5</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>5</v>
@@ -4208,124 +4226,124 @@
         <v>5</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>5</v>
@@ -4334,12 +4352,12 @@
         <v>5</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>5</v>
@@ -4348,12 +4366,12 @@
         <v>5</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>5</v>
@@ -4362,26 +4380,26 @@
         <v>5</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="B102" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>5</v>
@@ -4390,12 +4408,12 @@
         <v>5</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B104" s="11" t="s">
         <v>5</v>
@@ -4404,12 +4422,12 @@
         <v>5</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>5</v>
@@ -4418,12 +4436,12 @@
         <v>5</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B106" s="11" t="s">
         <v>5</v>
@@ -4432,12 +4450,12 @@
         <v>5</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B107" s="11" t="s">
         <v>5</v>
@@ -4446,12 +4464,12 @@
         <v>5</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B108" s="11" t="s">
         <v>5</v>
@@ -4460,12 +4478,12 @@
         <v>5</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B109" s="11" t="s">
         <v>5</v>
@@ -4474,12 +4492,12 @@
         <v>5</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B110" s="11" t="s">
         <v>5</v>
@@ -4488,12 +4506,12 @@
         <v>5</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B111" s="11" t="s">
         <v>5</v>
@@ -4502,12 +4520,12 @@
         <v>5</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B112" s="11" t="s">
         <v>5</v>
@@ -4516,12 +4534,12 @@
         <v>5</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B113" s="11" t="s">
         <v>5</v>
@@ -4530,12 +4548,12 @@
         <v>5</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B114" s="11" t="s">
         <v>5</v>
@@ -4544,12 +4562,12 @@
         <v>5</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B115" s="11" t="s">
         <v>5</v>
@@ -4558,12 +4576,12 @@
         <v>5</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B116" s="11" t="s">
         <v>5</v>
@@ -4572,12 +4590,12 @@
         <v>5</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B117" s="11" t="s">
         <v>5</v>
@@ -4586,12 +4604,12 @@
         <v>5</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B118" s="11" t="s">
         <v>5</v>
@@ -4600,12 +4618,12 @@
         <v>5</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B119" s="11" t="s">
         <v>5</v>
@@ -4614,12 +4632,12 @@
         <v>5</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B120" s="11" t="s">
         <v>5</v>
@@ -4628,7 +4646,7 @@
         <v>5</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4804,7 +4822,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>11</v>
@@ -4813,7 +4831,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4874,30 +4892,30 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4916,7 +4934,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>5</v>
@@ -4925,7 +4943,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/login.xlsx
+++ b/src/main/resources/login.xlsx
@@ -471,10 +471,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -501,40 +501,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -545,8 +516,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,17 +540,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,7 +570,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -614,16 +599,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,6 +618,22 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -688,31 +688,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,54 +730,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -790,13 +742,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,31 +832,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,16 +862,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,27 +901,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,32 +933,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -966,10 +966,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -978,16 +978,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -996,115 +996,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1495,8 +1495,8 @@
   <sheetPr/>
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2958,7 +2958,7 @@
   <sheetPr/>
   <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A93" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
@@ -4969,8 +4969,8 @@
   <sheetPr/>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>

--- a/src/main/resources/login.xlsx
+++ b/src/main/resources/login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8340"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="账号信息" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="153">
   <si>
     <t>Account</t>
   </si>
@@ -185,6 +185,12 @@
     <t>ao13587172463@163.com</t>
   </si>
   <si>
+    <t>ar13587172463@163.com</t>
+  </si>
+  <si>
+    <t>as13587172463@163.com</t>
+  </si>
+  <si>
     <t>a13757098596@163.com</t>
   </si>
   <si>
@@ -212,6 +218,12 @@
     <t>m13757098596@163.com</t>
   </si>
   <si>
+    <t>n13757098596@163.com</t>
+  </si>
+  <si>
+    <t>o13757098596@163.com</t>
+  </si>
+  <si>
     <t>a15267310606@163.com</t>
   </si>
   <si>
@@ -351,6 +363,21 @@
   </si>
   <si>
     <t>u15167186038@163.com</t>
+  </si>
+  <si>
+    <t>v15167186038@163.com</t>
+  </si>
+  <si>
+    <t>w15167186038@163.com</t>
+  </si>
+  <si>
+    <t>x15167186038@163.com</t>
+  </si>
+  <si>
+    <t>y15167186038@163.com</t>
+  </si>
+  <si>
+    <t>z15167186038@163.com</t>
   </si>
   <si>
     <t>a13567614850@163.com</t>
@@ -458,8 +485,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -488,13 +515,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -503,17 +523,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -524,15 +536,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,11 +552,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -562,7 +590,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,7 +614,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,22 +649,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -638,13 +665,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,13 +701,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,91 +731,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,6 +749,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -806,19 +809,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,6 +870,56 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,21 +963,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -909,41 +971,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -952,10 +979,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -964,16 +991,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,112 +1012,112 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1110,16 +1137,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="10" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="10" applyFill="1" applyBorder="1">
@@ -1476,10 +1503,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1546,58 +1573,58 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1605,223 +1632,223 @@
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="B22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1829,13 +1856,13 @@
       <c r="A25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1843,13 +1870,13 @@
       <c r="A26" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1857,13 +1884,13 @@
       <c r="A27" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1871,13 +1898,13 @@
       <c r="A28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1885,13 +1912,13 @@
       <c r="A29" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="7" t="s">
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1899,13 +1926,13 @@
       <c r="A30" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="B30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1913,13 +1940,13 @@
       <c r="A31" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="7" t="s">
+      <c r="B31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1927,13 +1954,13 @@
       <c r="A32" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="7" t="s">
+      <c r="B32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1941,13 +1968,13 @@
       <c r="A33" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="7" t="s">
+      <c r="B33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1955,13 +1982,13 @@
       <c r="A34" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="7" t="s">
+      <c r="B34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1969,13 +1996,13 @@
       <c r="A35" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="7" t="s">
+      <c r="B35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1983,13 +2010,13 @@
       <c r="A36" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="7" t="s">
+      <c r="B36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1997,13 +2024,13 @@
       <c r="A37" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="7" t="s">
+      <c r="B37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2011,13 +2038,13 @@
       <c r="A38" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="7" t="s">
+      <c r="B38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2025,13 +2052,13 @@
       <c r="A39" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="7" t="s">
+      <c r="B39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2039,13 +2066,13 @@
       <c r="A40" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="7" t="s">
+      <c r="B40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2053,13 +2080,13 @@
       <c r="A41" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="7" t="s">
+      <c r="B41" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2067,13 +2094,13 @@
       <c r="A42" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="7" t="s">
+      <c r="B42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2081,13 +2108,13 @@
       <c r="A43" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="7" t="s">
+      <c r="B43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2095,27 +2122,27 @@
       <c r="A44" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="7" t="s">
+      <c r="B44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="7" t="s">
+      <c r="B45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2123,13 +2150,13 @@
       <c r="A46" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="7" t="s">
+      <c r="B46" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2137,13 +2164,13 @@
       <c r="A47" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="7" t="s">
+      <c r="B47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2158,278 +2185,278 @@
         <v>5</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="3" t="s">
+      <c r="B50" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>56</v>
+      <c r="B51" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>56</v>
+      <c r="B52" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>56</v>
+      <c r="B53" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>56</v>
+      <c r="B54" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>56</v>
+      <c r="B55" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" s="10" t="s">
+      <c r="B57" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="9" t="s">
+      <c r="B58" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="9" t="s">
+      <c r="B59" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="10" t="s">
+      <c r="B60" s="10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="11" t="s">
+      <c r="C60" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="12" t="s">
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D59" s="12" t="s">
+      <c r="B61" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="11" t="s">
+      <c r="B62" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="14" t="s">
+      <c r="B64" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="15" t="s">
+      <c r="B65" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B65" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="15" t="s">
+      <c r="B66" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B66" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="15" t="s">
+      <c r="B67" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="15" t="s">
-        <v>82</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>8</v>
@@ -2438,7 +2465,7 @@
         <v>8</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2452,7 +2479,7 @@
         <v>8</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2466,7 +2493,7 @@
         <v>8</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2474,13 +2501,13 @@
         <v>85</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2488,45 +2515,45 @@
         <v>86</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="15" t="s">
         <v>87</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="15" t="s">
         <v>88</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B75" s="14" t="s">
@@ -2536,287 +2563,413 @@
         <v>5</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="4" t="s">
+      <c r="B76" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="13" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="3" t="s">
+      <c r="B77" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="3" t="s">
+      <c r="B78" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="3" t="s">
+      <c r="B79" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="3" t="s">
+      <c r="B80" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>91</v>
+      <c r="B81" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>91</v>
+      <c r="B82" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>91</v>
+      <c r="B83" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>91</v>
+      <c r="B84" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>91</v>
+      <c r="B85" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>91</v>
+      <c r="B86" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>91</v>
+      <c r="B87" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>91</v>
+      <c r="B88" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>91</v>
+      <c r="B89" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>91</v>
+      <c r="B90" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>91</v>
+      <c r="B91" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>91</v>
+      <c r="B92" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>91</v>
+      <c r="B93" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>91</v>
+      <c r="B94" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>91</v>
+      <c r="B95" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2860,61 +3013,70 @@
     <hyperlink ref="A39" r:id="rId37" display="xx13587172463@163.com" tooltip="mailto:xx13587172463@163.com"/>
     <hyperlink ref="A40" r:id="rId38" display="yy13587172463@163.com" tooltip="mailto:yy13587172463@163.com"/>
     <hyperlink ref="A41" r:id="rId39" display="zz13587172463@163.com" tooltip="mailto:zz13587172463@163.com"/>
-    <hyperlink ref="A48" r:id="rId40" display="a13757098596@163.com" tooltip="mailto:a13757098596@163.com"/>
-    <hyperlink ref="A49" r:id="rId41" display="b13757098596@163.com" tooltip="mailto:b13757098596@163.com"/>
-    <hyperlink ref="A50" r:id="rId42" display="g13757098596@163.com"/>
-    <hyperlink ref="A51" r:id="rId43" display="h13757098596@163.com"/>
-    <hyperlink ref="A52" r:id="rId44" display="l13757098596@163.com"/>
-    <hyperlink ref="A53" r:id="rId45" display="j13757098596@163.com"/>
-    <hyperlink ref="A56" r:id="rId46" display="a15267310606@163.com" tooltip="mailto:a15267310606@163.com"/>
-    <hyperlink ref="A57" r:id="rId47" display="b15267310606@163.com" tooltip="mailto:b15267310606@163.com"/>
-    <hyperlink ref="A58" r:id="rId48" display="c15267310606@163.com" tooltip="mailto:c15267310606@163.com"/>
-    <hyperlink ref="A59" r:id="rId49" display="c15957826243@163.com" tooltip="mailto:c15957826243@163.com"/>
-    <hyperlink ref="A60" r:id="rId50" display="d15957826243@163.com" tooltip="mailto:d15957826243@163.com"/>
-    <hyperlink ref="A61" r:id="rId51" display="e15957826243@163.com" tooltip="mailto:e15957826243@163.com"/>
-    <hyperlink ref="A62" r:id="rId52" display="f15957826243@163.com" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A50" r:id="rId40" display="a13757098596@163.com" tooltip="mailto:a13757098596@163.com"/>
+    <hyperlink ref="A51" r:id="rId41" display="b13757098596@163.com" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A52" r:id="rId42" display="g13757098596@163.com"/>
+    <hyperlink ref="A53" r:id="rId43" display="h13757098596@163.com"/>
+    <hyperlink ref="A54" r:id="rId44" display="l13757098596@163.com"/>
+    <hyperlink ref="A55" r:id="rId45" display="j13757098596@163.com"/>
+    <hyperlink ref="A60" r:id="rId46" display="a15267310606@163.com" tooltip="mailto:a15267310606@163.com"/>
+    <hyperlink ref="A61" r:id="rId47" display="b15267310606@163.com" tooltip="mailto:b15267310606@163.com"/>
+    <hyperlink ref="A62" r:id="rId48" display="c15267310606@163.com" tooltip="mailto:c15267310606@163.com"/>
+    <hyperlink ref="A63" r:id="rId49" display="c15957826243@163.com" tooltip="mailto:c15957826243@163.com"/>
+    <hyperlink ref="A64" r:id="rId50" display="d15957826243@163.com" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A65" r:id="rId51" display="e15957826243@163.com" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A66" r:id="rId52" display="f15957826243@163.com" tooltip="mailto:f15957826243@163.com"/>
     <hyperlink ref="A4" r:id="rId53" display="e15158015845@163.com" tooltip="mailto:e15158015845@163.com"/>
     <hyperlink ref="A42" r:id="rId54" display="ggg13587172463@163.com" tooltip="mailto:ggg13587172463@163.com"/>
-    <hyperlink ref="A64" r:id="rId55" display="a15157887349@163.com" tooltip="mailto:a15157887349@163.com"/>
-    <hyperlink ref="A65" r:id="rId41" display="b15157887349@163.com" tooltip="mailto:b13757098596@163.com"/>
-    <hyperlink ref="A70" r:id="rId42" display="g15157887349@163.com"/>
-    <hyperlink ref="A71" r:id="rId43" display="h15157887349@163.com"/>
-    <hyperlink ref="A72" r:id="rId44" display="l15157887349@163.com"/>
-    <hyperlink ref="A73" r:id="rId45" display="j15157887349@163.com"/>
-    <hyperlink ref="A66" r:id="rId49" display="c15157887349@163.com" tooltip="mailto:c15957826243@163.com"/>
-    <hyperlink ref="A67" r:id="rId50" display="d15157887349@163.com" tooltip="mailto:d15957826243@163.com"/>
-    <hyperlink ref="A68" r:id="rId51" display="e15157887349@163.com" tooltip="mailto:e15957826243@163.com"/>
-    <hyperlink ref="A69" r:id="rId52" display="f15157887349@163.com" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A68" r:id="rId55" display="a15157887349@163.com" tooltip="mailto:a15157887349@163.com"/>
+    <hyperlink ref="A69" r:id="rId41" display="b15157887349@163.com" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A74" r:id="rId42" display="g15157887349@163.com"/>
+    <hyperlink ref="A75" r:id="rId43" display="h15157887349@163.com"/>
+    <hyperlink ref="A76" r:id="rId44" display="l15157887349@163.com"/>
+    <hyperlink ref="A77" r:id="rId45" display="j15157887349@163.com"/>
+    <hyperlink ref="A70" r:id="rId49" display="c15157887349@163.com" tooltip="mailto:c15957826243@163.com"/>
+    <hyperlink ref="A71" r:id="rId50" display="d15157887349@163.com" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A72" r:id="rId51" display="e15157887349@163.com" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A73" r:id="rId52" display="f15157887349@163.com" tooltip="mailto:f15957826243@163.com"/>
     <hyperlink ref="A43" r:id="rId56" display="ah13587172463@163.com" tooltip="mailto:ah13587172463@163.com"/>
     <hyperlink ref="A44" r:id="rId57" display="am13587172463@163.com" tooltip="mailto:am13587172463@163.com"/>
-    <hyperlink ref="A74" r:id="rId58" display="k15157887349@163.com" tooltip="mailto:k15157887349@163.com"/>
-    <hyperlink ref="A76" r:id="rId59" display="a15167186038@163.com" tooltip="mailto:a15355785681@163.com"/>
-    <hyperlink ref="A77" r:id="rId41" display="b15167186038@163.com" tooltip="mailto:b13757098596@163.com"/>
-    <hyperlink ref="A82" r:id="rId42" display="g15167186038@163.com"/>
-    <hyperlink ref="A83" r:id="rId43" display="h15167186038@163.com"/>
-    <hyperlink ref="A84" r:id="rId44" display="l15167186038@163.com"/>
-    <hyperlink ref="A85" r:id="rId45" display="j15167186038@163.com"/>
-    <hyperlink ref="A78" r:id="rId49" display="c15167186038@163.com" tooltip="mailto:c15957826243@163.com"/>
-    <hyperlink ref="A79" r:id="rId50" display="d15167186038@163.com" tooltip="mailto:d15957826243@163.com"/>
-    <hyperlink ref="A80" r:id="rId51" display="e15167186038@163.com" tooltip="mailto:e15957826243@163.com"/>
-    <hyperlink ref="A81" r:id="rId52" display="f15167186038@163.com" tooltip="mailto:f15957826243@163.com"/>
-    <hyperlink ref="A63" r:id="rId60" display="ag15957826243@163.com" tooltip="mailto:ag15957826243@163.com"/>
+    <hyperlink ref="A78" r:id="rId58" display="k15157887349@163.com" tooltip="mailto:k15157887349@163.com"/>
+    <hyperlink ref="A80" r:id="rId59" display="a15167186038@163.com" tooltip="mailto:a15355785681@163.com"/>
+    <hyperlink ref="A81" r:id="rId41" display="b15167186038@163.com" tooltip="mailto:b13757098596@163.com"/>
+    <hyperlink ref="A86" r:id="rId42" display="g15167186038@163.com"/>
+    <hyperlink ref="A87" r:id="rId43" display="h15167186038@163.com"/>
+    <hyperlink ref="A88" r:id="rId44" display="l15167186038@163.com"/>
+    <hyperlink ref="A89" r:id="rId45" display="j15167186038@163.com"/>
+    <hyperlink ref="A82" r:id="rId49" display="c15167186038@163.com" tooltip="mailto:c15957826243@163.com"/>
+    <hyperlink ref="A83" r:id="rId50" display="d15167186038@163.com" tooltip="mailto:d15957826243@163.com"/>
+    <hyperlink ref="A84" r:id="rId51" display="e15167186038@163.com" tooltip="mailto:e15957826243@163.com"/>
+    <hyperlink ref="A85" r:id="rId52" display="f15167186038@163.com" tooltip="mailto:f15957826243@163.com"/>
+    <hyperlink ref="A67" r:id="rId60" display="ag15957826243@163.com" tooltip="mailto:ag15957826243@163.com"/>
     <hyperlink ref="A45" r:id="rId61" display="af13587172463@163.com"/>
     <hyperlink ref="A46" r:id="rId62" display="an13587172463@163.com" tooltip="mailto:an13587172463@163.com"/>
     <hyperlink ref="A47" r:id="rId63" display="ao13587172463@163.com" tooltip="mailto:ao13587172463@163.com"/>
-    <hyperlink ref="A54" r:id="rId64" display="k13757098596@163.com"/>
-    <hyperlink ref="A55" r:id="rId65" display="m13757098596@163.com"/>
-    <hyperlink ref="A86" r:id="rId66" display="k15167186038@163.com" tooltip="mailto:k15167186038@163.com"/>
-    <hyperlink ref="A87" r:id="rId67" display="m15167186038@163.com" tooltip="mailto:m15167186038@163.com"/>
-    <hyperlink ref="A92" r:id="rId68" display="r15167186038@163.com" tooltip="mailto:r15167186038@163.com"/>
-    <hyperlink ref="A93" r:id="rId69" display="s15167186038@163.com" tooltip="mailto:s15167186038@163.com"/>
-    <hyperlink ref="A94" r:id="rId70" display="t15167186038@163.com" tooltip="mailto:t15167186038@163.com"/>
-    <hyperlink ref="A95" r:id="rId71" display="u15167186038@163.com" tooltip="mailto:u15167186038@163.com"/>
-    <hyperlink ref="A88" r:id="rId72" display="n15167186038@163.com" tooltip="mailto:n15167186038@163.com"/>
-    <hyperlink ref="A89" r:id="rId73" display="o15167186038@163.com" tooltip="mailto:o15167186038@163.com"/>
-    <hyperlink ref="A90" r:id="rId74" display="p15167186038@163.com" tooltip="mailto:p15167186038@163.com"/>
-    <hyperlink ref="A91" r:id="rId75" display="q15167186038@163.com" tooltip="mailto:q15167186038@163.com"/>
-    <hyperlink ref="A75" r:id="rId76" display="m15157887349@163.com" tooltip="mailto:m15157887349@163.com"/>
+    <hyperlink ref="A56" r:id="rId64" display="k13757098596@163.com"/>
+    <hyperlink ref="A57" r:id="rId65" display="m13757098596@163.com" tooltip="mailto:m13757098596@163.com"/>
+    <hyperlink ref="A90" r:id="rId66" display="k15167186038@163.com" tooltip="mailto:k15167186038@163.com"/>
+    <hyperlink ref="A91" r:id="rId67" display="m15167186038@163.com" tooltip="mailto:m15167186038@163.com"/>
+    <hyperlink ref="A96" r:id="rId68" display="r15167186038@163.com" tooltip="mailto:r15167186038@163.com"/>
+    <hyperlink ref="A97" r:id="rId69" display="s15167186038@163.com" tooltip="mailto:s15167186038@163.com"/>
+    <hyperlink ref="A98" r:id="rId70" display="t15167186038@163.com" tooltip="mailto:t15167186038@163.com"/>
+    <hyperlink ref="A99" r:id="rId71" display="u15167186038@163.com" tooltip="mailto:u15167186038@163.com"/>
+    <hyperlink ref="A92" r:id="rId72" display="n15167186038@163.com" tooltip="mailto:n15167186038@163.com"/>
+    <hyperlink ref="A93" r:id="rId73" display="o15167186038@163.com" tooltip="mailto:o15167186038@163.com"/>
+    <hyperlink ref="A94" r:id="rId74" display="p15167186038@163.com" tooltip="mailto:p15167186038@163.com"/>
+    <hyperlink ref="A95" r:id="rId75" display="q15167186038@163.com" tooltip="mailto:q15167186038@163.com"/>
+    <hyperlink ref="A79" r:id="rId76" display="m15157887349@163.com" tooltip="mailto:m15157887349@163.com"/>
+    <hyperlink ref="A100" r:id="rId77" display="v15167186038@163.com" tooltip="mailto:v15167186038@163.com"/>
+    <hyperlink ref="A101" r:id="rId78" display="w15167186038@163.com" tooltip="mailto:w15167186038@163.com"/>
+    <hyperlink ref="A102" r:id="rId79" display="x15167186038@163.com" tooltip="mailto:x15167186038@163.com"/>
+    <hyperlink ref="A103" r:id="rId80" display="y15167186038@163.com" tooltip="mailto:y15167186038@163.com"/>
+    <hyperlink ref="A104" r:id="rId81" display="z15167186038@163.com" tooltip="mailto:z15167186038@163.com"/>
+    <hyperlink ref="A48" r:id="rId82" display="ar13587172463@163.com"/>
+    <hyperlink ref="A49" r:id="rId83" display="as13587172463@163.com"/>
+    <hyperlink ref="A58" r:id="rId84" display="n13757098596@163.com" tooltip="mailto:n13757098596@163.com"/>
+    <hyperlink ref="A59" r:id="rId85" display="o13757098596@163.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2966,101 +3128,101 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>56</v>
+      <c r="A4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="11" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>113</v>
+      <c r="A7" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>78</v>
+      <c r="D8" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>91</v>
+      <c r="A9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3152,296 +3314,296 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="A10" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="B22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3449,13 +3611,13 @@
       <c r="A26" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3463,13 +3625,13 @@
       <c r="A27" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3477,13 +3639,13 @@
       <c r="A28" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3491,13 +3653,13 @@
       <c r="A29" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="7" t="s">
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3505,13 +3667,13 @@
       <c r="A30" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="B30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3519,13 +3681,13 @@
       <c r="A31" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="7" t="s">
+      <c r="B31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3533,13 +3695,13 @@
       <c r="A32" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="7" t="s">
+      <c r="B32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3547,13 +3709,13 @@
       <c r="A33" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="7" t="s">
+      <c r="B33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3561,13 +3723,13 @@
       <c r="A34" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="7" t="s">
+      <c r="B34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3575,13 +3737,13 @@
       <c r="A35" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="7" t="s">
+      <c r="B35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3589,13 +3751,13 @@
       <c r="A36" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="7" t="s">
+      <c r="B36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3603,13 +3765,13 @@
       <c r="A37" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="7" t="s">
+      <c r="B37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3617,13 +3779,13 @@
       <c r="A38" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="7" t="s">
+      <c r="B38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3631,13 +3793,13 @@
       <c r="A39" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="7" t="s">
+      <c r="B39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3645,13 +3807,13 @@
       <c r="A40" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="7" t="s">
+      <c r="B40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3659,13 +3821,13 @@
       <c r="A41" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="7" t="s">
+      <c r="B41" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3673,13 +3835,13 @@
       <c r="A42" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="7" t="s">
+      <c r="B42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3687,13 +3849,13 @@
       <c r="A43" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="7" t="s">
+      <c r="B43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3701,13 +3863,13 @@
       <c r="A44" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="7" t="s">
+      <c r="B44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3715,27 +3877,27 @@
       <c r="A45" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="7" t="s">
+      <c r="B45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="7" t="s">
+      <c r="B46" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3743,13 +3905,13 @@
       <c r="A47" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="7" t="s">
+      <c r="B47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3757,145 +3919,145 @@
       <c r="A48" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="7" t="s">
+      <c r="B48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>56</v>
+      <c r="A49" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>56</v>
+      <c r="A50" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>56</v>
+      <c r="A52" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>56</v>
+      <c r="A53" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>56</v>
+      <c r="A54" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>56</v>
+      <c r="A55" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>56</v>
+      <c r="A56" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>5</v>
@@ -3904,12 +4066,12 @@
         <v>5</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>5</v>
@@ -3918,54 +4080,54 @@
         <v>5</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="11" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>5</v>
@@ -3974,26 +4136,26 @@
         <v>5</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>8</v>
@@ -4002,12 +4164,12 @@
         <v>8</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="15" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>8</v>
@@ -4016,12 +4178,12 @@
         <v>8</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="15" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>8</v>
@@ -4030,12 +4192,12 @@
         <v>8</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="15" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>8</v>
@@ -4044,12 +4206,12 @@
         <v>8</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>8</v>
@@ -4058,12 +4220,12 @@
         <v>8</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="15" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>8</v>
@@ -4072,12 +4234,12 @@
         <v>8</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>8</v>
@@ -4086,12 +4248,12 @@
         <v>8</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="15" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>5</v>
@@ -4100,12 +4262,12 @@
         <v>5</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="15" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B73" s="14" t="s">
         <v>5</v>
@@ -4114,12 +4276,12 @@
         <v>5</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="13" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>5</v>
@@ -4128,12 +4290,12 @@
         <v>5</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="13" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>5</v>
@@ -4142,82 +4304,82 @@
         <v>5</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="16" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="16" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="16" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="16" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="16" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="16" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B81" s="17" t="s">
         <v>5</v>
@@ -4226,12 +4388,12 @@
         <v>5</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="16" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B82" s="17" t="s">
         <v>5</v>
@@ -4240,12 +4402,12 @@
         <v>5</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="16" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B83" s="17" t="s">
         <v>5</v>
@@ -4254,12 +4416,12 @@
         <v>5</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="16" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B84" s="17" t="s">
         <v>5</v>
@@ -4268,26 +4430,26 @@
         <v>5</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="17" t="s">
         <v>126</v>
-      </c>
-      <c r="B85" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="18" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B86" s="17" t="s">
         <v>5</v>
@@ -4296,12 +4458,12 @@
         <v>5</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="18" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B87" s="17" t="s">
         <v>5</v>
@@ -4310,12 +4472,12 @@
         <v>5</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="18" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B88" s="17" t="s">
         <v>5</v>
@@ -4324,12 +4486,12 @@
         <v>5</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="18" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B89" s="17" t="s">
         <v>5</v>
@@ -4338,12 +4500,12 @@
         <v>5</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="18" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B90" s="17" t="s">
         <v>5</v>
@@ -4352,427 +4514,427 @@
         <v>5</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>134</v>
+      <c r="A91" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>134</v>
+      <c r="A92" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>134</v>
+      <c r="A94" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>134</v>
+      <c r="A95" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>134</v>
+      <c r="A96" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>134</v>
+      <c r="A97" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>134</v>
+      <c r="A98" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>134</v>
+      <c r="A99" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B100" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>91</v>
+      <c r="A101" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>91</v>
+      <c r="A102" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>91</v>
+      <c r="A103" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>91</v>
+      <c r="A104" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>91</v>
+      <c r="A106" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>91</v>
+      <c r="A107" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>91</v>
+      <c r="A108" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>91</v>
+      <c r="A109" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>91</v>
+      <c r="A110" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>91</v>
+      <c r="A111" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>91</v>
+      <c r="A112" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>91</v>
+      <c r="A113" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>91</v>
+      <c r="A114" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>91</v>
+      <c r="A115" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>91</v>
+      <c r="A116" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>91</v>
+      <c r="A117" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>91</v>
+      <c r="A118" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>91</v>
+      <c r="A119" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>91</v>
+      <c r="A120" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4907,7 +5069,7 @@
   <sheetPr/>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A37" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -4933,296 +5095,296 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="A7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="B22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5230,13 +5392,13 @@
       <c r="A23" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5244,13 +5406,13 @@
       <c r="A24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5258,13 +5420,13 @@
       <c r="A25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5272,13 +5434,13 @@
       <c r="A26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5286,13 +5448,13 @@
       <c r="A27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5300,13 +5462,13 @@
       <c r="A28" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5314,13 +5476,13 @@
       <c r="A29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="7" t="s">
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5328,13 +5490,13 @@
       <c r="A30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="B30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5342,13 +5504,13 @@
       <c r="A31" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="7" t="s">
+      <c r="B31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5356,13 +5518,13 @@
       <c r="A32" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="7" t="s">
+      <c r="B32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5370,13 +5532,13 @@
       <c r="A33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="7" t="s">
+      <c r="B33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5384,13 +5546,13 @@
       <c r="A34" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="7" t="s">
+      <c r="B34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5398,13 +5560,13 @@
       <c r="A35" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="7" t="s">
+      <c r="B35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5412,13 +5574,13 @@
       <c r="A36" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="7" t="s">
+      <c r="B36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5426,13 +5588,13 @@
       <c r="A37" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="7" t="s">
+      <c r="B37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5440,13 +5602,13 @@
       <c r="A38" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="7" t="s">
+      <c r="B38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5454,13 +5616,13 @@
       <c r="A39" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="7" t="s">
+      <c r="B39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5468,13 +5630,13 @@
       <c r="A40" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="7" t="s">
+      <c r="B40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5482,13 +5644,13 @@
       <c r="A41" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="7" t="s">
+      <c r="B41" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5496,27 +5658,27 @@
       <c r="A42" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="7" t="s">
+      <c r="B42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="7" t="s">
+      <c r="B43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5524,13 +5686,13 @@
       <c r="A44" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="7" t="s">
+      <c r="B44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5538,13 +5700,13 @@
       <c r="A45" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="7" t="s">
+      <c r="B45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5603,10 +5765,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -5632,21 +5794,21 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
@@ -5655,12 +5817,12 @@
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
@@ -5669,134 +5831,119 @@
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>91</v>
+      <c r="A5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>91</v>
+      <c r="A6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>91</v>
+      <c r="A7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>91</v>
+      <c r="A8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>91</v>
+      <c r="A9" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>91</v>
+      <c r="A10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>91</v>
+      <c r="A11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="k15167186038@163.com" tooltip="mailto:k15167186038@163.com"/>
-    <hyperlink ref="A4" r:id="rId2" display="m15167186038@163.com" tooltip="mailto:m15167186038@163.com"/>
-    <hyperlink ref="A9" r:id="rId3" display="r15167186038@163.com" tooltip="mailto:r15167186038@163.com"/>
-    <hyperlink ref="A10" r:id="rId4" display="s15167186038@163.com" tooltip="mailto:s15167186038@163.com"/>
-    <hyperlink ref="A11" r:id="rId5" display="t15167186038@163.com" tooltip="mailto:t15167186038@163.com"/>
-    <hyperlink ref="A12" r:id="rId6" display="u15167186038@163.com" tooltip="mailto:u15167186038@163.com"/>
-    <hyperlink ref="A5" r:id="rId7" display="n15167186038@163.com" tooltip="mailto:n15167186038@163.com"/>
-    <hyperlink ref="A6" r:id="rId8" display="o15167186038@163.com" tooltip="mailto:o15167186038@163.com"/>
-    <hyperlink ref="A7" r:id="rId9" display="p15167186038@163.com" tooltip="mailto:p15167186038@163.com"/>
-    <hyperlink ref="A8" r:id="rId10" display="q15167186038@163.com" tooltip="mailto:q15167186038@163.com"/>
-    <hyperlink ref="A2" r:id="rId11" display="a15167186038@163.com" tooltip="mailto:a15167186038@163.com"/>
+    <hyperlink ref="A3" r:id="rId1" display="ar13587172463@163.com"/>
+    <hyperlink ref="A4" r:id="rId2" display="as13587172463@163.com"/>
+    <hyperlink ref="A2" r:id="rId3" display="a13587172463@163.com" tooltip="mailto:a13587172463@163.com"/>
+    <hyperlink ref="A5" r:id="rId4" display="a15167186038@163.com" tooltip="mailto:a15355785681@163.com"/>
+    <hyperlink ref="A6" r:id="rId5" display="u15167186038@163.com" tooltip="mailto:u15167186038@163.com"/>
+    <hyperlink ref="A7" r:id="rId6" display="v15167186038@163.com" tooltip="mailto:v15167186038@163.com"/>
+    <hyperlink ref="A8" r:id="rId7" display="w15167186038@163.com" tooltip="mailto:w15167186038@163.com"/>
+    <hyperlink ref="A9" r:id="rId8" display="x15167186038@163.com" tooltip="mailto:x15167186038@163.com"/>
+    <hyperlink ref="A10" r:id="rId9" display="y15167186038@163.com" tooltip="mailto:y15167186038@163.com"/>
+    <hyperlink ref="A11" r:id="rId10" display="z15167186038@163.com" tooltip="mailto:z15167186038@163.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/login.xlsx
+++ b/src/main/resources/login.xlsx
@@ -50,52 +50,52 @@
     <t>e15158015845@163.com</t>
   </si>
   <si>
+    <t>aa13587172463@163.com</t>
+  </si>
+  <si>
+    <t>wxl123</t>
+  </si>
+  <si>
+    <t>王新兰</t>
+  </si>
+  <si>
+    <t>b13587172463@163.com</t>
+  </si>
+  <si>
+    <t>n13587172463@163.com</t>
+  </si>
+  <si>
+    <t>o13587172463@163.com</t>
+  </si>
+  <si>
+    <t>p13587172463@163.com</t>
+  </si>
+  <si>
+    <t>r13587172463@163.com</t>
+  </si>
+  <si>
+    <t>s13587172463@163.com</t>
+  </si>
+  <si>
+    <t>t13587172463@163.com</t>
+  </si>
+  <si>
+    <t>u13587172463@163.com</t>
+  </si>
+  <si>
+    <t>v13587172463@163.com</t>
+  </si>
+  <si>
+    <t>w13587172463@163.com</t>
+  </si>
+  <si>
+    <t>x13587172463@163.com</t>
+  </si>
+  <si>
+    <t>y13587172463@163.com</t>
+  </si>
+  <si>
     <t>a13587172463@163.com</t>
-  </si>
-  <si>
-    <t>wxl123</t>
-  </si>
-  <si>
-    <t>王新兰</t>
-  </si>
-  <si>
-    <t>b13587172463@163.com</t>
-  </si>
-  <si>
-    <t>n13587172463@163.com</t>
-  </si>
-  <si>
-    <t>o13587172463@163.com</t>
-  </si>
-  <si>
-    <t>p13587172463@163.com</t>
-  </si>
-  <si>
-    <t>r13587172463@163.com</t>
-  </si>
-  <si>
-    <t>s13587172463@163.com</t>
-  </si>
-  <si>
-    <t>t13587172463@163.com</t>
-  </si>
-  <si>
-    <t>u13587172463@163.com</t>
-  </si>
-  <si>
-    <t>v13587172463@163.com</t>
-  </si>
-  <si>
-    <t>w13587172463@163.com</t>
-  </si>
-  <si>
-    <t>x13587172463@163.com</t>
-  </si>
-  <si>
-    <t>y13587172463@163.com</t>
-  </si>
-  <si>
-    <t>aa13587172463@163.com</t>
   </si>
   <si>
     <t>bb13587172463@163.com</t>
@@ -472,10 +472,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -503,6 +503,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -510,7 +517,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -518,29 +525,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,6 +561,38 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,38 +616,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,14 +632,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,13 +689,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,19 +737,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,13 +755,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,85 +833,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,6 +862,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -873,50 +891,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -936,6 +910,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -951,11 +945,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,10 +967,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -979,16 +979,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -997,115 +997,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1496,8 +1496,8 @@
   <sheetPr/>
   <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2841,7 +2841,7 @@
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="b15158015845@163.com" tooltip="mailto:b15158015845@163.com"/>
     <hyperlink ref="A2" r:id="rId2" display="d15158015845@163.com" tooltip="mailto:d15158015845@163.com"/>
-    <hyperlink ref="A5" r:id="rId3" display="a13587172463@163.com" tooltip="mailto:a13587172463@163.com"/>
+    <hyperlink ref="A5" r:id="rId3" display="aa13587172463@163.com" tooltip="mailto:aa13587172463@163.com"/>
     <hyperlink ref="A6" r:id="rId4" display="b13587172463@163.com" tooltip="mailto:b15157887349@163.com"/>
     <hyperlink ref="A7" r:id="rId5" display="n13587172463@163.com" tooltip="mailto:n13587172463@163.com"/>
     <hyperlink ref="A8" r:id="rId6" display="o13587172463@163.com" tooltip="mailto:o13587172463@163.com"/>
@@ -2854,7 +2854,7 @@
     <hyperlink ref="A15" r:id="rId13" display="w13587172463@163.com" tooltip="mailto:w13587172463@163.com"/>
     <hyperlink ref="A16" r:id="rId14" display="x13587172463@163.com" tooltip="mailto:x13587172463@163.com"/>
     <hyperlink ref="A17" r:id="rId15" display="y13587172463@163.com" tooltip="mailto:y13587172463@163.com"/>
-    <hyperlink ref="A18" r:id="rId16" display="aa13587172463@163.com" tooltip="mailto:aa13587172463@163.com"/>
+    <hyperlink ref="A18" r:id="rId16" display="a13587172463@163.com" tooltip="mailto:a13587172463@163.com"/>
     <hyperlink ref="A19" r:id="rId17" display="bb13587172463@163.com" tooltip="mailto:bb13587172463@163.com"/>
     <hyperlink ref="A20" r:id="rId18" display="cc13587172463@163.com" tooltip="mailto:cc13587172463@163.com"/>
     <hyperlink ref="A21" r:id="rId19" display="dd13587172463@163.com" tooltip="mailto:dd13587172463@163.com"/>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>11</v>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>11</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>11</v>
@@ -4982,7 +4982,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>11</v>
@@ -5178,7 +5178,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>11</v>

--- a/src/main/resources/login.xlsx
+++ b/src/main/resources/login.xlsx
@@ -7,8 +7,8 @@
     <workbookView windowWidth="19200" windowHeight="8340"/>
   </bookViews>
   <sheets>
-    <sheet name="账号信息" sheetId="2" r:id="rId1"/>
-    <sheet name="测试" sheetId="7" r:id="rId2"/>
+    <sheet name="测试" sheetId="7" r:id="rId1"/>
+    <sheet name="账号信息" sheetId="2" r:id="rId2"/>
     <sheet name="主账号收取" sheetId="5" r:id="rId3"/>
     <sheet name="账号信息_备份" sheetId="6" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="156">
   <si>
     <t>Account</t>
   </si>
@@ -32,12 +32,33 @@
     <t>UserName</t>
   </si>
   <si>
+    <t>u15167186038@163.com</t>
+  </si>
+  <si>
+    <t>zxb123</t>
+  </si>
+  <si>
+    <t>蔡云飞</t>
+  </si>
+  <si>
+    <t>v15167186038@163.com</t>
+  </si>
+  <si>
+    <t>w15167186038@163.com</t>
+  </si>
+  <si>
+    <t>x15167186038@163.com</t>
+  </si>
+  <si>
+    <t>y15167186038@163.com</t>
+  </si>
+  <si>
+    <t>z15167186038@163.com</t>
+  </si>
+  <si>
     <t>d15158015845@163.com</t>
   </si>
   <si>
-    <t>zxb123</t>
-  </si>
-  <si>
     <t>叶鹏</t>
   </si>
   <si>
@@ -299,9 +320,6 @@
     <t>a15167186038@163.com</t>
   </si>
   <si>
-    <t>蔡云飞</t>
-  </si>
-  <si>
     <t>b15167186038@163.com</t>
   </si>
   <si>
@@ -354,9 +372,6 @@
   </si>
   <si>
     <t>t15167186038@163.com</t>
-  </si>
-  <si>
-    <t>u15167186038@163.com</t>
   </si>
   <si>
     <t>a17706132072@163.com</t>
@@ -480,8 +495,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -516,7 +531,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,52 +575,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -597,7 +582,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -613,17 +597,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,10 +621,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -695,114 +710,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -821,7 +728,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,13 +740,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,11 +883,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -891,32 +912,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -936,17 +933,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,6 +956,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -973,28 +988,28 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1003,115 +1018,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1500,10 +1515,138 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="26.1272727272727" customWidth="1"/>
+    <col min="2" max="3" width="17.7545454545455" customWidth="1"/>
+    <col min="4" max="4" width="13.8727272727273" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="u15167186038@163.com" tooltip="mailto:u15167186038@163.com"/>
+    <hyperlink ref="A4" r:id="rId2" display="w15167186038@163.com" tooltip="mailto:w15167186038@163.com"/>
+    <hyperlink ref="A5" r:id="rId3" display="x15167186038@163.com" tooltip="mailto:x15167186038@163.com"/>
+    <hyperlink ref="A6" r:id="rId4" display="y15167186038@163.com" tooltip="mailto:y15167186038@163.com"/>
+    <hyperlink ref="A7" r:id="rId5" display="z15167186038@163.com" tooltip="mailto:z15167186038@163.com"/>
+    <hyperlink ref="A3" r:id="rId6" display="v15167186038@163.com" tooltip="mailto:v15167186038@163.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D102"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A97" sqref="$A97:$XFD102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1529,7 +1672,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>5</v>
@@ -1538,26 +1681,26 @@
         <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>5</v>
@@ -1566,460 +1709,460 @@
         <v>5</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>5</v>
@@ -2028,12 +2171,12 @@
         <v>5</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>5</v>
@@ -2042,12 +2185,12 @@
         <v>5</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>5</v>
@@ -2056,12 +2199,12 @@
         <v>5</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>5</v>
@@ -2070,12 +2213,12 @@
         <v>5</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>5</v>
@@ -2084,12 +2227,12 @@
         <v>5</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>5</v>
@@ -2098,12 +2241,12 @@
         <v>5</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>5</v>
@@ -2112,12 +2255,12 @@
         <v>5</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>5</v>
@@ -2126,12 +2269,12 @@
         <v>5</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>5</v>
@@ -2140,12 +2283,12 @@
         <v>5</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>5</v>
@@ -2154,12 +2297,12 @@
         <v>5</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>5</v>
@@ -2168,12 +2311,12 @@
         <v>5</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>5</v>
@@ -2182,12 +2325,12 @@
         <v>5</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>5</v>
@@ -2196,12 +2339,12 @@
         <v>5</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>5</v>
@@ -2210,12 +2353,12 @@
         <v>5</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>5</v>
@@ -2224,12 +2367,12 @@
         <v>5</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>5</v>
@@ -2238,12 +2381,12 @@
         <v>5</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>5</v>
@@ -2252,12 +2395,12 @@
         <v>5</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>5</v>
@@ -2266,26 +2409,26 @@
         <v>5</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>5</v>
@@ -2294,12 +2437,12 @@
         <v>5</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>5</v>
@@ -2308,26 +2451,26 @@
         <v>5</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>5</v>
@@ -2336,12 +2479,12 @@
         <v>5</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>5</v>
@@ -2350,54 +2493,54 @@
         <v>5</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="9" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="9" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>5</v>
@@ -2406,12 +2549,12 @@
         <v>5</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="9" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>5</v>
@@ -2420,124 +2563,124 @@
         <v>5</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="11" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="13" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="13" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="13" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="13" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="13" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="13" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="13" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B74" s="12" t="s">
         <v>5</v>
@@ -2546,12 +2689,12 @@
         <v>5</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="11" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>5</v>
@@ -2560,12 +2703,12 @@
         <v>5</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="11" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B76" s="12" t="s">
         <v>5</v>
@@ -2574,12 +2717,12 @@
         <v>5</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="11" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B77" s="12" t="s">
         <v>5</v>
@@ -2588,12 +2731,12 @@
         <v>5</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>5</v>
@@ -2602,12 +2745,12 @@
         <v>5</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>5</v>
@@ -2616,12 +2759,12 @@
         <v>5</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>5</v>
@@ -2630,12 +2773,12 @@
         <v>5</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>5</v>
@@ -2644,12 +2787,12 @@
         <v>5</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>5</v>
@@ -2658,12 +2801,12 @@
         <v>5</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>5</v>
@@ -2672,12 +2815,12 @@
         <v>5</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>5</v>
@@ -2686,12 +2829,12 @@
         <v>5</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>5</v>
@@ -2700,12 +2843,12 @@
         <v>5</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>5</v>
@@ -2714,12 +2857,12 @@
         <v>5</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="17" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>5</v>
@@ -2728,12 +2871,12 @@
         <v>5</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>5</v>
@@ -2742,12 +2885,12 @@
         <v>5</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>5</v>
@@ -2756,12 +2899,12 @@
         <v>5</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>5</v>
@@ -2770,12 +2913,12 @@
         <v>5</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>5</v>
@@ -2784,12 +2927,12 @@
         <v>5</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>5</v>
@@ -2798,12 +2941,12 @@
         <v>5</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>5</v>
@@ -2812,12 +2955,12 @@
         <v>5</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>5</v>
@@ -2826,12 +2969,12 @@
         <v>5</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>5</v>
@@ -2840,12 +2983,12 @@
         <v>5</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>5</v>
@@ -2854,12 +2997,12 @@
         <v>5</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="17" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>5</v>
@@ -2868,7 +3011,77 @@
         <v>5</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2969,89 +3182,11 @@
     <hyperlink ref="A77" r:id="rId76" display="m15157887349@163.com" tooltip="mailto:m15157887349@163.com"/>
     <hyperlink ref="A56" r:id="rId77" display="n13757098596@163.com" tooltip="mailto:n13757098596@163.com"/>
     <hyperlink ref="A57" r:id="rId78" display="o13757098596@163.com" tooltip="mailto:o13757098596@163.com"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="26.1272727272727" customWidth="1"/>
-    <col min="2" max="3" width="17.7545454545455" customWidth="1"/>
-    <col min="4" max="4" width="13.8727272727273" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="a13757098596@163.com" tooltip="mailto:a13757098596@163.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="n13757098596@163.com" tooltip="mailto:n13757098596@163.com"/>
-    <hyperlink ref="A4" r:id="rId3" display="o13757098596@163.com" tooltip="mailto:o13757098596@163.com"/>
+    <hyperlink ref="A99" r:id="rId79" display="w15167186038@163.com" tooltip="mailto:w15167186038@163.com"/>
+    <hyperlink ref="A100" r:id="rId80" display="x15167186038@163.com" tooltip="mailto:x15167186038@163.com"/>
+    <hyperlink ref="A101" r:id="rId81" display="y15167186038@163.com" tooltip="mailto:y15167186038@163.com"/>
+    <hyperlink ref="A102" r:id="rId82" display="z15167186038@163.com" tooltip="mailto:z15167186038@163.com"/>
+    <hyperlink ref="A98" r:id="rId83" display="v15167186038@163.com" tooltip="mailto:v15167186038@163.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3090,7 +3225,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>5</v>
@@ -3099,40 +3234,40 @@
         <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="14" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>5</v>
@@ -3141,82 +3276,82 @@
         <v>5</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="19" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>5</v>
@@ -3225,7 +3360,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3278,7 +3413,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>5</v>
@@ -3287,26 +3422,26 @@
         <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>5</v>
@@ -3315,474 +3450,474 @@
         <v>5</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>5</v>
@@ -3791,12 +3926,12 @@
         <v>5</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>5</v>
@@ -3805,12 +3940,12 @@
         <v>5</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>5</v>
@@ -3819,12 +3954,12 @@
         <v>5</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>5</v>
@@ -3833,12 +3968,12 @@
         <v>5</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>5</v>
@@ -3847,12 +3982,12 @@
         <v>5</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>5</v>
@@ -3861,12 +3996,12 @@
         <v>5</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>5</v>
@@ -3875,12 +4010,12 @@
         <v>5</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>5</v>
@@ -3889,12 +4024,12 @@
         <v>5</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>5</v>
@@ -3903,12 +4038,12 @@
         <v>5</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>5</v>
@@ -3917,12 +4052,12 @@
         <v>5</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>5</v>
@@ -3931,12 +4066,12 @@
         <v>5</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>5</v>
@@ -3945,12 +4080,12 @@
         <v>5</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>5</v>
@@ -3959,12 +4094,12 @@
         <v>5</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>5</v>
@@ -3973,12 +4108,12 @@
         <v>5</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>5</v>
@@ -3987,12 +4122,12 @@
         <v>5</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>5</v>
@@ -4001,12 +4136,12 @@
         <v>5</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>5</v>
@@ -4015,12 +4150,12 @@
         <v>5</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>5</v>
@@ -4029,40 +4164,40 @@
         <v>5</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>5</v>
@@ -4071,12 +4206,12 @@
         <v>5</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>5</v>
@@ -4085,54 +4220,54 @@
         <v>5</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="9" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="9" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>5</v>
@@ -4141,12 +4276,12 @@
         <v>5</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="9" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>5</v>
@@ -4155,124 +4290,124 @@
         <v>5</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="11" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="13" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="13" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="13" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="13" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="13" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="13" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="13" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>5</v>
@@ -4281,12 +4416,12 @@
         <v>5</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="11" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B74" s="12" t="s">
         <v>5</v>
@@ -4295,12 +4430,12 @@
         <v>5</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="11" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>5</v>
@@ -4309,96 +4444,96 @@
         <v>5</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="14" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="14" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="14" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="14" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B80" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B80" s="15" t="s">
-        <v>123</v>
-      </c>
       <c r="C80" s="15" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="14" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>5</v>
@@ -4407,12 +4542,12 @@
         <v>5</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="14" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B83" s="15" t="s">
         <v>5</v>
@@ -4421,12 +4556,12 @@
         <v>5</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="14" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B84" s="15" t="s">
         <v>5</v>
@@ -4435,12 +4570,12 @@
         <v>5</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="16" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>5</v>
@@ -4449,12 +4584,12 @@
         <v>5</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="16" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B86" s="15" t="s">
         <v>5</v>
@@ -4463,12 +4598,12 @@
         <v>5</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="16" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B87" s="15" t="s">
         <v>5</v>
@@ -4477,12 +4612,12 @@
         <v>5</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="16" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B88" s="15" t="s">
         <v>5</v>
@@ -4491,12 +4626,12 @@
         <v>5</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="16" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B89" s="15" t="s">
         <v>5</v>
@@ -4505,12 +4640,12 @@
         <v>5</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="16" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B90" s="15" t="s">
         <v>5</v>
@@ -4519,124 +4654,124 @@
         <v>5</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="C95" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D96" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>5</v>
@@ -4645,12 +4780,12 @@
         <v>5</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>5</v>
@@ -4659,12 +4794,12 @@
         <v>5</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>5</v>
@@ -4673,12 +4808,12 @@
         <v>5</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>5</v>
@@ -4687,12 +4822,12 @@
         <v>5</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>5</v>
@@ -4701,12 +4836,12 @@
         <v>5</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>5</v>
@@ -4715,12 +4850,12 @@
         <v>5</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>5</v>
@@ -4729,12 +4864,12 @@
         <v>5</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>5</v>
@@ -4743,12 +4878,12 @@
         <v>5</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>5</v>
@@ -4757,12 +4892,12 @@
         <v>5</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>5</v>
@@ -4771,12 +4906,12 @@
         <v>5</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>5</v>
@@ -4785,12 +4920,12 @@
         <v>5</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="17" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>5</v>
@@ -4799,12 +4934,12 @@
         <v>5</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>5</v>
@@ -4813,12 +4948,12 @@
         <v>5</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>5</v>
@@ -4827,12 +4962,12 @@
         <v>5</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>5</v>
@@ -4841,12 +4976,12 @@
         <v>5</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>5</v>
@@ -4855,12 +4990,12 @@
         <v>5</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>5</v>
@@ -4869,12 +5004,12 @@
         <v>5</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>5</v>
@@ -4883,12 +5018,12 @@
         <v>5</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>5</v>
@@ -4897,12 +5032,12 @@
         <v>5</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>5</v>
@@ -4911,12 +5046,12 @@
         <v>5</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>5</v>
@@ -4925,12 +5060,12 @@
         <v>5</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="17" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>5</v>
@@ -4939,7 +5074,7 @@
         <v>5</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -5074,7 +5209,7 @@
   <sheetPr/>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A30" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -5101,469 +5236,469 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>5</v>
@@ -5572,12 +5707,12 @@
         <v>5</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>5</v>
@@ -5586,12 +5721,12 @@
         <v>5</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>5</v>
@@ -5600,12 +5735,12 @@
         <v>5</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>5</v>
@@ -5614,12 +5749,12 @@
         <v>5</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>5</v>
@@ -5628,12 +5763,12 @@
         <v>5</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>5</v>
@@ -5642,12 +5777,12 @@
         <v>5</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>5</v>
@@ -5656,12 +5791,12 @@
         <v>5</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>5</v>
@@ -5670,12 +5805,12 @@
         <v>5</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>5</v>
@@ -5684,12 +5819,12 @@
         <v>5</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>5</v>
@@ -5698,12 +5833,12 @@
         <v>5</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>5</v>
@@ -5712,7 +5847,7 @@
         <v>5</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/login.xlsx
+++ b/src/main/resources/login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8310"/>
+    <workbookView windowWidth="19200" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="账号信息" sheetId="2" r:id="rId1"/>
@@ -493,8 +493,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -530,6 +530,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -538,7 +546,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,6 +576,30 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,15 +621,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,59 +635,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -651,9 +643,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,7 +710,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,7 +746,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,25 +764,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,13 +776,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,7 +794,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,7 +806,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,49 +830,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,6 +883,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -904,16 +928,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,50 +972,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -988,10 +988,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1003,13 +1003,13 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1018,115 +1018,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1523,15 +1523,15 @@
   <sheetPr/>
   <dimension ref="A1:XFD102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="26.1238938053097" customWidth="1"/>
-    <col min="2" max="3" width="17.7522123893805" customWidth="1"/>
-    <col min="4" max="4" width="13.8761061946903" customWidth="1"/>
+    <col min="1" max="1" width="26.1272727272727" customWidth="1"/>
+    <col min="2" max="3" width="17.7545454545455" customWidth="1"/>
+    <col min="4" max="4" width="13.8727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -19457,14 +19457,14 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="26.1238938053097" customWidth="1"/>
-    <col min="2" max="3" width="17.7522123893805" customWidth="1"/>
-    <col min="4" max="4" width="13.8761061946903" customWidth="1"/>
+    <col min="1" max="1" width="26.1272727272727" customWidth="1"/>
+    <col min="2" max="3" width="17.7545454545455" customWidth="1"/>
+    <col min="4" max="4" width="13.8727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -19543,11 +19543,11 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="26.1238938053097" customWidth="1"/>
-    <col min="2" max="3" width="17.7522123893805" customWidth="1"/>
-    <col min="4" max="4" width="13.8761061946903" customWidth="1"/>
+    <col min="1" max="1" width="26.1272727272727" customWidth="1"/>
+    <col min="2" max="3" width="17.7545454545455" customWidth="1"/>
+    <col min="4" max="4" width="13.8727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -19731,11 +19731,11 @@
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="26.1238938053097" customWidth="1"/>
-    <col min="2" max="3" width="17.7522123893805" customWidth="1"/>
-    <col min="4" max="4" width="13.8761061946903" customWidth="1"/>
+    <col min="1" max="1" width="26.1272727272727" customWidth="1"/>
+    <col min="2" max="3" width="17.7545454545455" customWidth="1"/>
+    <col min="4" max="4" width="13.8727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -21554,11 +21554,11 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="26.1238938053097" customWidth="1"/>
-    <col min="2" max="3" width="17.7522123893805" customWidth="1"/>
-    <col min="4" max="4" width="13.8761061946903" customWidth="1"/>
+    <col min="1" max="1" width="26.1272727272727" customWidth="1"/>
+    <col min="2" max="3" width="17.7545454545455" customWidth="1"/>
+    <col min="4" max="4" width="13.8727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
